--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$N$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,6 +44,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Sequence</t>
+  </si>
+  <si>
     <t>Set</t>
   </si>
   <si>
@@ -53,7 +56,7 @@
     <t>Primer_Name</t>
   </si>
   <si>
-    <t>Sequence</t>
+    <t>Referrence</t>
   </si>
   <si>
     <t>Position_Start</t>
@@ -65,9 +68,6 @@
     <t>Primer_Size</t>
   </si>
   <si>
-    <t>Referrence</t>
-  </si>
-  <si>
     <t>Off_target_subgenotype</t>
   </si>
   <si>
@@ -83,6 +83,9 @@
     <t>C-prM</t>
   </si>
   <si>
+    <t>TCAATATGCTGAAACGCGCGAGAAACCG</t>
+  </si>
+  <si>
     <t>Lanciotti_1992</t>
   </si>
   <si>
@@ -92,46 +95,46 @@
     <t>D1</t>
   </si>
   <si>
-    <t>TCAATATGCTGAAACGCGCGAGAAACCG</t>
-  </si>
-  <si>
     <t>Journal of Clinical Microbiology;1992;30:545-551</t>
   </si>
   <si>
+    <t>TTGCACCAACAGTCAATGTCTTCAGGTTC</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>TTGCACCAACAGTCAATGTCTTCAGGTTC</t>
+    <t>CGTCTCAGTGATCCGGGGG</t>
   </si>
   <si>
     <t>TS1</t>
   </si>
   <si>
-    <t>CGTCTCAGTGATCCGGGGG</t>
+    <t>CGCCACAAGGGCCATGAACAG</t>
   </si>
   <si>
     <t>TS2</t>
   </si>
   <si>
-    <t>CGCCACAAGGGCCATGAACAG</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
+    <t>TAACATCATCATGAGACAGAGC</t>
+  </si>
+  <si>
     <t>TS3</t>
   </si>
   <si>
-    <t>TAACATCATCATGAGACAGAGC</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
+    <t>CTCTGTTGTCTTAAACAAGAGA</t>
+  </si>
+  <si>
     <t>TS4</t>
   </si>
   <si>
-    <t>CTCTGTTGTCTTAAACAAGAGA</t>
+    <t>TTAGAGGAGACCCCTCCC</t>
   </si>
   <si>
     <t>Chutinimitkul_2005</t>
@@ -140,54 +143,54 @@
     <t>Den_F</t>
   </si>
   <si>
-    <t>TTAGAGGAGACCCCTCCC</t>
-  </si>
-  <si>
     <t>Journal of Virological Methods;2005;129:8-15</t>
   </si>
   <si>
+    <t>TCTCCTCTAACCTCTAGTCC</t>
+  </si>
+  <si>
     <t>Den_R</t>
   </si>
   <si>
-    <t>TCTCCTCTAACCTCTAGTCC</t>
-  </si>
-  <si>
     <t>NS5</t>
   </si>
   <si>
+    <t>GAYYTIGGITGYGGIIGIGGIRGITGG</t>
+  </si>
+  <si>
     <t>SanchezSeco_2005</t>
   </si>
   <si>
     <t>Flavi1+</t>
   </si>
   <si>
-    <t>GAYYTIGGITGYGGIIGIGGIRGITGG</t>
-  </si>
-  <si>
     <t>Journal of Virological Methods;2005;126:101-109</t>
   </si>
   <si>
+    <t>TCCCAICCIGCIRTRTCRTCIGC</t>
+  </si>
+  <si>
     <t>Flavi1-</t>
   </si>
   <si>
-    <t>TCCCAICCIGCIRTRTCRTCIGC</t>
+    <t>YGYRTIYAYWCAYSATGGG</t>
   </si>
   <si>
     <t>Flavi2+</t>
   </si>
   <si>
-    <t>YGYRTIYAYWCAYSATGGG</t>
+    <t>CCARTGITCYKYRTTIAIRAAICC</t>
   </si>
   <si>
     <t>Flavi2-</t>
   </si>
   <si>
-    <t>CCARTGITCYKYRTTIAIRAAICC</t>
-  </si>
-  <si>
     <t>qPCR</t>
   </si>
   <si>
+    <t>CAAAAGGAAGTCTGTGCAATA</t>
+  </si>
+  <si>
     <t>Gubler_2002</t>
   </si>
   <si>
@@ -197,24 +200,21 @@
     <t>D1-F</t>
   </si>
   <si>
-    <t>CAAAAGGAAGTCTGTGCAATA</t>
-  </si>
-  <si>
     <t>Trends in Microbiology;2002;10:100-103</t>
   </si>
   <si>
+    <t>CTGAGTGAATTCTCTCTACTGAAC</t>
+  </si>
+  <si>
     <t>D1-R</t>
   </si>
   <si>
-    <t>CTGAGTGAATTCTCTCTACTGAAC</t>
+    <t>CATGTGGTTGGGAGCACGC</t>
   </si>
   <si>
     <t>D1-Probe</t>
   </si>
   <si>
-    <t>CATGTGGTTGGGAGCACGC</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -254,109 +254,109 @@
     <t>Sanger</t>
   </si>
   <si>
+    <t>CACTCCACTGAGTGAATTCTCTCT</t>
+  </si>
+  <si>
     <t>Christenbury_2010</t>
   </si>
   <si>
     <t>d1a4</t>
   </si>
   <si>
-    <t>CACTCCACTGAGTGAATTCTCTCT</t>
+    <t>CAAGTCCCATCAATATAGCTGC</t>
   </si>
   <si>
     <t>d1a8</t>
   </si>
   <si>
-    <t>CAAGTCCCATCAATATAGCTGC</t>
+    <t>CCTCGTCCTCAATCTCTGGTAG</t>
   </si>
   <si>
     <t>d1a12</t>
   </si>
   <si>
-    <t>CCTCGTCCTCAATCTCTGGTAG</t>
+    <t>CCAATGGCYGCTGAYAGTCT</t>
   </si>
   <si>
     <t>d1a17</t>
   </si>
   <si>
-    <t>CCAATGGCYGCTGAYAGTCT</t>
+    <t>TTTGTCGGTCTGGGGGGGTATAGAACCTGTTGATTCAACRGC</t>
   </si>
   <si>
     <t>d1a5B</t>
   </si>
   <si>
-    <t>TTTGTCGGTCTGGGGGGGTATAGAACCTGTTGATTCAACRGC</t>
+    <t>GATGAGGGAAGATGGGGAGTTGTTAGTCTACGTGGAC</t>
   </si>
   <si>
     <t>d1s1C</t>
   </si>
   <si>
-    <t>GATGAGGGAAGATGGGGAGTTGTTAGTCTACGTGGAC</t>
+    <t>GGYTCTATAGGAGGRGTGTTCAC</t>
   </si>
   <si>
     <t>d1s6</t>
   </si>
   <si>
-    <t>GGYTCTATAGGAGGRGTGTTCAC</t>
+    <t>ACAAACAGCAGGGCCRTGGCA</t>
   </si>
   <si>
     <t>d1s8</t>
   </si>
   <si>
-    <t>ACAAACAGCAGGGCCRTGGCA</t>
+    <t>ATGGRGAAAGGAACAACCAG</t>
   </si>
   <si>
     <t>d1s14</t>
   </si>
   <si>
-    <t>ATGGRGAAAGGAACAACCAG</t>
+    <t>CCACYCATGAAATGTAYTGGGT</t>
   </si>
   <si>
     <t>d1s18</t>
   </si>
   <si>
-    <t>CCACYCATGAAATGTAYTGGGT</t>
+    <t>CATYGCAATRAGRGTGCACAT</t>
   </si>
   <si>
     <t>d1a21</t>
   </si>
   <si>
-    <t>CATYGCAATRAGRGTGCACAT</t>
+    <t>AAACGTTCCGTSGCACTGGC</t>
   </si>
   <si>
     <t>d1s3</t>
   </si>
   <si>
-    <t>AAACGTTCCGTSGCACTGGC</t>
+    <t>CGTCTTCAAGAGTTCAATGTCC</t>
   </si>
   <si>
     <t>d1a20</t>
   </si>
   <si>
-    <t>CGTCTTCAAGAGTTCAATGTCC</t>
+    <t>TGTGTGTCGMCGAACGTT</t>
   </si>
   <si>
     <t>d1s4</t>
   </si>
   <si>
-    <t>TGTGTGTCGMCGAACGTT</t>
+    <t>GTTTGTGGACRAGCCATGATT</t>
   </si>
   <si>
     <t>d1a19</t>
   </si>
   <si>
-    <t>GTTTGTGGACRAGCCATGATT</t>
+    <t>GCAATGCACACYGCGTTG</t>
   </si>
   <si>
     <t>d1s5</t>
   </si>
   <si>
-    <t>GCAATGCACACYGCGTTG</t>
+    <t>AAAGGTGGYTCYGYYTCAAT</t>
   </si>
   <si>
     <t>d1a18</t>
-  </si>
-  <si>
-    <t>AAAGGTGGYTCYGYYTCAAT</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,9 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1543,9 +1540,9 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1554,14 +1551,14 @@
     <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.3416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.3416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="39.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.25" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
@@ -1606,752 +1603,752 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1">
         <v>134</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>161</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" customHeight="1" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1">
         <v>616</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>644</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1">
         <v>568</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>586</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1">
         <v>232</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>252</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>20</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="1">
         <v>400</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>421</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="1">
         <v>506</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>527</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>21</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:12">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="3" t="s">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="3" t="s">
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1">
         <v>7871</v>
       </c>
-      <c r="L10" s="3" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="3" t="s">
+      <c r="J11" s="1">
+        <v>9255</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="1">
-        <v>9255</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="J12" s="1">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8987</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="3" t="s">
+      <c r="J13" s="1">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1">
-        <v>9130</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="3" t="s">
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8936</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="1">
-        <v>8936</v>
-      </c>
-      <c r="J14" s="1">
-        <v>8955</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="3" t="s">
+      <c r="J15" s="1">
+        <v>9023</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:11">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="1">
-        <v>9023</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9047</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="J16" s="1">
+        <v>8961</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="1">
-        <v>8961</v>
-      </c>
-      <c r="J16" s="1">
-        <v>8979</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="3" t="s">
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="3" t="s">
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="3" t="s">
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="3" t="s">
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:12">
-      <c r="A21" s="3" t="s">
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="G22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:12">
-      <c r="A22" s="3" t="s">
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="G23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:12">
-      <c r="A23" s="3" t="s">
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:12">
-      <c r="A24" s="3" t="s">
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:12">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2363,16 +2360,16 @@
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>76</v>
@@ -2386,16 +2383,16 @@
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>78</v>
@@ -2409,16 +2406,16 @@
         <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>80</v>
@@ -2432,16 +2429,16 @@
         <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>82</v>
@@ -2455,16 +2452,16 @@
         <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>84</v>
@@ -2478,16 +2475,16 @@
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>86</v>
@@ -2501,16 +2498,16 @@
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>88</v>
@@ -2524,16 +2521,16 @@
         <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>90</v>
@@ -2547,16 +2544,16 @@
         <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>92</v>
@@ -2570,16 +2567,16 @@
         <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>94</v>
@@ -2593,16 +2590,16 @@
         <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>96</v>
@@ -2616,63 +2613,63 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="7:8">
-      <c r="G38" s="1" t="s">
+    <row r="38" customHeight="1" spans="5:8">
+      <c r="E38" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="7:8">
-      <c r="G39" s="1" t="s">
+    <row r="39" customHeight="1" spans="5:8">
+      <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="7:8">
-      <c r="G40" s="1" t="s">
+    <row r="40" customHeight="1" spans="5:8">
+      <c r="E40" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="7:8">
-      <c r="G41" s="1" t="s">
+    <row r="41" customHeight="1" spans="5:8">
+      <c r="E41" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="7:8">
-      <c r="G42" s="1" t="s">
+    <row r="42" customHeight="1" spans="5:8">
+      <c r="E42" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="7:8">
-      <c r="G43" s="1" t="s">
+    <row r="43" customHeight="1" spans="5:8">
+      <c r="E43" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -2680,7 +2677,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N40">
+  <autoFilter ref="A1:N43">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$N$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$M$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,15 +47,15 @@
     <t>Sequence</t>
   </si>
   <si>
+    <t>Primer_Name</t>
+  </si>
+  <si>
     <t>Set</t>
   </si>
   <si>
     <t>Primer_Note</t>
   </si>
   <si>
-    <t>Primer_Name</t>
-  </si>
-  <si>
     <t>Referrence</t>
   </si>
   <si>
@@ -86,15 +86,15 @@
     <t>TCAATATGCTGAAACGCGCGAGAAACCG</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>Lanciotti_1992</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>Journal of Clinical Microbiology;1992;30:545-551</t>
   </si>
   <si>
@@ -137,12 +137,12 @@
     <t>TTAGAGGAGACCCCTCCC</t>
   </si>
   <si>
+    <t>Den_F</t>
+  </si>
+  <si>
     <t>Chutinimitkul_2005</t>
   </si>
   <si>
-    <t>Den_F</t>
-  </si>
-  <si>
     <t>Journal of Virological Methods;2005;129:8-15</t>
   </si>
   <si>
@@ -158,12 +158,12 @@
     <t>GAYYTIGGITGYGGIIGIGGIRGITGG</t>
   </si>
   <si>
+    <t>Flavi1+</t>
+  </si>
+  <si>
     <t>SanchezSeco_2005</t>
   </si>
   <si>
-    <t>Flavi1+</t>
-  </si>
-  <si>
     <t>Journal of Virological Methods;2005;126:101-109</t>
   </si>
   <si>
@@ -191,15 +191,15 @@
     <t>CAAAAGGAAGTCTGTGCAATA</t>
   </si>
   <si>
+    <t>D1-F</t>
+  </si>
+  <si>
     <t>Gubler_2002</t>
   </si>
   <si>
     <t>USCDC</t>
   </si>
   <si>
-    <t>D1-F</t>
-  </si>
-  <si>
     <t>Trends in Microbiology;2002;10:100-103</t>
   </si>
   <si>
@@ -257,10 +257,10 @@
     <t>CACTCCACTGAGTGAATTCTCTCT</t>
   </si>
   <si>
+    <t>d1a4</t>
+  </si>
+  <si>
     <t>Christenbury_2010</t>
-  </si>
-  <si>
-    <t>d1a4</t>
   </si>
   <si>
     <t>CAAGTCCCATCAATATAGCTGC</t>
@@ -991,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,9 +1000,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1537,12 +1534,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1552,9 +1549,9 @@
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.3416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
@@ -1563,7 +1560,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1600,6 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1660,13 +1656,13 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>21</v>
@@ -1689,7 +1685,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1698,13 +1694,13 @@
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -1736,13 +1732,13 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>21</v>
@@ -1774,13 +1770,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
@@ -1812,13 +1808,13 @@
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>21</v>
@@ -1850,10 +1846,10 @@
         <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>37</v>
@@ -1873,13 +1869,13 @@
         <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>37</v>
@@ -1905,10 +1901,10 @@
         <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>44</v>
@@ -1934,13 +1930,13 @@
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>44</v>
@@ -1966,13 +1962,13 @@
         <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>44</v>
@@ -1998,13 +1994,13 @@
         <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>44</v>
@@ -2021,7 +2017,7 @@
         <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>40</v>
@@ -2056,7 +2052,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>40</v>
@@ -2065,13 +2061,13 @@
         <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>56</v>
@@ -2091,7 +2087,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>40</v>
@@ -2100,13 +2096,13 @@
         <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>56</v>
@@ -2132,13 +2128,13 @@
         <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>56</v>
@@ -2158,13 +2154,13 @@
         <v>61</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>56</v>
@@ -2184,13 +2180,13 @@
         <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>56</v>
@@ -2210,13 +2206,13 @@
         <v>65</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>56</v>
@@ -2236,13 +2232,13 @@
         <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>56</v>
@@ -2262,13 +2258,13 @@
         <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>56</v>
@@ -2288,13 +2284,13 @@
         <v>65</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>56</v>
@@ -2314,13 +2310,13 @@
         <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>56</v>
@@ -2340,13 +2336,13 @@
         <v>65</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>56</v>
@@ -2360,7 +2356,7 @@
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>74</v>
@@ -2369,10 +2365,10 @@
         <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
@@ -2383,19 +2379,19 @@
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:8">
@@ -2406,19 +2402,19 @@
         <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:8">
@@ -2429,19 +2425,19 @@
         <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
@@ -2452,19 +2448,19 @@
         <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
@@ -2475,19 +2471,19 @@
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:8">
@@ -2498,19 +2494,19 @@
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:8">
@@ -2521,19 +2517,19 @@
         <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:8">
@@ -2544,19 +2540,19 @@
         <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:8">
@@ -2567,19 +2563,19 @@
         <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:8">
@@ -2590,19 +2586,19 @@
         <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
@@ -2613,71 +2609,71 @@
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="5:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="5:6">
       <c r="E38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="5:8">
+    <row r="39" customHeight="1" spans="5:6">
       <c r="E39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="5:8">
+    <row r="40" customHeight="1" spans="5:6">
       <c r="E40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="5:8">
+    <row r="41" customHeight="1" spans="5:6">
       <c r="E41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="5:8">
+    <row r="42" customHeight="1" spans="5:6">
       <c r="E42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="5:8">
+    <row r="43" customHeight="1" spans="5:6">
       <c r="E43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N43">
+  <autoFilter ref="A1:M43">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="110">
   <si>
     <t>Usage</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Sanger</t>
+  </si>
+  <si>
+    <t>Genome</t>
   </si>
   <si>
     <t>CACTCCACTGAGTGAATTCTCTCT</t>
@@ -1537,9 +1540,9 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2358,14 +2361,17 @@
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>20</v>
@@ -2381,14 +2387,17 @@
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>20</v>
@@ -2404,14 +2413,17 @@
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>20</v>
@@ -2427,14 +2439,17 @@
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>20</v>
@@ -2450,14 +2465,17 @@
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>20</v>
@@ -2473,14 +2491,17 @@
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>20</v>
@@ -2496,14 +2517,17 @@
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>20</v>
@@ -2519,14 +2543,17 @@
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>20</v>
@@ -2542,14 +2569,17 @@
       <c r="C34" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E34" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>20</v>
@@ -2565,14 +2595,17 @@
       <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>20</v>
@@ -2588,14 +2621,17 @@
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>20</v>
@@ -2611,65 +2647,86 @@
       <c r="C37" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="5:6">
+    <row r="38" customHeight="1" spans="4:6">
+      <c r="D38" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="5:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="4:6">
+      <c r="D39" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="5:6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="4:6">
+      <c r="D40" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="5:6">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="4:6">
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="5:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="4:6">
+      <c r="D42" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="5:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="4:6">
+      <c r="D43" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E43" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24195" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$M$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="110">
-  <si>
-    <t>Usage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="111">
   <si>
     <t>Method</t>
   </si>
@@ -41,13 +38,28 @@
     <t>Serotype</t>
   </si>
   <si>
+    <t>Primer_Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
     <t>Target</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>Primer_Name</t>
+    <t>Position_Start</t>
+  </si>
+  <si>
+    <t>Position_End</t>
+  </si>
+  <si>
+    <t>Primer_Size</t>
+  </si>
+  <si>
+    <t>Offtarget_rate</t>
+  </si>
+  <si>
+    <t>Off_target_subgenotype</t>
   </si>
   <si>
     <t>Set</t>
@@ -59,36 +71,21 @@
     <t>Referrence</t>
   </si>
   <si>
-    <t>Position_Start</t>
-  </si>
-  <si>
-    <t>Position_End</t>
-  </si>
-  <si>
-    <t>Primer_Size</t>
-  </si>
-  <si>
-    <t>Off_target_subgenotype</t>
-  </si>
-  <si>
-    <t>Detection</t>
-  </si>
-  <si>
     <t>PCR</t>
   </si>
   <si>
     <t>Universal</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>TCAATATGCTGAAACGCGCGAGAAACCG</t>
+  </si>
+  <si>
     <t>C-prM</t>
   </si>
   <si>
-    <t>TCAATATGCTGAAACGCGCGAGAAACCG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
     <t>Lanciotti_1992</t>
   </si>
   <si>
@@ -98,102 +95,111 @@
     <t>Journal of Clinical Microbiology;1992;30:545-551</t>
   </si>
   <si>
+    <t>D2</t>
+  </si>
+  <si>
     <t>TTGCACCAACAGTCAATGTCTTCAGGTTC</t>
   </si>
   <si>
-    <t>D2</t>
+    <t>TS1</t>
   </si>
   <si>
     <t>CGTCTCAGTGATCCGGGGG</t>
   </si>
   <si>
-    <t>TS1</t>
+    <t>TS2</t>
   </si>
   <si>
     <t>CGCCACAAGGGCCATGAACAG</t>
   </si>
   <si>
-    <t>TS2</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
+    <t>TS3</t>
+  </si>
+  <si>
     <t>TAACATCATCATGAGACAGAGC</t>
   </si>
   <si>
-    <t>TS3</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
+    <t>TS4</t>
+  </si>
+  <si>
     <t>CTCTGTTGTCTTAAACAAGAGA</t>
   </si>
   <si>
-    <t>TS4</t>
+    <t>Den_F</t>
   </si>
   <si>
     <t>TTAGAGGAGACCCCTCCC</t>
   </si>
   <si>
-    <t>Den_F</t>
-  </si>
-  <si>
     <t>Chutinimitkul_2005</t>
   </si>
   <si>
     <t>Journal of Virological Methods;2005;129:8-15</t>
   </si>
   <si>
+    <t>Den_R</t>
+  </si>
+  <si>
     <t>TCTCCTCTAACCTCTAGTCC</t>
   </si>
   <si>
-    <t>Den_R</t>
+    <t>Flavi1+</t>
+  </si>
+  <si>
+    <t>GAYYTIGGITGYGGIIGIGGIRGITGG</t>
   </si>
   <si>
     <t>NS5</t>
   </si>
   <si>
-    <t>GAYYTIGGITGYGGIIGIGGIRGITGG</t>
-  </si>
-  <si>
-    <t>Flavi1+</t>
-  </si>
-  <si>
     <t>SanchezSeco_2005</t>
   </si>
   <si>
     <t>Journal of Virological Methods;2005;126:101-109</t>
   </si>
   <si>
+    <t>Flavi1-</t>
+  </si>
+  <si>
     <t>TCCCAICCIGCIRTRTCRTCIGC</t>
   </si>
   <si>
-    <t>Flavi1-</t>
+    <t>Flavi2+</t>
   </si>
   <si>
     <t>YGYRTIYAYWCAYSATGGG</t>
   </si>
   <si>
-    <t>Flavi2+</t>
+    <t>Flavi2-</t>
   </si>
   <si>
     <t>CCARTGITCYKYRTTIAIRAAICC</t>
   </si>
   <si>
-    <t>Flavi2-</t>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>TTTGTGGTTTCCAGCAGTCCCATC</t>
+  </si>
+  <si>
+    <t>MannPitts_2022</t>
   </si>
   <si>
     <t>qPCR</t>
   </si>
   <si>
+    <t>D1-F</t>
+  </si>
+  <si>
     <t>CAAAAGGAAGTCTGTGCAATA</t>
   </si>
   <si>
-    <t>D1-F</t>
-  </si>
-  <si>
     <t>Gubler_2002</t>
   </si>
   <si>
@@ -203,36 +209,36 @@
     <t>Trends in Microbiology;2002;10:100-103</t>
   </si>
   <si>
+    <t>D1-R</t>
+  </si>
+  <si>
     <t>CTGAGTGAATTCTCTCTACTGAAC</t>
   </si>
   <si>
-    <t>D1-R</t>
+    <t>D1-Probe</t>
   </si>
   <si>
     <t>CATGTGGTTGGGAGCACGC</t>
   </si>
   <si>
-    <t>D1-Probe</t>
+    <t>D2-F</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>D2-F</t>
-  </si>
-  <si>
     <t>D2-R</t>
   </si>
   <si>
     <t>D2-Probe</t>
   </si>
   <si>
+    <t>D3-F</t>
+  </si>
+  <si>
     <t>prM</t>
   </si>
   <si>
-    <t>D3-F</t>
-  </si>
-  <si>
     <t>D3-R</t>
   </si>
   <si>
@@ -248,118 +254,115 @@
     <t>D4-Probe</t>
   </si>
   <si>
-    <t>Sequencing</t>
-  </si>
-  <si>
     <t>Sanger</t>
   </si>
   <si>
+    <t>d1a4</t>
+  </si>
+  <si>
+    <t>CACTCCACTGAGTGAATTCTCTCT</t>
+  </si>
+  <si>
     <t>Genome</t>
   </si>
   <si>
-    <t>CACTCCACTGAGTGAATTCTCTCT</t>
-  </si>
-  <si>
-    <t>d1a4</t>
-  </si>
-  <si>
     <t>Christenbury_2010</t>
   </si>
   <si>
+    <t>d1a8</t>
+  </si>
+  <si>
     <t>CAAGTCCCATCAATATAGCTGC</t>
   </si>
   <si>
-    <t>d1a8</t>
+    <t>d1a12</t>
   </si>
   <si>
     <t>CCTCGTCCTCAATCTCTGGTAG</t>
   </si>
   <si>
-    <t>d1a12</t>
+    <t>d1a17</t>
   </si>
   <si>
     <t>CCAATGGCYGCTGAYAGTCT</t>
   </si>
   <si>
-    <t>d1a17</t>
+    <t>d1a5B</t>
   </si>
   <si>
     <t>TTTGTCGGTCTGGGGGGGTATAGAACCTGTTGATTCAACRGC</t>
   </si>
   <si>
-    <t>d1a5B</t>
+    <t>d1s1C</t>
   </si>
   <si>
     <t>GATGAGGGAAGATGGGGAGTTGTTAGTCTACGTGGAC</t>
   </si>
   <si>
-    <t>d1s1C</t>
+    <t>d1s6</t>
   </si>
   <si>
     <t>GGYTCTATAGGAGGRGTGTTCAC</t>
   </si>
   <si>
-    <t>d1s6</t>
+    <t>d1s8</t>
   </si>
   <si>
     <t>ACAAACAGCAGGGCCRTGGCA</t>
   </si>
   <si>
-    <t>d1s8</t>
+    <t>d1s14</t>
   </si>
   <si>
     <t>ATGGRGAAAGGAACAACCAG</t>
   </si>
   <si>
-    <t>d1s14</t>
+    <t>d1s18</t>
   </si>
   <si>
     <t>CCACYCATGAAATGTAYTGGGT</t>
   </si>
   <si>
-    <t>d1s18</t>
+    <t>d1a21</t>
   </si>
   <si>
     <t>CATYGCAATRAGRGTGCACAT</t>
   </si>
   <si>
-    <t>d1a21</t>
+    <t>d1s3</t>
   </si>
   <si>
     <t>AAACGTTCCGTSGCACTGGC</t>
   </si>
   <si>
-    <t>d1s3</t>
+    <t>d1a20</t>
   </si>
   <si>
     <t>CGTCTTCAAGAGTTCAATGTCC</t>
   </si>
   <si>
-    <t>d1a20</t>
+    <t>d1s4</t>
   </si>
   <si>
     <t>TGTGTGTCGMCGAACGTT</t>
   </si>
   <si>
-    <t>d1s4</t>
+    <t>d1a19</t>
   </si>
   <si>
     <t>GTTTGTGGACRAGCCATGATT</t>
   </si>
   <si>
-    <t>d1a19</t>
+    <t>d1s5</t>
   </si>
   <si>
     <t>GCAATGCACACYGCGTTG</t>
   </si>
   <si>
-    <t>d1s5</t>
+    <t>d1a18</t>
   </si>
   <si>
     <t>AAAGGTGGYTCYGYYTCAAT</t>
-  </si>
-  <si>
-    <t>d1a18</t>
   </si>
 </sst>
 </file>
@@ -1537,29 +1540,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.3416666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="34.775" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1604,7 +1607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:12">
+    <row r="2" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1620,29 +1623,26 @@
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>134</v>
+      </c>
+      <c r="G2" s="1">
+        <v>161</v>
+      </c>
+      <c r="H2" s="1">
+        <v>27</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1">
-        <v>134</v>
-      </c>
-      <c r="K2" s="1">
-        <v>161</v>
-      </c>
-      <c r="L2" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:12">
+    </row>
+    <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,189 +1650,174 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>616</v>
+      </c>
+      <c r="G3" s="1">
+        <v>644</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1">
-        <v>616</v>
-      </c>
-      <c r="K3" s="1">
-        <v>644</v>
-      </c>
-      <c r="L3" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:12">
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
+        <v>568</v>
+      </c>
+      <c r="G4" s="1">
+        <v>586</v>
+      </c>
+      <c r="H4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1">
-        <v>568</v>
-      </c>
-      <c r="K4" s="1">
-        <v>586</v>
-      </c>
-      <c r="L4" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>232</v>
+      </c>
+      <c r="G5" s="1">
+        <v>252</v>
+      </c>
+      <c r="H5" s="1">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1">
-        <v>232</v>
-      </c>
-      <c r="K5" s="1">
-        <v>252</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:12">
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
+        <v>400</v>
+      </c>
+      <c r="G6" s="1">
+        <v>421</v>
+      </c>
+      <c r="H6" s="1">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="1">
-        <v>400</v>
-      </c>
-      <c r="K6" s="1">
-        <v>421</v>
-      </c>
-      <c r="L6" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:12">
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>506</v>
+      </c>
+      <c r="G7" s="1">
+        <v>527</v>
+      </c>
+      <c r="H7" s="1">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="1">
-        <v>506</v>
-      </c>
-      <c r="K7" s="1">
-        <v>527</v>
-      </c>
-      <c r="L7" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1840,25 +1825,22 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1866,25 +1848,22 @@
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:10">
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1871,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>40</v>
@@ -1900,23 +1879,20 @@
       <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>7871</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="1">
-        <v>7871</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:10">
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1924,31 +1900,28 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9255</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="1">
-        <v>9255</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:10">
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1956,31 +1929,28 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8987</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="1">
-        <v>8987</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:10">
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1988,749 +1958,769 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9130</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="1">
-        <v>9130</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8936</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8955</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="1">
-        <v>8936</v>
-      </c>
-      <c r="K14" s="1">
-        <v>8955</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="1" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9023</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9047</v>
+      </c>
+      <c r="H16" s="1">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="1">
-        <v>9023</v>
-      </c>
-      <c r="K15" s="1">
-        <v>9047</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:13">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8961</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8979</v>
+      </c>
+      <c r="H17" s="1">
+        <v>19</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="1">
-        <v>8961</v>
-      </c>
-      <c r="K16" s="1">
-        <v>8979</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:13">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:13">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:13">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:13">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:13">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="L23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:13">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="L24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:13">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:13">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:12">
+      <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:12">
+      <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:12">
+      <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="K30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:12">
+      <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="4:6">
-      <c r="D38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="4:6">
-      <c r="D39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="4:6">
-      <c r="D40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="4:6">
-      <c r="D41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="4:6">
-      <c r="D42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="4:6">
-      <c r="D43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>83</v>
+      <c r="K44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M43">
+  <autoFilter ref="A1:J44">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24195" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
@@ -1543,9 +1543,9 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1702,6 +1702,9 @@
       <c r="H4" s="1">
         <v>18</v>
       </c>
+      <c r="I4" s="1">
+        <v>0.302717183314198</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2045,13 +2048,16 @@
         <v>41</v>
       </c>
       <c r="F16" s="1">
-        <v>9023</v>
+        <v>9061</v>
       </c>
       <c r="G16" s="1">
-        <v>9047</v>
+        <v>9086</v>
       </c>
       <c r="H16" s="1">
         <v>25</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.0153080750095675</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>56</v>
@@ -2088,6 +2094,9 @@
       <c r="H17" s="1">
         <v>19</v>
       </c>
+      <c r="I17" s="1">
+        <v>0.00688863375430537</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2321,6 +2330,9 @@
       <c r="E27" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="H27" s="1">
+        <v>24</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>78</v>
       </c>
@@ -2343,6 +2355,12 @@
       </c>
       <c r="E28" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="H28" s="1">
+        <v>22</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.00880214313050132</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>78</v>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$J$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$J$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="124">
   <si>
     <t>Method</t>
   </si>
@@ -182,6 +182,21 @@
     <t>CCARTGITCYKYRTTIAIRAAICC</t>
   </si>
   <si>
+    <t>Pan-dengue</t>
+  </si>
+  <si>
+    <t>TTGAGTAAACYRTGCTGCCTGCCTGTAGCTC</t>
+  </si>
+  <si>
+    <t>Lai_2007</t>
+  </si>
+  <si>
+    <t>Journal of Clinical Microbiology;2007;935-941</t>
+  </si>
+  <si>
+    <t>GAGACAGCAGGATCTCTGGTCTYTC</t>
+  </si>
+  <si>
     <t>Cas</t>
   </si>
   <si>
@@ -189,6 +204,30 @@
   </si>
   <si>
     <t>MannPitts_2022</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>DENV-F</t>
+  </si>
+  <si>
+    <t>AACAGCATATTGACGCTGGGAGAGACCAGAGATC</t>
+  </si>
+  <si>
+    <t>3UTR</t>
+  </si>
+  <si>
+    <t>Leon_2022</t>
+  </si>
+  <si>
+    <t>Frontiers in Chemistry;2022;9:817246</t>
+  </si>
+  <si>
+    <t>DENV-R</t>
+  </si>
+  <si>
+    <t>ATTCAACAGCACCATTCCATTTTCTGGCGTTCTGTG</t>
   </si>
   <si>
     <t>qPCR</t>
@@ -1540,12 +1579,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1553,7 +1592,7 @@
     <col min="1" max="1" width="7.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.3416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.8416666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
@@ -1982,12 +2021,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:11">
+    <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>51</v>
@@ -1995,444 +2037,444 @@
       <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="L14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8936</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8955</v>
-      </c>
-      <c r="H15" s="1">
-        <v>20</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1">
-        <v>9061</v>
-      </c>
-      <c r="G16" s="1">
-        <v>9086</v>
-      </c>
-      <c r="H16" s="1">
-        <v>25</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.0153080750095675</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1">
-        <v>8961</v>
-      </c>
-      <c r="G17" s="1">
-        <v>8979</v>
-      </c>
-      <c r="H17" s="1">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.00688863375430537</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8936</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8955</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9061</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9086</v>
+      </c>
+      <c r="H20" s="1">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.0153080750095675</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8961</v>
+      </c>
+      <c r="G21" s="1">
+        <v>8979</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.00688863375430537</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:13">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:13">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="1">
-        <v>24</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="1">
-        <v>22</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.00880214313050132</v>
+        <v>81</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:12">
+        <v>70</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="H31" s="1">
+        <v>24</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>19</v>
@@ -2440,22 +2482,28 @@
     </row>
     <row r="32" customHeight="1" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="H32" s="1">
+        <v>22</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.00880214313050132</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>19</v>
@@ -2463,22 +2511,22 @@
     </row>
     <row r="33" customHeight="1" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>19</v>
@@ -2486,22 +2534,22 @@
     </row>
     <row r="34" customHeight="1" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>19</v>
@@ -2509,22 +2557,22 @@
     </row>
     <row r="35" customHeight="1" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>19</v>
@@ -2532,22 +2580,22 @@
     </row>
     <row r="36" customHeight="1" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>19</v>
@@ -2555,22 +2603,22 @@
     </row>
     <row r="37" customHeight="1" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>19</v>
@@ -2578,22 +2626,22 @@
     </row>
     <row r="38" customHeight="1" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>19</v>
@@ -2601,22 +2649,22 @@
     </row>
     <row r="39" customHeight="1" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>19</v>
@@ -2624,22 +2672,22 @@
     </row>
     <row r="40" customHeight="1" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>19</v>
@@ -2647,22 +2695,22 @@
     </row>
     <row r="41" customHeight="1" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>19</v>
@@ -2670,22 +2718,22 @@
     </row>
     <row r="42" customHeight="1" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>19</v>
@@ -2693,22 +2741,22 @@
     </row>
     <row r="43" customHeight="1" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>19</v>
@@ -2716,29 +2764,121 @@
     </row>
     <row r="44" customHeight="1" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="45" customHeight="1" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J44">
+  <autoFilter ref="A1:J48">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -1584,7 +1584,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2100,6 +2100,15 @@
       <c r="E17" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="F17" s="1">
+        <v>10595</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10628</v>
+      </c>
+      <c r="H17" s="1">
+        <v>34</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>62</v>
       </c>
@@ -2125,6 +2134,15 @@
       </c>
       <c r="E18" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10668</v>
+      </c>
+      <c r="G18" s="1">
+        <v>10703</v>
+      </c>
+      <c r="H18" s="1">
+        <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>62</v>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$J$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$J$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="145">
   <si>
     <t>Method</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Offtarget_rate</t>
   </si>
   <si>
-    <t>Off_target_subgenotype</t>
+    <t>Off_target_subg</t>
   </si>
   <si>
     <t>Set</t>
@@ -291,6 +291,69 @@
   </si>
   <si>
     <t>D4-Probe</t>
+  </si>
+  <si>
+    <t>Den-FP</t>
+  </si>
+  <si>
+    <t>GCATATTGACGCTGGGAGAGA</t>
+  </si>
+  <si>
+    <t>WS216-2018</t>
+  </si>
+  <si>
+    <t>CN-WS</t>
+  </si>
+  <si>
+    <t>Den-RP</t>
+  </si>
+  <si>
+    <t>GGCGTTCTGTGCCTGGAAT</t>
+  </si>
+  <si>
+    <t>Den-PP</t>
+  </si>
+  <si>
+    <t>CAGAGATCCTGCTGTCTC</t>
+  </si>
+  <si>
+    <t>Den-1F</t>
+  </si>
+  <si>
+    <t>CAAAAGGAAGTCGTGCAATA</t>
+  </si>
+  <si>
+    <t>Den-1C</t>
+  </si>
+  <si>
+    <t>Den-1P</t>
+  </si>
+  <si>
+    <t>Den-2F</t>
+  </si>
+  <si>
+    <t>Den-2C</t>
+  </si>
+  <si>
+    <t>Den-2P</t>
+  </si>
+  <si>
+    <t>Den-3F</t>
+  </si>
+  <si>
+    <t>Den-3C</t>
+  </si>
+  <si>
+    <t>Den-3P</t>
+  </si>
+  <si>
+    <t>Den-4F</t>
+  </si>
+  <si>
+    <t>Den-4C</t>
+  </si>
+  <si>
+    <t>Den-4P</t>
   </si>
   <si>
     <t>Sanger</t>
@@ -1579,12 +1642,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1598,7 +1661,7 @@
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="34.775" style="1" customWidth="1"/>
@@ -2472,378 +2535,363 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:12">
+    <row r="31" customHeight="1" spans="1:13">
       <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1">
+        <v>10611</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="1">
-        <v>24</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:13">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:12">
-      <c r="A32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10683</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:13">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1">
+        <v>10642</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="1">
-        <v>22</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.00880214313050132</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:12">
+      <c r="M33" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8973</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:12">
+      <c r="M34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:12">
+      <c r="M35" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:13">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:13">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="K38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:13">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="K39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="M39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:13">
+      <c r="A40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="K40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:13">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="K41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:12">
-      <c r="A38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="M41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:13">
+      <c r="A42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="K42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:13">
+      <c r="A43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="K43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:12">
-      <c r="A39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="M43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:13">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="K44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:13">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="K45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:12">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>19</v>
+      <c r="M45" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="H46" s="1">
+        <v>24</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>19</v>
@@ -2851,22 +2899,28 @@
     </row>
     <row r="47" customHeight="1" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="H47" s="1">
+        <v>22</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.00880214313050132</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>19</v>
@@ -2874,29 +2928,374 @@
     </row>
     <row r="48" customHeight="1" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="49" customHeight="1" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J48">
+  <autoFilter ref="A1:J63">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -10,7 +10,7 @@
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$J$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GISDDprimer!$A$1:$M$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="155">
   <si>
     <t>Method</t>
   </si>
@@ -326,34 +326,64 @@
     <t>Den-1C</t>
   </si>
   <si>
+    <t>CTGAGTGAATTCTCTCTACTGAACC</t>
+  </si>
+  <si>
     <t>Den-1P</t>
   </si>
   <si>
     <t>Den-2F</t>
   </si>
   <si>
+    <t>CAGGTTATGGCACTGTCACGAT</t>
+  </si>
+  <si>
     <t>Den-2C</t>
   </si>
   <si>
+    <t>CCATCTGCAGCAACACCATCTC</t>
+  </si>
+  <si>
     <t>Den-2P</t>
   </si>
   <si>
+    <t>CTCTCCGAGAACAGGCCTCGACTTCAA</t>
+  </si>
+  <si>
     <t>Den-3F</t>
   </si>
   <si>
+    <t>GGACTGGACACACGCACTCA</t>
+  </si>
+  <si>
     <t>Den-3C</t>
   </si>
   <si>
+    <t>CATGTCTCTACCTTCTCGACTTGTCT</t>
+  </si>
+  <si>
     <t>Den-3P</t>
   </si>
   <si>
+    <t>ACCTGGATGTCGGCTGAAGGAGCTTG</t>
+  </si>
+  <si>
     <t>Den-4F</t>
   </si>
   <si>
+    <t>TTGTCCTAATGATGCTGGTCG</t>
+  </si>
+  <si>
     <t>Den-4C</t>
   </si>
   <si>
+    <t>TCCACCTGAGACTCCTTCCA</t>
+  </si>
+  <si>
     <t>Den-4P</t>
+  </si>
+  <si>
+    <t>TTCCTACTCCTACGCATCGCATTCCG</t>
   </si>
   <si>
     <t>Sanger</t>
@@ -1645,9 +1675,9 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -1935,6 +1965,10 @@
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H8" s="1">
+        <f>LEN(D8)</f>
+        <v>18</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,6 +1992,10 @@
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="H9" s="1">
+        <f>LEN(D9)</f>
+        <v>20</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1987,6 +2025,14 @@
       <c r="F10" s="1">
         <v>7871</v>
       </c>
+      <c r="G10" s="1">
+        <f>F10+H10-1</f>
+        <v>7897</v>
+      </c>
+      <c r="H10" s="1">
+        <f>LEN(D10)</f>
+        <v>27</v>
+      </c>
       <c r="K10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2016,6 +2062,14 @@
       <c r="F11" s="1">
         <v>9255</v>
       </c>
+      <c r="G11" s="1">
+        <f t="shared" ref="G11:G20" si="0">F11+H11-1</f>
+        <v>9277</v>
+      </c>
+      <c r="H11" s="1">
+        <f>LEN(D11)</f>
+        <v>23</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2045,6 +2099,14 @@
       <c r="F12" s="1">
         <v>8987</v>
       </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>9005</v>
+      </c>
+      <c r="H12" s="1">
+        <f>LEN(D12)</f>
+        <v>19</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
       </c>
@@ -2074,6 +2136,14 @@
       <c r="F13" s="1">
         <v>9130</v>
       </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>9153</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H12:H21" si="1">LEN(D13)</f>
+        <v>24</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>42</v>
       </c>
@@ -2097,6 +2167,10 @@
       <c r="D14" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
       <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
@@ -2120,6 +2194,10 @@
       <c r="D15" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>52</v>
       </c>
@@ -2140,6 +2218,10 @@
       <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2167,9 +2249,11 @@
         <v>10595</v>
       </c>
       <c r="G17" s="1">
+        <f t="shared" si="0"/>
         <v>10628</v>
       </c>
       <c r="H17" s="1">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -2202,9 +2286,11 @@
         <v>10668</v>
       </c>
       <c r="G18" s="1">
+        <f t="shared" si="0"/>
         <v>10703</v>
       </c>
       <c r="H18" s="1">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2237,10 +2323,12 @@
         <v>8936</v>
       </c>
       <c r="G19" s="1">
-        <v>8955</v>
+        <f t="shared" si="0"/>
+        <v>8956</v>
       </c>
       <c r="H19" s="1">
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>69</v>
@@ -2272,10 +2360,12 @@
         <v>9061</v>
       </c>
       <c r="G20" s="1">
-        <v>9086</v>
+        <f t="shared" si="0"/>
+        <v>9084</v>
       </c>
       <c r="H20" s="1">
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="I20" s="1">
         <v>0.0153080750095675</v>
@@ -2310,9 +2400,11 @@
         <v>8961</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" ref="G21:G30" si="2">F21+H21-1</f>
         <v>8979</v>
       </c>
       <c r="H21" s="1">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I21" s="1">
@@ -2341,6 +2433,14 @@
       <c r="E22" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ref="H22:H30" si="3">LEN(D22)</f>
+        <v>0</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>69</v>
       </c>
@@ -2364,6 +2464,14 @@
       <c r="E23" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>69</v>
       </c>
@@ -2387,6 +2495,14 @@
       <c r="E24" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K24" s="1" t="s">
         <v>69</v>
       </c>
@@ -2410,6 +2526,14 @@
       <c r="E25" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G25" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K25" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,6 +2557,14 @@
       <c r="E26" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>69</v>
       </c>
@@ -2456,6 +2588,14 @@
       <c r="E27" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G27" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>69</v>
       </c>
@@ -2479,6 +2619,14 @@
       <c r="E28" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K28" s="1" t="s">
         <v>69</v>
       </c>
@@ -2502,6 +2650,14 @@
       <c r="E29" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>69</v>
       </c>
@@ -2525,6 +2681,14 @@
       <c r="E30" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K30" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,6 +2718,14 @@
       <c r="F31" s="1">
         <v>10611</v>
       </c>
+      <c r="G31" s="1">
+        <f>F31+H31-1</f>
+        <v>10631</v>
+      </c>
+      <c r="H31" s="1">
+        <f>LEN(D31)</f>
+        <v>21</v>
+      </c>
       <c r="K31" s="1" t="s">
         <v>89</v>
       </c>
@@ -2583,6 +2755,14 @@
       <c r="F32" s="1">
         <v>10683</v>
       </c>
+      <c r="G32" s="1">
+        <f>F32+H32-1</f>
+        <v>10701</v>
+      </c>
+      <c r="H32" s="1">
+        <f>LEN(D32)</f>
+        <v>19</v>
+      </c>
       <c r="K32" s="1" t="s">
         <v>89</v>
       </c>
@@ -2612,6 +2792,14 @@
       <c r="F33" s="1">
         <v>10642</v>
       </c>
+      <c r="G33" s="1">
+        <f>F33+H33-1</f>
+        <v>10659</v>
+      </c>
+      <c r="H33" s="1">
+        <f>LEN(D33)</f>
+        <v>18</v>
+      </c>
       <c r="K33" s="1" t="s">
         <v>89</v>
       </c>
@@ -2641,6 +2829,14 @@
       <c r="F34" s="1">
         <v>8973</v>
       </c>
+      <c r="G34" s="1">
+        <f>F34+H34-1</f>
+        <v>8992</v>
+      </c>
+      <c r="H34" s="1">
+        <f>LEN(D34)</f>
+        <v>20</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>89</v>
       </c>
@@ -2661,6 +2857,20 @@
       <c r="C35" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9084</v>
+      </c>
+      <c r="G35" s="1">
+        <f>F35+H35-1</f>
+        <v>9108</v>
+      </c>
+      <c r="H35" s="1">
+        <f>LEN(D35)</f>
+        <v>25</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>89</v>
       </c>
@@ -2679,7 +2889,21 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8998</v>
+      </c>
+      <c r="G36" s="1">
+        <f>F36+H36-1</f>
+        <v>9016</v>
+      </c>
+      <c r="H36" s="1">
+        <f>LEN(D36)</f>
+        <v>19</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>89</v>
@@ -2699,7 +2923,21 @@
         <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1443</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ref="G37:G45" si="4">F37+H37-1</f>
+        <v>1464</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ref="H37:H53" si="5">LEN(D37)</f>
+        <v>22</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>89</v>
@@ -2719,7 +2957,21 @@
         <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1518</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="4"/>
+        <v>1539</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>89</v>
@@ -2739,7 +2991,21 @@
         <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1469</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="4"/>
+        <v>1495</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="5"/>
+        <v>27</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>89</v>
@@ -2759,7 +3025,21 @@
         <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1">
+        <v>740</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="4"/>
+        <v>759</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>89</v>
@@ -2779,7 +3059,21 @@
         <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="1">
+        <v>813</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="4"/>
+        <v>838</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>89</v>
@@ -2799,7 +3093,21 @@
         <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="1">
+        <v>762</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="4"/>
+        <v>787</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>89</v>
@@ -2819,7 +3127,21 @@
         <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1">
+        <v>904</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>924</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>89</v>
@@ -2839,7 +3161,21 @@
         <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="1">
+        <v>992</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
+        <v>1011</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>89</v>
@@ -2859,7 +3195,21 @@
         <v>30</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="1">
+        <v>960</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>985</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="5"/>
+        <v>26</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>89</v>
@@ -2873,25 +3223,26 @@
     </row>
     <row r="46" customHeight="1" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H46" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>19</v>
@@ -2899,28 +3250,29 @@
     </row>
     <row r="47" customHeight="1" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H47" s="1">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="I47" s="1">
         <v>0.00880214313050132</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>19</v>
@@ -2928,22 +3280,26 @@
     </row>
     <row r="48" customHeight="1" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>19</v>
@@ -2951,22 +3307,26 @@
     </row>
     <row r="49" customHeight="1" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="5"/>
+        <v>20</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>19</v>
@@ -2974,22 +3334,26 @@
     </row>
     <row r="50" customHeight="1" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>19</v>
@@ -2997,22 +3361,26 @@
     </row>
     <row r="51" customHeight="1" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="H51" s="1">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>19</v>
@@ -3020,22 +3388,26 @@
     </row>
     <row r="52" customHeight="1" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>19</v>
@@ -3043,22 +3415,26 @@
     </row>
     <row r="53" customHeight="1" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>19</v>
@@ -3066,22 +3442,26 @@
     </row>
     <row r="54" customHeight="1" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" ref="H54:H63" si="6">LEN(D54)</f>
+        <v>20</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>19</v>
@@ -3089,22 +3469,26 @@
     </row>
     <row r="55" customHeight="1" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>19</v>
@@ -3112,22 +3496,26 @@
     </row>
     <row r="56" customHeight="1" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>19</v>
@@ -3135,22 +3523,26 @@
     </row>
     <row r="57" customHeight="1" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>19</v>
@@ -3158,22 +3550,26 @@
     </row>
     <row r="58" customHeight="1" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>19</v>
@@ -3181,22 +3577,26 @@
     </row>
     <row r="59" customHeight="1" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>19</v>
@@ -3204,22 +3604,26 @@
     </row>
     <row r="60" customHeight="1" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>19</v>
@@ -3227,22 +3631,26 @@
     </row>
     <row r="61" customHeight="1" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>19</v>
@@ -3250,22 +3658,26 @@
     </row>
     <row r="62" customHeight="1" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>19</v>
@@ -3273,29 +3685,33 @@
     </row>
     <row r="63" customHeight="1" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J63">
+  <autoFilter ref="A1:M63">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="155">
   <si>
     <t>Method</t>
   </si>
@@ -1675,9 +1675,9 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -2400,7 +2400,7 @@
         <v>8961</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:G30" si="2">F21+H21-1</f>
+        <f t="shared" ref="G21:G36" si="2">F21+H21-1</f>
         <v>8979</v>
       </c>
       <c r="H21" s="1">
@@ -2438,7 +2438,7 @@
         <v>-1</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:H30" si="3">LEN(D22)</f>
+        <f t="shared" ref="H22:H36" si="3">LEN(D22)</f>
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2719,11 +2719,11 @@
         <v>10611</v>
       </c>
       <c r="G31" s="1">
-        <f>F31+H31-1</f>
+        <f t="shared" si="2"/>
         <v>10631</v>
       </c>
       <c r="H31" s="1">
-        <f>LEN(D31)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -2756,11 +2756,11 @@
         <v>10683</v>
       </c>
       <c r="G32" s="1">
-        <f>F32+H32-1</f>
+        <f t="shared" si="2"/>
         <v>10701</v>
       </c>
       <c r="H32" s="1">
-        <f>LEN(D32)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -2793,11 +2793,11 @@
         <v>10642</v>
       </c>
       <c r="G33" s="1">
-        <f>F33+H33-1</f>
+        <f t="shared" si="2"/>
         <v>10659</v>
       </c>
       <c r="H33" s="1">
-        <f>LEN(D33)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -2830,11 +2830,11 @@
         <v>8973</v>
       </c>
       <c r="G34" s="1">
-        <f>F34+H34-1</f>
+        <f t="shared" si="2"/>
         <v>8992</v>
       </c>
       <c r="H34" s="1">
-        <f>LEN(D34)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -2860,15 +2860,18 @@
       <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F35" s="1">
         <v>9084</v>
       </c>
       <c r="G35" s="1">
-        <f>F35+H35-1</f>
+        <f t="shared" si="2"/>
         <v>9108</v>
       </c>
       <c r="H35" s="1">
-        <f>LEN(D35)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -2894,15 +2897,18 @@
       <c r="D36" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="E36" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F36" s="1">
         <v>8998</v>
       </c>
       <c r="G36" s="1">
-        <f>F36+H36-1</f>
+        <f t="shared" si="2"/>
         <v>9016</v>
       </c>
       <c r="H36" s="1">
-        <f>LEN(D36)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -2928,6 +2934,9 @@
       <c r="D37" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F37" s="1">
         <v>1443</v>
       </c>
@@ -2962,6 +2971,9 @@
       <c r="D38" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F38" s="1">
         <v>1518</v>
       </c>
@@ -2996,6 +3008,9 @@
       <c r="D39" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F39" s="1">
         <v>1469</v>
       </c>
@@ -3030,6 +3045,9 @@
       <c r="D40" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F40" s="1">
         <v>740</v>
       </c>
@@ -3064,6 +3082,9 @@
       <c r="D41" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E41" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F41" s="1">
         <v>813</v>
       </c>
@@ -3098,6 +3119,9 @@
       <c r="D42" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F42" s="1">
         <v>762</v>
       </c>
@@ -3132,6 +3156,9 @@
       <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="E43" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F43" s="1">
         <v>904</v>
       </c>
@@ -3166,6 +3193,9 @@
       <c r="D44" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="E44" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F44" s="1">
         <v>992</v>
       </c>
@@ -3199,6 +3229,9 @@
       </c>
       <c r="D45" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F45" s="1">
         <v>960</v>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1875">
   <si>
     <t>Method</t>
   </si>
@@ -1782,6 +1782,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>CCATCAATGAGAA AGGTCTGTTGATGACTCTGTAGACTGTAGAGAGC 3’</t>
     </r>
     <r>
@@ -3620,9 +3625,6 @@
   </si>
   <si>
     <t>GGGGACCACTTTGTACAAGAAAGCTGGGTCTCGGGTCCTGAGCATTTCTTCCAG</t>
-  </si>
-  <si>
-    <t>NS2</t>
   </si>
   <si>
     <t>NS2A(forward)</t>
@@ -7125,9 +7127,9 @@
   <dimension ref="A1:N972"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -11790,7 +11792,7 @@
         <v>295</v>
       </c>
       <c r="I134" s="8">
-        <f t="shared" ref="I134:I142" si="8">LEN(H134)</f>
+        <f t="shared" ref="I134:I154" si="8">LEN(H134)</f>
         <v>18</v>
       </c>
       <c r="J134" s="14"/>
@@ -12089,7 +12091,7 @@
         <v>317</v>
       </c>
       <c r="I143" s="8">
-        <f>LEN(H143)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J143" s="14">
@@ -12126,7 +12128,7 @@
         <v>319</v>
       </c>
       <c r="I144" s="8">
-        <f>LEN(H144)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J144" s="14">
@@ -12163,7 +12165,7 @@
         <v>321</v>
       </c>
       <c r="I145" s="8">
-        <f>LEN(H145)</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="J145" s="14">
@@ -12200,7 +12202,7 @@
         <v>323</v>
       </c>
       <c r="I146" s="8">
-        <f>LEN(H146)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J146" s="14">
@@ -12237,7 +12239,7 @@
         <v>325</v>
       </c>
       <c r="I147" s="8">
-        <f>LEN(H147)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J147" s="14">
@@ -12274,7 +12276,7 @@
         <v>327</v>
       </c>
       <c r="I148" s="8">
-        <f>LEN(H148)</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="J148" s="14">
@@ -12311,7 +12313,7 @@
         <v>329</v>
       </c>
       <c r="I149" s="8">
-        <f>LEN(H149)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J149" s="14">
@@ -12348,7 +12350,7 @@
         <v>331</v>
       </c>
       <c r="I150" s="8">
-        <f>LEN(H150)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="J150" s="14">
@@ -12385,7 +12387,7 @@
         <v>333</v>
       </c>
       <c r="I151" s="8">
-        <f>LEN(H151)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="J151" s="14">
@@ -12422,7 +12424,7 @@
         <v>335</v>
       </c>
       <c r="I152" s="8">
-        <f>LEN(H152)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J152" s="14">
@@ -12459,7 +12461,7 @@
         <v>337</v>
       </c>
       <c r="I153" s="8">
-        <f>LEN(H153)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J153" s="14">
@@ -12496,7 +12498,7 @@
         <v>339</v>
       </c>
       <c r="I154" s="8">
-        <f>LEN(H154)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="J154" s="14">
@@ -14151,7 +14153,7 @@
         <v>450</v>
       </c>
       <c r="I205" s="8">
-        <f>LEN(H205)</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="J205" s="14">
@@ -14186,7 +14188,7 @@
         <v>453</v>
       </c>
       <c r="I206" s="8">
-        <f>LEN(H206)</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="J206" s="14">
@@ -14221,7 +14223,7 @@
         <v>455</v>
       </c>
       <c r="I207" s="8">
-        <f>LEN(H207)</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="J207" s="14">
@@ -23691,7 +23693,7 @@
         <v>1028</v>
       </c>
       <c r="I513" s="8">
-        <f>LEN(H513)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J513" s="14"/>
@@ -23722,7 +23724,7 @@
         <v>1029</v>
       </c>
       <c r="I514" s="8">
-        <f>LEN(H514)</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="J514" s="14"/>
@@ -23753,7 +23755,7 @@
         <v>1045</v>
       </c>
       <c r="I515" s="8">
-        <f>LEN(H515)</f>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="J515" s="14"/>
@@ -23784,7 +23786,7 @@
         <v>1029</v>
       </c>
       <c r="I516" s="8">
-        <f>LEN(H516)</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="J516" s="14"/>
@@ -23811,7 +23813,7 @@
         <v>1048</v>
       </c>
       <c r="I517" s="8">
-        <f>LEN(H517)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J517" s="14"/>
@@ -23838,7 +23840,7 @@
         <v>1050</v>
       </c>
       <c r="I518" s="8">
-        <f>LEN(H518)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J518" s="14"/>
@@ -23867,7 +23869,7 @@
         <v>1053</v>
       </c>
       <c r="I519" s="8">
-        <f>LEN(H519)</f>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="J519" s="14"/>
@@ -23894,7 +23896,7 @@
         <v>1055</v>
       </c>
       <c r="I520" s="8">
-        <f>LEN(H520)</f>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="J520" s="14"/>
@@ -23921,7 +23923,7 @@
         <v>1057</v>
       </c>
       <c r="I521" s="8">
-        <f>LEN(H521)</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J521" s="14"/>
@@ -23948,7 +23950,7 @@
         <v>1059</v>
       </c>
       <c r="I522" s="8">
-        <f>LEN(H522)</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J522" s="14"/>
@@ -23979,7 +23981,7 @@
         <v>1062</v>
       </c>
       <c r="I523" s="8">
-        <f>LEN(H523)</f>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="J523" s="14"/>
@@ -24010,7 +24012,7 @@
         <v>1064</v>
       </c>
       <c r="I524" s="8">
-        <f>LEN(H524)</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="J524" s="14"/>
@@ -24037,7 +24039,7 @@
         <v>1066</v>
       </c>
       <c r="I525" s="8">
-        <f>LEN(H525)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J525" s="14"/>
@@ -24064,7 +24066,7 @@
         <v>1067</v>
       </c>
       <c r="I526" s="8">
-        <f>LEN(H526)</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J526" s="14"/>
@@ -24089,7 +24091,7 @@
         <v>1068</v>
       </c>
       <c r="I527" s="8">
-        <f>LEN(H527)</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="J527" s="14"/>
@@ -25325,17 +25327,17 @@
       </c>
       <c r="C568" s="11"/>
       <c r="D568" s="11" t="s">
-        <v>1139</v>
+        <v>203</v>
       </c>
       <c r="E568" s="11"/>
       <c r="F568" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="G568" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H568" s="14" t="s">
         <v>1140</v>
-      </c>
-      <c r="H568" s="14" t="s">
-        <v>1141</v>
       </c>
       <c r="I568" s="8">
         <f t="shared" si="17"/>
@@ -25356,17 +25358,17 @@
       </c>
       <c r="C569" s="11"/>
       <c r="D569" s="11" t="s">
-        <v>1139</v>
+        <v>203</v>
       </c>
       <c r="E569" s="11"/>
       <c r="F569" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="G569" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H569" s="14" t="s">
         <v>1142</v>
-      </c>
-      <c r="H569" s="14" t="s">
-        <v>1143</v>
       </c>
       <c r="I569" s="8">
         <f t="shared" si="17"/>
@@ -25387,17 +25389,17 @@
       </c>
       <c r="C570" s="11"/>
       <c r="D570" s="11" t="s">
-        <v>1139</v>
+        <v>451</v>
       </c>
       <c r="E570" s="11"/>
       <c r="F570" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="G570" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H570" s="14" t="s">
         <v>1144</v>
-      </c>
-      <c r="H570" s="14" t="s">
-        <v>1145</v>
       </c>
       <c r="I570" s="8">
         <f t="shared" si="17"/>
@@ -25418,17 +25420,17 @@
       </c>
       <c r="C571" s="11"/>
       <c r="D571" s="11" t="s">
-        <v>1139</v>
+        <v>451</v>
       </c>
       <c r="E571" s="11"/>
       <c r="F571" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="G571" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H571" s="14" t="s">
         <v>1146</v>
-      </c>
-      <c r="H571" s="14" t="s">
-        <v>1147</v>
       </c>
       <c r="I571" s="8">
         <f t="shared" ref="I571:I634" si="18">LEN(H571)</f>
@@ -25456,10 +25458,10 @@
         <v>1116</v>
       </c>
       <c r="G572" s="13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H572" s="14" t="s">
         <v>1148</v>
-      </c>
-      <c r="H572" s="14" t="s">
-        <v>1149</v>
       </c>
       <c r="I572" s="8">
         <f t="shared" si="18"/>
@@ -25487,10 +25489,10 @@
         <v>1116</v>
       </c>
       <c r="G573" s="13" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H573" s="14" t="s">
         <v>1150</v>
-      </c>
-      <c r="H573" s="14" t="s">
-        <v>1151</v>
       </c>
       <c r="I573" s="8">
         <f t="shared" si="18"/>
@@ -25518,10 +25520,10 @@
         <v>1116</v>
       </c>
       <c r="G574" s="13" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H574" s="14" t="s">
         <v>1152</v>
-      </c>
-      <c r="H574" s="14" t="s">
-        <v>1153</v>
       </c>
       <c r="I574" s="8">
         <f t="shared" si="18"/>
@@ -25549,10 +25551,10 @@
         <v>1116</v>
       </c>
       <c r="G575" s="13" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H575" s="14" t="s">
         <v>1154</v>
-      </c>
-      <c r="H575" s="14" t="s">
-        <v>1155</v>
       </c>
       <c r="I575" s="8">
         <f t="shared" si="18"/>
@@ -25580,10 +25582,10 @@
         <v>1116</v>
       </c>
       <c r="G576" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H576" s="14" t="s">
         <v>1156</v>
-      </c>
-      <c r="H576" s="14" t="s">
-        <v>1157</v>
       </c>
       <c r="I576" s="8">
         <f t="shared" si="18"/>
@@ -25611,10 +25613,10 @@
         <v>1116</v>
       </c>
       <c r="G577" s="13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H577" s="14" t="s">
         <v>1158</v>
-      </c>
-      <c r="H577" s="14" t="s">
-        <v>1159</v>
       </c>
       <c r="I577" s="8">
         <f t="shared" si="18"/>
@@ -25642,10 +25644,10 @@
         <v>1116</v>
       </c>
       <c r="G578" s="13" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H578" s="14" t="s">
         <v>1160</v>
-      </c>
-      <c r="H578" s="14" t="s">
-        <v>1161</v>
       </c>
       <c r="I578" s="8">
         <f t="shared" si="18"/>
@@ -25673,10 +25675,10 @@
         <v>1116</v>
       </c>
       <c r="G579" s="13" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H579" s="14" t="s">
         <v>1162</v>
-      </c>
-      <c r="H579" s="14" t="s">
-        <v>1163</v>
       </c>
       <c r="I579" s="8">
         <f t="shared" si="18"/>
@@ -25699,13 +25701,13 @@
       <c r="D580" s="11"/>
       <c r="E580" s="11"/>
       <c r="F580" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G580" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H580" s="14" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="I580" s="8">
         <f t="shared" si="18"/>
@@ -25728,7 +25730,7 @@
       <c r="D581" s="11"/>
       <c r="E581" s="11"/>
       <c r="F581" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G581" s="13" t="s">
         <v>29</v>
@@ -25757,7 +25759,7 @@
       <c r="D582" s="11"/>
       <c r="E582" s="11"/>
       <c r="F582" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G582" s="13" t="s">
         <v>32</v>
@@ -25786,7 +25788,7 @@
       <c r="D583" s="11"/>
       <c r="E583" s="11"/>
       <c r="F583" s="13" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G583" s="13" t="s">
         <v>35</v>
@@ -25817,13 +25819,13 @@
       </c>
       <c r="E584" s="11"/>
       <c r="F584" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G584" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="G584" s="13" t="s">
+      <c r="H584" s="14" t="s">
         <v>1167</v>
-      </c>
-      <c r="H584" s="14" t="s">
-        <v>1168</v>
       </c>
       <c r="I584" s="8">
         <f t="shared" si="18"/>
@@ -25848,13 +25850,13 @@
       </c>
       <c r="E585" s="11"/>
       <c r="F585" s="13" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G585" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H585" s="14" t="s">
         <v>1169</v>
-      </c>
-      <c r="H585" s="14" t="s">
-        <v>1170</v>
       </c>
       <c r="I585" s="8">
         <f t="shared" si="18"/>
@@ -25881,13 +25883,13 @@
       </c>
       <c r="E586" s="11"/>
       <c r="F586" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G586" s="13" t="s">
         <v>1171</v>
       </c>
-      <c r="G586" s="13" t="s">
+      <c r="H586" s="14" t="s">
         <v>1172</v>
-      </c>
-      <c r="H586" s="14" t="s">
-        <v>1173</v>
       </c>
       <c r="I586" s="8">
         <f t="shared" si="18"/>
@@ -25914,13 +25916,13 @@
       </c>
       <c r="E587" s="11"/>
       <c r="F587" s="13" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G587" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H587" s="14" t="s">
         <v>1174</v>
-      </c>
-      <c r="H587" s="14" t="s">
-        <v>1175</v>
       </c>
       <c r="I587" s="8">
         <f t="shared" si="18"/>
@@ -25943,13 +25945,13 @@
       <c r="D588" s="11"/>
       <c r="E588" s="11"/>
       <c r="F588" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G588" s="13" t="s">
         <v>1176</v>
       </c>
-      <c r="G588" s="13" t="s">
+      <c r="H588" s="14" t="s">
         <v>1177</v>
-      </c>
-      <c r="H588" s="14" t="s">
-        <v>1178</v>
       </c>
       <c r="I588" s="8">
         <f t="shared" si="18"/>
@@ -25972,13 +25974,13 @@
       <c r="D589" s="11"/>
       <c r="E589" s="11"/>
       <c r="F589" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G589" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H589" s="14" t="s">
         <v>1179</v>
-      </c>
-      <c r="H589" s="14" t="s">
-        <v>1180</v>
       </c>
       <c r="I589" s="8">
         <f t="shared" si="18"/>
@@ -25999,11 +26001,11 @@
       <c r="D590" s="11"/>
       <c r="E590" s="11"/>
       <c r="F590" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G590" s="13"/>
       <c r="H590" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I590" s="8">
         <f t="shared" si="18"/>
@@ -26028,11 +26030,11 @@
       <c r="D591" s="11"/>
       <c r="E591" s="11"/>
       <c r="F591" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G591" s="13"/>
       <c r="H591" s="14" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I591" s="8">
         <f t="shared" si="18"/>
@@ -26057,11 +26059,11 @@
       <c r="D592" s="11"/>
       <c r="E592" s="11"/>
       <c r="F592" s="13" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G592" s="13"/>
       <c r="H592" s="14" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I592" s="8">
         <f t="shared" si="18"/>
@@ -26092,13 +26094,13 @@
       </c>
       <c r="E593" s="11"/>
       <c r="F593" s="13" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G593" s="13" t="s">
         <v>1185</v>
       </c>
-      <c r="G593" s="13" t="s">
+      <c r="H593" s="14" t="s">
         <v>1186</v>
-      </c>
-      <c r="H593" s="14" t="s">
-        <v>1187</v>
       </c>
       <c r="I593" s="8">
         <f t="shared" si="18"/>
@@ -26125,13 +26127,13 @@
       </c>
       <c r="E594" s="11"/>
       <c r="F594" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G594" s="13" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H594" s="14" t="s">
         <v>1188</v>
-      </c>
-      <c r="H594" s="14" t="s">
-        <v>1189</v>
       </c>
       <c r="I594" s="8">
         <f t="shared" si="18"/>
@@ -26158,13 +26160,13 @@
       </c>
       <c r="E595" s="11"/>
       <c r="F595" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G595" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H595" s="14" t="s">
         <v>1190</v>
-      </c>
-      <c r="H595" s="14" t="s">
-        <v>1191</v>
       </c>
       <c r="I595" s="8">
         <f t="shared" si="18"/>
@@ -26191,13 +26193,13 @@
       </c>
       <c r="E596" s="11"/>
       <c r="F596" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G596" s="13" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H596" s="14" t="s">
         <v>1192</v>
-      </c>
-      <c r="H596" s="14" t="s">
-        <v>1193</v>
       </c>
       <c r="I596" s="8">
         <f t="shared" si="18"/>
@@ -26224,13 +26226,13 @@
       </c>
       <c r="E597" s="11"/>
       <c r="F597" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G597" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H597" s="14" t="s">
         <v>1194</v>
-      </c>
-      <c r="H597" s="14" t="s">
-        <v>1195</v>
       </c>
       <c r="I597" s="8">
         <f t="shared" si="18"/>
@@ -26257,13 +26259,13 @@
       </c>
       <c r="E598" s="11"/>
       <c r="F598" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G598" s="13" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H598" s="14" t="s">
         <v>1196</v>
-      </c>
-      <c r="H598" s="14" t="s">
-        <v>1197</v>
       </c>
       <c r="I598" s="8">
         <f t="shared" si="18"/>
@@ -26290,13 +26292,13 @@
       </c>
       <c r="E599" s="11"/>
       <c r="F599" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G599" s="13" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H599" s="14" t="s">
         <v>1198</v>
-      </c>
-      <c r="H599" s="14" t="s">
-        <v>1199</v>
       </c>
       <c r="I599" s="8">
         <f t="shared" si="18"/>
@@ -26323,13 +26325,13 @@
       </c>
       <c r="E600" s="11"/>
       <c r="F600" s="13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G600" s="13" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H600" s="14" t="s">
         <v>1200</v>
-      </c>
-      <c r="H600" s="14" t="s">
-        <v>1201</v>
       </c>
       <c r="I600" s="8">
         <f t="shared" si="18"/>
@@ -26354,13 +26356,13 @@
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
       <c r="F601" s="13" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G601" s="13" t="s">
         <v>1202</v>
       </c>
-      <c r="G601" s="13" t="s">
+      <c r="H601" s="14" t="s">
         <v>1203</v>
-      </c>
-      <c r="H601" s="14" t="s">
-        <v>1204</v>
       </c>
       <c r="I601" s="8">
         <f t="shared" si="18"/>
@@ -26385,13 +26387,13 @@
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
       <c r="F602" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G602" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H602" s="14" t="s">
         <v>1205</v>
-      </c>
-      <c r="H602" s="14" t="s">
-        <v>1206</v>
       </c>
       <c r="I602" s="8">
         <f t="shared" si="18"/>
@@ -26414,13 +26416,13 @@
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
       <c r="F603" s="13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G603" s="13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H603" s="14" t="s">
         <v>1207</v>
-      </c>
-      <c r="H603" s="14" t="s">
-        <v>1208</v>
       </c>
       <c r="I603" s="8">
         <f t="shared" si="18"/>
@@ -26447,7 +26449,7 @@
       </c>
       <c r="E604" s="11"/>
       <c r="F604" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G604" s="13" t="s">
         <v>65</v>
@@ -26484,7 +26486,7 @@
       </c>
       <c r="E605" s="11"/>
       <c r="F605" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G605" s="13" t="s">
         <v>68</v>
@@ -26521,7 +26523,7 @@
       </c>
       <c r="E606" s="11"/>
       <c r="F606" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G606" s="13" t="s">
         <v>71</v>
@@ -26558,7 +26560,7 @@
       </c>
       <c r="E607" s="11"/>
       <c r="F607" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G607" s="13" t="s">
         <v>74</v>
@@ -26595,7 +26597,7 @@
       </c>
       <c r="E608" s="11"/>
       <c r="F608" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G608" s="13" t="s">
         <v>75</v>
@@ -26632,13 +26634,13 @@
       </c>
       <c r="E609" s="11"/>
       <c r="F609" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G609" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H609" s="14" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="I609" s="8">
         <f t="shared" si="18"/>
@@ -26669,7 +26671,7 @@
       </c>
       <c r="E610" s="11"/>
       <c r="F610" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G610" s="13" t="s">
         <v>77</v>
@@ -26706,7 +26708,7 @@
       </c>
       <c r="E611" s="11"/>
       <c r="F611" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G611" s="13" t="s">
         <v>78</v>
@@ -26743,7 +26745,7 @@
       </c>
       <c r="E612" s="11"/>
       <c r="F612" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G612" s="13" t="s">
         <v>79</v>
@@ -26780,7 +26782,7 @@
       </c>
       <c r="E613" s="11"/>
       <c r="F613" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G613" s="13" t="s">
         <v>80</v>
@@ -26817,7 +26819,7 @@
       </c>
       <c r="E614" s="11"/>
       <c r="F614" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G614" s="13" t="s">
         <v>81</v>
@@ -26854,7 +26856,7 @@
       </c>
       <c r="E615" s="11"/>
       <c r="F615" s="13" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G615" s="13" t="s">
         <v>82</v>
@@ -26887,13 +26889,13 @@
       <c r="D616" s="11"/>
       <c r="E616" s="11"/>
       <c r="F616" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G616" s="13" t="s">
         <v>1211</v>
       </c>
-      <c r="G616" s="13" t="s">
+      <c r="H616" s="14" t="s">
         <v>1212</v>
-      </c>
-      <c r="H616" s="14" t="s">
-        <v>1213</v>
       </c>
       <c r="I616" s="8">
         <f t="shared" si="18"/>
@@ -26920,10 +26922,10 @@
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
       <c r="F617" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G617" s="13" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H617" s="14" t="s">
         <v>895</v>
@@ -26953,13 +26955,13 @@
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
       <c r="F618" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G618" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H618" s="14" t="s">
         <v>1215</v>
-      </c>
-      <c r="H618" s="14" t="s">
-        <v>1216</v>
       </c>
       <c r="I618" s="8">
         <f t="shared" si="18"/>
@@ -26986,13 +26988,13 @@
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
       <c r="F619" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G619" s="13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H619" s="14" t="s">
         <v>1217</v>
-      </c>
-      <c r="H619" s="14" t="s">
-        <v>1218</v>
       </c>
       <c r="I619" s="8">
         <f t="shared" si="18"/>
@@ -27019,13 +27021,13 @@
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
       <c r="F620" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G620" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H620" s="14" t="s">
         <v>1219</v>
-      </c>
-      <c r="H620" s="14" t="s">
-        <v>1220</v>
       </c>
       <c r="I620" s="8">
         <f t="shared" si="18"/>
@@ -27040,7 +27042,7 @@
       <c r="L620" s="16"/>
       <c r="M620" s="17"/>
       <c r="N620" s="13" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="621" customHeight="1" spans="1:14">
@@ -27054,13 +27056,13 @@
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
       <c r="F621" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G621" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H621" s="14" t="s">
         <v>1222</v>
-      </c>
-      <c r="H621" s="14" t="s">
-        <v>1223</v>
       </c>
       <c r="I621" s="8">
         <f t="shared" si="18"/>
@@ -27087,13 +27089,13 @@
       <c r="D622" s="11"/>
       <c r="E622" s="11"/>
       <c r="F622" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G622" s="13" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H622" s="14" t="s">
         <v>1224</v>
-      </c>
-      <c r="H622" s="14" t="s">
-        <v>1225</v>
       </c>
       <c r="I622" s="8">
         <f t="shared" si="18"/>
@@ -27122,16 +27124,16 @@
       <c r="D623" s="11"/>
       <c r="E623" s="11"/>
       <c r="F623" s="13" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G623" s="13" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H623" s="14" t="s">
         <v>1226</v>
       </c>
-      <c r="H623" s="14" t="s">
-        <v>1227</v>
-      </c>
       <c r="I623" s="8">
-        <f>LEN(H623)</f>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="J623" s="14">
@@ -27153,16 +27155,16 @@
       <c r="D624" s="11"/>
       <c r="E624" s="11"/>
       <c r="F624" s="13" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G624" s="13" t="s">
         <v>1228</v>
       </c>
-      <c r="G624" s="13" t="s">
+      <c r="H624" s="14" t="s">
         <v>1229</v>
       </c>
-      <c r="H624" s="14" t="s">
-        <v>1230</v>
-      </c>
       <c r="I624" s="8">
-        <f>LEN(H624)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="J624" s="14"/>
@@ -27180,16 +27182,16 @@
       <c r="D625" s="11"/>
       <c r="E625" s="11"/>
       <c r="F625" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G625" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H625" s="14" t="s">
         <v>1231</v>
       </c>
-      <c r="H625" s="14" t="s">
-        <v>1232</v>
-      </c>
       <c r="I625" s="8">
-        <f>LEN(H625)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="J625" s="14"/>
@@ -27207,16 +27209,16 @@
       <c r="D626" s="11"/>
       <c r="E626" s="11"/>
       <c r="F626" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G626" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H626" s="14" t="s">
         <v>1233</v>
       </c>
-      <c r="H626" s="14" t="s">
-        <v>1234</v>
-      </c>
       <c r="I626" s="8">
-        <f>LEN(H626)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J626" s="14"/>
@@ -27234,16 +27236,16 @@
       <c r="D627" s="11"/>
       <c r="E627" s="11"/>
       <c r="F627" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G627" s="13" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H627" s="14" t="s">
         <v>1235</v>
       </c>
-      <c r="H627" s="14" t="s">
-        <v>1236</v>
-      </c>
       <c r="I627" s="8">
-        <f>LEN(H627)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J627" s="14"/>
@@ -27261,16 +27263,16 @@
       <c r="D628" s="11"/>
       <c r="E628" s="11"/>
       <c r="F628" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G628" s="13" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H628" s="14" t="s">
         <v>1237</v>
       </c>
-      <c r="H628" s="14" t="s">
-        <v>1238</v>
-      </c>
       <c r="I628" s="8">
-        <f>LEN(H628)</f>
+        <f t="shared" si="18"/>
         <v>48</v>
       </c>
       <c r="J628" s="14"/>
@@ -27288,16 +27290,16 @@
       <c r="D629" s="11"/>
       <c r="E629" s="11"/>
       <c r="F629" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G629" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H629" s="14" t="s">
         <v>1239</v>
       </c>
-      <c r="H629" s="14" t="s">
-        <v>1240</v>
-      </c>
       <c r="I629" s="8">
-        <f>LEN(H629)</f>
+        <f t="shared" si="18"/>
         <v>47</v>
       </c>
       <c r="J629" s="14"/>
@@ -27315,16 +27317,16 @@
       <c r="D630" s="11"/>
       <c r="E630" s="11"/>
       <c r="F630" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G630" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H630" s="14" t="s">
         <v>1241</v>
       </c>
-      <c r="H630" s="14" t="s">
-        <v>1242</v>
-      </c>
       <c r="I630" s="8">
-        <f>LEN(H630)</f>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
       <c r="J630" s="14"/>
@@ -27342,16 +27344,16 @@
       <c r="D631" s="11"/>
       <c r="E631" s="11"/>
       <c r="F631" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G631" s="13" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H631" s="14" t="s">
         <v>1243</v>
       </c>
-      <c r="H631" s="14" t="s">
-        <v>1244</v>
-      </c>
       <c r="I631" s="8">
-        <f>LEN(H631)</f>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="J631" s="14"/>
@@ -27369,16 +27371,16 @@
       <c r="D632" s="11"/>
       <c r="E632" s="11"/>
       <c r="F632" s="13" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G632" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H632" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I632" s="8">
-        <f>LEN(H632)</f>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="J632" s="14"/>
@@ -27402,16 +27404,16 @@
       </c>
       <c r="E633" s="11"/>
       <c r="F633" s="13" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G633" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="G633" s="13" t="s">
+      <c r="H633" s="14" t="s">
         <v>1247</v>
       </c>
-      <c r="H633" s="14" t="s">
-        <v>1248</v>
-      </c>
       <c r="I633" s="8">
-        <f>LEN(H633)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J633" s="14"/>
@@ -27435,16 +27437,16 @@
       </c>
       <c r="E634" s="11"/>
       <c r="F634" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G634" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H634" s="14" t="s">
         <v>1249</v>
       </c>
-      <c r="H634" s="14" t="s">
-        <v>1250</v>
-      </c>
       <c r="I634" s="8">
-        <f>LEN(H634)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J634" s="14"/>
@@ -27468,16 +27470,16 @@
       </c>
       <c r="E635" s="11"/>
       <c r="F635" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G635" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H635" s="14" t="s">
         <v>1251</v>
       </c>
-      <c r="H635" s="14" t="s">
-        <v>1252</v>
-      </c>
       <c r="I635" s="8">
-        <f>LEN(H635)</f>
+        <f t="shared" ref="I635:I698" si="19">LEN(H635)</f>
         <v>20</v>
       </c>
       <c r="J635" s="14"/>
@@ -27501,16 +27503,16 @@
       </c>
       <c r="E636" s="11"/>
       <c r="F636" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G636" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H636" s="14" t="s">
         <v>1253</v>
       </c>
-      <c r="H636" s="14" t="s">
-        <v>1254</v>
-      </c>
       <c r="I636" s="8">
-        <f>LEN(H636)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="J636" s="14"/>
@@ -27534,16 +27536,16 @@
       </c>
       <c r="E637" s="11"/>
       <c r="F637" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G637" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H637" s="14" t="s">
         <v>1255</v>
       </c>
-      <c r="H637" s="14" t="s">
-        <v>1256</v>
-      </c>
       <c r="I637" s="8">
-        <f>LEN(H637)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J637" s="14"/>
@@ -27565,16 +27567,16 @@
       </c>
       <c r="E638" s="11"/>
       <c r="F638" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G638" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H638" s="14" t="s">
         <v>1257</v>
       </c>
-      <c r="H638" s="14" t="s">
-        <v>1258</v>
-      </c>
       <c r="I638" s="8">
-        <f>LEN(H638)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J638" s="14"/>
@@ -27596,16 +27598,16 @@
       </c>
       <c r="E639" s="11"/>
       <c r="F639" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G639" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H639" s="14" t="s">
         <v>1259</v>
       </c>
-      <c r="H639" s="14" t="s">
-        <v>1260</v>
-      </c>
       <c r="I639" s="8">
-        <f>LEN(H639)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J639" s="14"/>
@@ -27627,16 +27629,16 @@
       </c>
       <c r="E640" s="11"/>
       <c r="F640" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G640" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H640" s="14" t="s">
         <v>1261</v>
       </c>
-      <c r="H640" s="14" t="s">
-        <v>1262</v>
-      </c>
       <c r="I640" s="8">
-        <f>LEN(H640)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J640" s="14"/>
@@ -27658,16 +27660,16 @@
       </c>
       <c r="E641" s="11"/>
       <c r="F641" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G641" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H641" s="14" t="s">
         <v>1263</v>
       </c>
-      <c r="H641" s="14" t="s">
-        <v>1264</v>
-      </c>
       <c r="I641" s="8">
-        <f>LEN(H641)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="J641" s="14"/>
@@ -27689,16 +27691,16 @@
       </c>
       <c r="E642" s="11"/>
       <c r="F642" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G642" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H642" s="14" t="s">
         <v>1265</v>
       </c>
-      <c r="H642" s="14" t="s">
-        <v>1266</v>
-      </c>
       <c r="I642" s="8">
-        <f>LEN(H642)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J642" s="14"/>
@@ -27720,16 +27722,16 @@
       </c>
       <c r="E643" s="11"/>
       <c r="F643" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G643" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H643" s="14" t="s">
         <v>1267</v>
       </c>
-      <c r="H643" s="14" t="s">
-        <v>1268</v>
-      </c>
       <c r="I643" s="8">
-        <f>LEN(H643)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J643" s="14"/>
@@ -27749,16 +27751,16 @@
       <c r="D644" s="11"/>
       <c r="E644" s="11"/>
       <c r="F644" s="13" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="G644" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H644" s="14" t="s">
         <v>1269</v>
       </c>
-      <c r="H644" s="14" t="s">
-        <v>1270</v>
-      </c>
       <c r="I644" s="8">
-        <f>LEN(H644)</f>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="J644" s="14"/>
@@ -27778,16 +27780,16 @@
       <c r="D645" s="11"/>
       <c r="E645" s="11"/>
       <c r="F645" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G645" s="13" t="s">
         <v>1271</v>
       </c>
-      <c r="G645" s="13" t="s">
-        <v>1272</v>
-      </c>
       <c r="H645" s="14" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I645" s="8">
-        <f>LEN(H645)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J645" s="14"/>
@@ -27807,16 +27809,16 @@
       <c r="D646" s="11"/>
       <c r="E646" s="11"/>
       <c r="F646" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G646" s="13" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H646" s="14" t="s">
         <v>895</v>
       </c>
       <c r="I646" s="8">
-        <f>LEN(H646)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J646" s="14"/>
@@ -27836,16 +27838,16 @@
       <c r="D647" s="11"/>
       <c r="E647" s="11"/>
       <c r="F647" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G647" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H647" s="14" t="s">
         <v>1274</v>
       </c>
-      <c r="H647" s="14" t="s">
-        <v>1275</v>
-      </c>
       <c r="I647" s="8">
-        <f>LEN(H647)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J647" s="14"/>
@@ -27867,16 +27869,16 @@
       <c r="D648" s="11"/>
       <c r="E648" s="11"/>
       <c r="F648" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G648" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H648" s="14" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I648" s="8">
-        <f>LEN(H648)</f>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="J648" s="14"/>
@@ -27896,16 +27898,16 @@
       <c r="D649" s="11"/>
       <c r="E649" s="11"/>
       <c r="F649" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G649" s="13" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H649" s="14" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I649" s="8">
-        <f>LEN(H649)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="J649" s="14"/>
@@ -27925,16 +27927,16 @@
       <c r="D650" s="11"/>
       <c r="E650" s="11"/>
       <c r="F650" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G650" s="13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H650" s="14" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I650" s="8">
-        <f>LEN(H650)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J650" s="14"/>
@@ -27954,16 +27956,16 @@
       <c r="D651" s="11"/>
       <c r="E651" s="11"/>
       <c r="F651" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G651" s="13" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H651" s="14" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="I651" s="8">
-        <f>LEN(H651)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J651" s="14"/>
@@ -27985,16 +27987,16 @@
       <c r="D652" s="11"/>
       <c r="E652" s="11"/>
       <c r="F652" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G652" s="13" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H652" s="14" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I652" s="8">
-        <f>LEN(H652)</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="J652" s="14"/>
@@ -28014,16 +28016,16 @@
       <c r="D653" s="11"/>
       <c r="E653" s="11"/>
       <c r="F653" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G653" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H653" s="14" t="s">
         <v>1281</v>
       </c>
-      <c r="H653" s="14" t="s">
-        <v>1282</v>
-      </c>
       <c r="I653" s="8">
-        <f>LEN(H653)</f>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="J653" s="14"/>
@@ -28043,16 +28045,16 @@
       <c r="D654" s="11"/>
       <c r="E654" s="11"/>
       <c r="F654" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G654" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H654" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="H654" s="14" t="s">
-        <v>1284</v>
-      </c>
       <c r="I654" s="8">
-        <f>LEN(H654)</f>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="J654" s="14"/>
@@ -28072,16 +28074,16 @@
       <c r="D655" s="11"/>
       <c r="E655" s="11"/>
       <c r="F655" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G655" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H655" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="H655" s="14" t="s">
-        <v>1286</v>
-      </c>
       <c r="I655" s="8">
-        <f>LEN(H655)</f>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="J655" s="14"/>
@@ -28101,16 +28103,16 @@
       <c r="D656" s="11"/>
       <c r="E656" s="11"/>
       <c r="F656" s="13" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G656" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H656" s="14" t="s">
         <v>1287</v>
       </c>
-      <c r="H656" s="14" t="s">
-        <v>1288</v>
-      </c>
       <c r="I656" s="8">
-        <f>LEN(H656)</f>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="J656" s="14"/>
@@ -28130,16 +28132,16 @@
       <c r="D657" s="11"/>
       <c r="E657" s="11"/>
       <c r="F657" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G657" s="13" t="s">
         <v>1289</v>
       </c>
-      <c r="G657" s="13" t="s">
+      <c r="H657" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="H657" s="14" t="s">
-        <v>1291</v>
-      </c>
       <c r="I657" s="8">
-        <f>LEN(H657)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J657" s="14"/>
@@ -28161,14 +28163,14 @@
       <c r="D658" s="11"/>
       <c r="E658" s="11"/>
       <c r="F658" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G658" s="13"/>
       <c r="H658" s="14" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="I658" s="8">
-        <f>LEN(H658)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="J658" s="14"/>
@@ -28190,14 +28192,14 @@
       <c r="D659" s="11"/>
       <c r="E659" s="11"/>
       <c r="F659" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G659" s="13"/>
       <c r="H659" s="14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="I659" s="8">
-        <f>LEN(H659)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J659" s="14"/>
@@ -28219,14 +28221,14 @@
       <c r="D660" s="11"/>
       <c r="E660" s="11"/>
       <c r="F660" s="13" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G660" s="13"/>
       <c r="H660" s="14" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="I660" s="8">
-        <f>LEN(H660)</f>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="J660" s="14"/>
@@ -28248,16 +28250,16 @@
       </c>
       <c r="E661" s="11"/>
       <c r="F661" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G661" s="13" t="s">
         <v>1295</v>
       </c>
-      <c r="G661" s="13" t="s">
+      <c r="H661" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="H661" s="14" t="s">
-        <v>1297</v>
-      </c>
       <c r="I661" s="8">
-        <f>LEN(H661)</f>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="J661" s="14"/>
@@ -28279,16 +28281,16 @@
       </c>
       <c r="E662" s="11"/>
       <c r="F662" s="13" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G662" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H662" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="H662" s="14" t="s">
-        <v>1299</v>
-      </c>
       <c r="I662" s="8">
-        <f>LEN(H662)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J662" s="14"/>
@@ -28306,16 +28308,16 @@
       <c r="D663" s="11"/>
       <c r="E663" s="11"/>
       <c r="F663" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G663" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H663" s="14" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I663" s="8">
-        <f>LEN(H663)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J663" s="14"/>
@@ -28339,16 +28341,16 @@
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
       <c r="F664" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G664" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H664" s="14" t="s">
         <v>1302</v>
       </c>
-      <c r="H664" s="14" t="s">
-        <v>1303</v>
-      </c>
       <c r="I664" s="8">
-        <f>LEN(H664)</f>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="J664" s="14"/>
@@ -28372,16 +28374,16 @@
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
       <c r="F665" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G665" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H665" s="14" t="s">
         <v>1304</v>
       </c>
-      <c r="H665" s="14" t="s">
-        <v>1305</v>
-      </c>
       <c r="I665" s="8">
-        <f>LEN(H665)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J665" s="14"/>
@@ -28405,16 +28407,16 @@
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
       <c r="F666" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G666" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H666" s="14" t="s">
         <v>1306</v>
       </c>
-      <c r="H666" s="14" t="s">
-        <v>1307</v>
-      </c>
       <c r="I666" s="8">
-        <f>LEN(H666)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J666" s="14"/>
@@ -28438,16 +28440,16 @@
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
       <c r="F667" s="13" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G667" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H667" s="14" t="s">
         <v>1308</v>
       </c>
-      <c r="H667" s="14" t="s">
-        <v>1309</v>
-      </c>
       <c r="I667" s="8">
-        <f>LEN(H667)</f>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="J667" s="14"/>
@@ -28467,16 +28469,16 @@
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
       <c r="F668" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G668" s="13" t="s">
         <v>1310</v>
       </c>
-      <c r="G668" s="13" t="s">
+      <c r="H668" s="14" t="s">
         <v>1311</v>
       </c>
-      <c r="H668" s="14" t="s">
-        <v>1312</v>
-      </c>
       <c r="I668" s="8">
-        <f>LEN(H668)</f>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="J668" s="14"/>
@@ -28492,16 +28494,16 @@
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
       <c r="F669" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G669" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H669" s="14" t="s">
         <v>1313</v>
       </c>
-      <c r="H669" s="14" t="s">
-        <v>1314</v>
-      </c>
       <c r="I669" s="8">
-        <f>LEN(H669)</f>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="J669" s="14"/>
@@ -28521,16 +28523,16 @@
       </c>
       <c r="E670" s="11"/>
       <c r="F670" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G670" s="13" t="s">
         <v>1315</v>
       </c>
-      <c r="G670" s="13" t="s">
+      <c r="H670" s="14" t="s">
         <v>1316</v>
       </c>
-      <c r="H670" s="14" t="s">
-        <v>1317</v>
-      </c>
       <c r="I670" s="8">
-        <f>LEN(H670)</f>
+        <f t="shared" si="19"/>
         <v>39</v>
       </c>
       <c r="J670" s="14"/>
@@ -28550,16 +28552,16 @@
       </c>
       <c r="E671" s="11"/>
       <c r="F671" s="13" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G671" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H671" s="14" t="s">
         <v>1318</v>
       </c>
-      <c r="H671" s="14" t="s">
-        <v>1319</v>
-      </c>
       <c r="I671" s="8">
-        <f>LEN(H671)</f>
+        <f t="shared" si="19"/>
         <v>39</v>
       </c>
       <c r="J671" s="14"/>
@@ -28581,16 +28583,16 @@
       </c>
       <c r="E672" s="11"/>
       <c r="F672" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G672" s="13" t="s">
         <v>70</v>
       </c>
       <c r="H672" s="14" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I672" s="8">
-        <f>LEN(H672)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="J672" s="14">
@@ -28616,16 +28618,16 @@
       </c>
       <c r="E673" s="11"/>
       <c r="F673" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G673" s="13" t="s">
         <v>915</v>
       </c>
       <c r="H673" s="14" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I673" s="8">
-        <f>LEN(H673)</f>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="J673" s="14">
@@ -28651,16 +28653,16 @@
       </c>
       <c r="E674" s="11"/>
       <c r="F674" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G674" s="13" t="s">
         <v>917</v>
       </c>
       <c r="H674" s="14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I674" s="8">
-        <f>LEN(H674)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="J674" s="14">
@@ -28688,16 +28690,16 @@
       </c>
       <c r="E675" s="11"/>
       <c r="F675" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G675" s="13" t="s">
         <v>1324</v>
       </c>
-      <c r="G675" s="13" t="s">
+      <c r="H675" s="14" t="s">
         <v>1325</v>
       </c>
-      <c r="H675" s="14" t="s">
-        <v>1326</v>
-      </c>
       <c r="I675" s="8">
-        <f>LEN(H675)</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="J675" s="14"/>
@@ -28721,16 +28723,16 @@
       </c>
       <c r="E676" s="11"/>
       <c r="F676" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G676" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H676" s="14" t="s">
         <v>1327</v>
       </c>
-      <c r="H676" s="14" t="s">
-        <v>1328</v>
-      </c>
       <c r="I676" s="8">
-        <f>LEN(H676)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J676" s="14"/>
@@ -28748,16 +28750,16 @@
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
       <c r="F677" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G677" s="13" t="s">
         <v>1329</v>
       </c>
-      <c r="G677" s="13" t="s">
+      <c r="H677" s="14" t="s">
         <v>1330</v>
       </c>
-      <c r="H677" s="14" t="s">
-        <v>1331</v>
-      </c>
       <c r="I677" s="8">
-        <f>LEN(H677)</f>
+        <f t="shared" si="19"/>
         <v>47</v>
       </c>
       <c r="J677" s="14"/>
@@ -28779,16 +28781,16 @@
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
       <c r="F678" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G678" s="13" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H678" s="14" t="s">
         <v>928</v>
       </c>
       <c r="I678" s="8">
-        <f>LEN(H678)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="J678" s="14"/>
@@ -28810,16 +28812,16 @@
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
       <c r="F679" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G679" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H679" s="14" t="s">
         <v>1333</v>
       </c>
-      <c r="H679" s="14" t="s">
-        <v>1334</v>
-      </c>
       <c r="I679" s="8">
-        <f>LEN(H679)</f>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="J679" s="14"/>
@@ -28841,16 +28843,16 @@
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
       <c r="F680" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G680" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H680" s="14" t="s">
         <v>1335</v>
       </c>
-      <c r="H680" s="14" t="s">
-        <v>1336</v>
-      </c>
       <c r="I680" s="8">
-        <f>LEN(H680)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="J680" s="14"/>
@@ -28872,16 +28874,16 @@
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
       <c r="F681" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G681" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H681" s="14" t="s">
         <v>1337</v>
       </c>
-      <c r="H681" s="14" t="s">
-        <v>1338</v>
-      </c>
       <c r="I681" s="8">
-        <f>LEN(H681)</f>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="J681" s="14"/>
@@ -28903,16 +28905,16 @@
       <c r="D682" s="11"/>
       <c r="E682" s="11"/>
       <c r="F682" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G682" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H682" s="14" t="s">
         <v>1339</v>
       </c>
-      <c r="H682" s="14" t="s">
-        <v>1340</v>
-      </c>
       <c r="I682" s="8">
-        <f>LEN(H682)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J682" s="14"/>
@@ -28934,16 +28936,16 @@
       <c r="D683" s="11"/>
       <c r="E683" s="11"/>
       <c r="F683" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G683" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H683" s="14" t="s">
         <v>1341</v>
       </c>
-      <c r="H683" s="14" t="s">
-        <v>1342</v>
-      </c>
       <c r="I683" s="8">
-        <f>LEN(H683)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J683" s="14"/>
@@ -28965,16 +28967,16 @@
       </c>
       <c r="E684" s="11"/>
       <c r="F684" s="13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G684" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H684" s="14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="I684" s="8">
-        <f>LEN(H684)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J684" s="14"/>
@@ -28996,16 +28998,16 @@
       </c>
       <c r="E685" s="11"/>
       <c r="F685" s="13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G685" s="13" t="s">
         <v>61</v>
       </c>
       <c r="H685" s="14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="I685" s="8">
-        <f>LEN(H685)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="J685" s="14"/>
@@ -29027,16 +29029,16 @@
       </c>
       <c r="E686" s="11"/>
       <c r="F686" s="13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G686" s="13" t="s">
         <v>290</v>
       </c>
       <c r="H686" s="14" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="I686" s="8">
-        <f>LEN(H686)</f>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="J686" s="14"/>
@@ -29056,16 +29058,16 @@
       <c r="D687" s="11"/>
       <c r="E687" s="11"/>
       <c r="F687" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G687" s="13" t="s">
         <v>1347</v>
       </c>
-      <c r="G687" s="13" t="s">
+      <c r="H687" s="14" t="s">
         <v>1348</v>
       </c>
-      <c r="H687" s="14" t="s">
-        <v>1349</v>
-      </c>
       <c r="I687" s="8">
-        <f>LEN(H687)</f>
+        <f t="shared" si="19"/>
         <v>65</v>
       </c>
       <c r="J687" s="14"/>
@@ -29085,16 +29087,16 @@
       <c r="D688" s="11"/>
       <c r="E688" s="11"/>
       <c r="F688" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G688" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H688" s="14" t="s">
         <v>1350</v>
       </c>
-      <c r="H688" s="14" t="s">
-        <v>1351</v>
-      </c>
       <c r="I688" s="8">
-        <f>LEN(H688)</f>
+        <f t="shared" si="19"/>
         <v>49</v>
       </c>
       <c r="J688" s="14"/>
@@ -29114,16 +29116,16 @@
       <c r="D689" s="11"/>
       <c r="E689" s="11"/>
       <c r="F689" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G689" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H689" s="14" t="s">
         <v>1352</v>
       </c>
-      <c r="H689" s="14" t="s">
-        <v>1353</v>
-      </c>
       <c r="I689" s="8">
-        <f>LEN(H689)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J689" s="14"/>
@@ -29143,16 +29145,16 @@
       <c r="D690" s="11"/>
       <c r="E690" s="11"/>
       <c r="F690" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G690" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H690" s="14" t="s">
         <v>1354</v>
       </c>
-      <c r="H690" s="14" t="s">
-        <v>1355</v>
-      </c>
       <c r="I690" s="8">
-        <f>LEN(H690)</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="J690" s="14"/>
@@ -29172,16 +29174,16 @@
       <c r="D691" s="11"/>
       <c r="E691" s="11"/>
       <c r="F691" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G691" s="13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H691" s="14" t="s">
         <v>1356</v>
       </c>
-      <c r="H691" s="14" t="s">
-        <v>1357</v>
-      </c>
       <c r="I691" s="8">
-        <f>LEN(H691)</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="J691" s="14"/>
@@ -29201,16 +29203,16 @@
       <c r="D692" s="11"/>
       <c r="E692" s="11"/>
       <c r="F692" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G692" s="13" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H692" s="14" t="s">
         <v>1358</v>
       </c>
-      <c r="H692" s="14" t="s">
-        <v>1359</v>
-      </c>
       <c r="I692" s="8">
-        <f>LEN(H692)</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="J692" s="14"/>
@@ -29230,16 +29232,16 @@
       <c r="D693" s="11"/>
       <c r="E693" s="11"/>
       <c r="F693" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G693" s="13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H693" s="14" t="s">
         <v>1360</v>
       </c>
-      <c r="H693" s="14" t="s">
-        <v>1361</v>
-      </c>
       <c r="I693" s="8">
-        <f>LEN(H693)</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="J693" s="14"/>
@@ -29259,16 +29261,16 @@
       <c r="D694" s="11"/>
       <c r="E694" s="11"/>
       <c r="F694" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G694" s="13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H694" s="14" t="s">
         <v>1362</v>
       </c>
-      <c r="H694" s="14" t="s">
-        <v>1363</v>
-      </c>
       <c r="I694" s="8">
-        <f>LEN(H694)</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="J694" s="14"/>
@@ -29288,16 +29290,16 @@
       <c r="D695" s="11"/>
       <c r="E695" s="11"/>
       <c r="F695" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G695" s="13" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H695" s="14" t="s">
         <v>1364</v>
       </c>
-      <c r="H695" s="14" t="s">
-        <v>1365</v>
-      </c>
       <c r="I695" s="8">
-        <f>LEN(H695)</f>
+        <f t="shared" si="19"/>
         <v>60</v>
       </c>
       <c r="J695" s="14"/>
@@ -29317,16 +29319,16 @@
       <c r="D696" s="11"/>
       <c r="E696" s="11"/>
       <c r="F696" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G696" s="13" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H696" s="14" t="s">
         <v>1366</v>
       </c>
-      <c r="H696" s="14" t="s">
-        <v>1367</v>
-      </c>
       <c r="I696" s="8">
-        <f>LEN(H696)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="J696" s="14"/>
@@ -29346,16 +29348,16 @@
       <c r="D697" s="11"/>
       <c r="E697" s="11"/>
       <c r="F697" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G697" s="13" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H697" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I697" s="8">
-        <f>LEN(H697)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="J697" s="14"/>
@@ -29375,16 +29377,16 @@
       <c r="D698" s="11"/>
       <c r="E698" s="11"/>
       <c r="F698" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G698" s="13" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H698" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I698" s="8">
-        <f>LEN(H698)</f>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="J698" s="14"/>
@@ -29402,13 +29404,13 @@
       <c r="D699" s="11"/>
       <c r="E699" s="11"/>
       <c r="F699" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G699" s="13" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H699" s="14" t="s">
         <v>1370</v>
-      </c>
-      <c r="H699" s="14" t="s">
-        <v>1371</v>
       </c>
       <c r="I699" s="8">
         <f>LEN(H699)</f>
@@ -29431,13 +29433,13 @@
       <c r="D700" s="11"/>
       <c r="E700" s="11"/>
       <c r="F700" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G700" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H700" s="14" t="s">
         <v>1372</v>
-      </c>
-      <c r="H700" s="14" t="s">
-        <v>1373</v>
       </c>
       <c r="I700" s="8">
         <f>LEN(H700)</f>
@@ -29460,13 +29462,13 @@
       <c r="D701" s="11"/>
       <c r="E701" s="11"/>
       <c r="F701" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G701" s="13" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H701" s="14" t="s">
         <v>1374</v>
-      </c>
-      <c r="H701" s="14" t="s">
-        <v>1375</v>
       </c>
       <c r="I701" s="8">
         <f>LEN(H701)</f>
@@ -29489,16 +29491,16 @@
       <c r="D702" s="11"/>
       <c r="E702" s="11"/>
       <c r="F702" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G702" s="13" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H702" s="14" t="s">
         <v>1376</v>
       </c>
-      <c r="H702" s="14" t="s">
-        <v>1377</v>
-      </c>
       <c r="I702" s="8">
-        <f t="shared" ref="I702:I727" si="19">LEN(H702)</f>
+        <f t="shared" ref="I702:I727" si="20">LEN(H702)</f>
         <v>26</v>
       </c>
       <c r="J702" s="14"/>
@@ -29518,16 +29520,16 @@
       <c r="D703" s="11"/>
       <c r="E703" s="11"/>
       <c r="F703" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G703" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H703" s="14" t="s">
         <v>1378</v>
       </c>
-      <c r="H703" s="14" t="s">
-        <v>1379</v>
-      </c>
       <c r="I703" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>161</v>
       </c>
       <c r="J703" s="14"/>
@@ -29549,16 +29551,16 @@
       <c r="D704" s="11"/>
       <c r="E704" s="11"/>
       <c r="F704" s="13" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G704" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="G704" s="13" t="s">
+      <c r="H704" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="H704" s="14" t="s">
-        <v>1382</v>
-      </c>
       <c r="I704" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="J704" s="14">
@@ -29584,16 +29586,16 @@
       <c r="D705" s="11"/>
       <c r="E705" s="11"/>
       <c r="F705" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G705" s="13" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H705" s="14" t="s">
         <v>1383</v>
       </c>
-      <c r="H705" s="14" t="s">
-        <v>1384</v>
-      </c>
       <c r="I705" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="J705" s="14">
@@ -29619,16 +29621,16 @@
       <c r="D706" s="11"/>
       <c r="E706" s="11"/>
       <c r="F706" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G706" s="13" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H706" s="14" t="s">
         <v>1385</v>
       </c>
-      <c r="H706" s="14" t="s">
-        <v>1386</v>
-      </c>
       <c r="I706" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="J706" s="14">
@@ -29654,16 +29656,16 @@
       <c r="D707" s="11"/>
       <c r="E707" s="11"/>
       <c r="F707" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G707" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H707" s="14" t="s">
         <v>1387</v>
       </c>
-      <c r="H707" s="14" t="s">
-        <v>1388</v>
-      </c>
       <c r="I707" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="J707" s="14">
@@ -29689,16 +29691,16 @@
       <c r="D708" s="11"/>
       <c r="E708" s="11"/>
       <c r="F708" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G708" s="13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H708" s="14" t="s">
         <v>1389</v>
       </c>
-      <c r="H708" s="14" t="s">
-        <v>1390</v>
-      </c>
       <c r="I708" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="J708" s="14">
@@ -29724,16 +29726,16 @@
       <c r="D709" s="11"/>
       <c r="E709" s="11"/>
       <c r="F709" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G709" s="13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H709" s="14" t="s">
         <v>1391</v>
       </c>
-      <c r="H709" s="14" t="s">
-        <v>1392</v>
-      </c>
       <c r="I709" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="J709" s="14">
@@ -29757,16 +29759,16 @@
       <c r="D710" s="11"/>
       <c r="E710" s="11"/>
       <c r="F710" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G710" s="13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H710" s="14" t="s">
         <v>1393</v>
       </c>
-      <c r="H710" s="14" t="s">
-        <v>1394</v>
-      </c>
       <c r="I710" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="J710" s="14">
@@ -29790,16 +29792,16 @@
       <c r="D711" s="11"/>
       <c r="E711" s="11"/>
       <c r="F711" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G711" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H711" s="14" t="s">
         <v>1395</v>
       </c>
-      <c r="H711" s="14" t="s">
-        <v>1396</v>
-      </c>
       <c r="I711" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="J711" s="14">
@@ -29823,16 +29825,16 @@
       <c r="D712" s="11"/>
       <c r="E712" s="11"/>
       <c r="F712" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G712" s="13" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H712" s="14" t="s">
         <v>1397</v>
       </c>
-      <c r="H712" s="14" t="s">
-        <v>1398</v>
-      </c>
       <c r="I712" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="J712" s="14">
@@ -29856,16 +29858,16 @@
       <c r="D713" s="11"/>
       <c r="E713" s="11"/>
       <c r="F713" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G713" s="13" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H713" s="14" t="s">
         <v>1399</v>
       </c>
-      <c r="H713" s="14" t="s">
-        <v>1400</v>
-      </c>
       <c r="I713" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="J713" s="14">
@@ -29889,16 +29891,16 @@
       <c r="D714" s="11"/>
       <c r="E714" s="11"/>
       <c r="F714" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G714" s="13" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H714" s="14" t="s">
         <v>1401</v>
       </c>
-      <c r="H714" s="14" t="s">
-        <v>1402</v>
-      </c>
       <c r="I714" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="J714" s="14">
@@ -29922,16 +29924,16 @@
       <c r="D715" s="11"/>
       <c r="E715" s="11"/>
       <c r="F715" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G715" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H715" s="14" t="s">
         <v>1403</v>
       </c>
-      <c r="H715" s="14" t="s">
-        <v>1404</v>
-      </c>
       <c r="I715" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="J715" s="14">
@@ -29955,16 +29957,16 @@
       <c r="D716" s="11"/>
       <c r="E716" s="11"/>
       <c r="F716" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G716" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H716" s="14" t="s">
         <v>1405</v>
       </c>
-      <c r="H716" s="14" t="s">
-        <v>1406</v>
-      </c>
       <c r="I716" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="J716" s="14">
@@ -29990,16 +29992,16 @@
       <c r="D717" s="11"/>
       <c r="E717" s="11"/>
       <c r="F717" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G717" s="13" t="s">
         <v>1407</v>
-      </c>
-      <c r="G717" s="13" t="s">
-        <v>1408</v>
       </c>
       <c r="H717" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I717" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="J717" s="14">
@@ -30025,16 +30027,16 @@
       <c r="D718" s="11"/>
       <c r="E718" s="11"/>
       <c r="F718" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G718" s="13" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H718" s="14" t="s">
         <v>1409</v>
       </c>
-      <c r="H718" s="14" t="s">
-        <v>1410</v>
-      </c>
       <c r="I718" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J718" s="14">
@@ -30060,16 +30062,16 @@
       <c r="D719" s="11"/>
       <c r="E719" s="11"/>
       <c r="F719" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G719" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H719" s="14" t="s">
         <v>1411</v>
       </c>
-      <c r="H719" s="14" t="s">
-        <v>1412</v>
-      </c>
       <c r="I719" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="J719" s="14">
@@ -30095,16 +30097,16 @@
       <c r="D720" s="11"/>
       <c r="E720" s="11"/>
       <c r="F720" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G720" s="13" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H720" s="14" t="s">
         <v>1413</v>
       </c>
-      <c r="H720" s="14" t="s">
-        <v>1414</v>
-      </c>
       <c r="I720" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="J720" s="14">
@@ -30130,16 +30132,16 @@
       <c r="D721" s="11"/>
       <c r="E721" s="11"/>
       <c r="F721" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G721" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="H721" s="14" t="s">
         <v>1415</v>
       </c>
-      <c r="H721" s="14" t="s">
-        <v>1416</v>
-      </c>
       <c r="I721" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="J721" s="14">
@@ -30165,16 +30167,16 @@
       <c r="D722" s="11"/>
       <c r="E722" s="11"/>
       <c r="F722" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G722" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H722" s="14" t="s">
         <v>1417</v>
       </c>
-      <c r="H722" s="14" t="s">
-        <v>1418</v>
-      </c>
       <c r="I722" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="J722" s="14">
@@ -30200,16 +30202,16 @@
       <c r="D723" s="11"/>
       <c r="E723" s="11"/>
       <c r="F723" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G723" s="13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H723" s="14" t="s">
         <v>20</v>
       </c>
       <c r="I723" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="J723" s="14">
@@ -30235,16 +30237,16 @@
       <c r="D724" s="11"/>
       <c r="E724" s="11"/>
       <c r="F724" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G724" s="13" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H724" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I724" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="J724" s="14">
@@ -30272,16 +30274,16 @@
       </c>
       <c r="E725" s="11"/>
       <c r="F725" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G725" s="13" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H725" s="14" t="s">
         <v>1028</v>
       </c>
       <c r="I725" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="J725" s="14">
@@ -30309,16 +30311,16 @@
       </c>
       <c r="E726" s="11"/>
       <c r="F726" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G726" s="13" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H726" s="14" t="s">
         <v>1029</v>
       </c>
       <c r="I726" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="J726" s="14">
@@ -30346,16 +30348,16 @@
       </c>
       <c r="E727" s="11"/>
       <c r="F727" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G727" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H727" s="14" t="s">
         <v>1422</v>
       </c>
-      <c r="H727" s="14" t="s">
-        <v>1423</v>
-      </c>
       <c r="I727" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
       <c r="J727" s="14">
@@ -30381,16 +30383,16 @@
       </c>
       <c r="E728" s="11"/>
       <c r="F728" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G728" s="13" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H728" s="14" t="s">
         <v>1045</v>
       </c>
       <c r="I728" s="8">
-        <f t="shared" ref="I728:I756" si="20">LEN(H728)</f>
+        <f t="shared" ref="I728:I756" si="21">LEN(H728)</f>
         <v>40</v>
       </c>
       <c r="J728" s="14">
@@ -30414,16 +30416,16 @@
       <c r="D729" s="11"/>
       <c r="E729" s="11"/>
       <c r="F729" s="13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G729" s="13" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H729" s="14" t="s">
         <v>1029</v>
       </c>
       <c r="I729" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="J729" s="14">
@@ -30447,16 +30449,16 @@
       <c r="D730" s="11"/>
       <c r="E730" s="11"/>
       <c r="F730" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G730" s="13" t="s">
         <v>1426</v>
       </c>
-      <c r="G730" s="13" t="s">
+      <c r="H730" s="14" t="s">
         <v>1427</v>
       </c>
-      <c r="H730" s="14" t="s">
-        <v>1428</v>
-      </c>
       <c r="I730" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="J730" s="14"/>
@@ -30476,16 +30478,16 @@
       <c r="D731" s="11"/>
       <c r="E731" s="11"/>
       <c r="F731" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G731" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H731" s="14" t="s">
         <v>1429</v>
       </c>
-      <c r="H731" s="14" t="s">
-        <v>1430</v>
-      </c>
       <c r="I731" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="J731" s="14"/>
@@ -30505,16 +30507,16 @@
       <c r="D732" s="11"/>
       <c r="E732" s="11"/>
       <c r="F732" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G732" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H732" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="H732" s="14" t="s">
-        <v>1432</v>
-      </c>
       <c r="I732" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J732" s="14"/>
@@ -30534,16 +30536,16 @@
       <c r="D733" s="11"/>
       <c r="E733" s="11"/>
       <c r="F733" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G733" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H733" s="14" t="s">
         <v>1433</v>
       </c>
-      <c r="H733" s="14" t="s">
-        <v>1434</v>
-      </c>
       <c r="I733" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J733" s="14"/>
@@ -30563,16 +30565,16 @@
       <c r="D734" s="11"/>
       <c r="E734" s="11"/>
       <c r="F734" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G734" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H734" s="14" t="s">
         <v>1435</v>
       </c>
-      <c r="H734" s="14" t="s">
-        <v>1436</v>
-      </c>
       <c r="I734" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J734" s="14"/>
@@ -30592,16 +30594,16 @@
       <c r="D735" s="11"/>
       <c r="E735" s="11"/>
       <c r="F735" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G735" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H735" s="14" t="s">
         <v>1437</v>
       </c>
-      <c r="H735" s="14" t="s">
-        <v>1438</v>
-      </c>
       <c r="I735" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="J735" s="14"/>
@@ -30621,16 +30623,16 @@
       <c r="D736" s="11"/>
       <c r="E736" s="11"/>
       <c r="F736" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G736" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H736" s="14" t="s">
         <v>1439</v>
       </c>
-      <c r="H736" s="14" t="s">
-        <v>1440</v>
-      </c>
       <c r="I736" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="J736" s="14"/>
@@ -30650,16 +30652,16 @@
       <c r="D737" s="11"/>
       <c r="E737" s="11"/>
       <c r="F737" s="13" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G737" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H737" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="H737" s="14" t="s">
-        <v>1442</v>
-      </c>
       <c r="I737" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="J737" s="14"/>
@@ -30679,14 +30681,14 @@
       <c r="D738" s="11"/>
       <c r="E738" s="11"/>
       <c r="F738" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G738" s="13"/>
       <c r="H738" s="14" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="I738" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="J738" s="14"/>
@@ -30706,14 +30708,14 @@
       <c r="D739" s="11"/>
       <c r="E739" s="11"/>
       <c r="F739" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G739" s="13"/>
       <c r="H739" s="14" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="I739" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>51</v>
       </c>
       <c r="J739" s="14"/>
@@ -30733,14 +30735,14 @@
       <c r="D740" s="11"/>
       <c r="E740" s="11"/>
       <c r="F740" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G740" s="13"/>
       <c r="H740" s="14" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="I740" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="J740" s="14"/>
@@ -30760,16 +30762,16 @@
       <c r="D741" s="11"/>
       <c r="E741" s="11"/>
       <c r="F741" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G741" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H741" s="14" t="s">
         <v>1447</v>
       </c>
-      <c r="H741" s="14" t="s">
-        <v>1448</v>
-      </c>
       <c r="I741" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="J741" s="14"/>
@@ -30789,16 +30791,16 @@
       <c r="D742" s="11"/>
       <c r="E742" s="11"/>
       <c r="F742" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G742" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="H742" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="H742" s="14" t="s">
-        <v>1450</v>
-      </c>
       <c r="I742" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>51</v>
       </c>
       <c r="J742" s="14"/>
@@ -30818,14 +30820,14 @@
       <c r="D743" s="11"/>
       <c r="E743" s="11"/>
       <c r="F743" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G743" s="13"/>
       <c r="H743" s="14" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I743" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="J743" s="14"/>
@@ -30845,14 +30847,14 @@
       <c r="D744" s="11"/>
       <c r="E744" s="11"/>
       <c r="F744" s="13" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G744" s="13"/>
       <c r="H744" s="14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I744" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="J744" s="14"/>
@@ -30870,16 +30872,16 @@
       <c r="D745" s="11"/>
       <c r="E745" s="11"/>
       <c r="F745" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G745" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="G745" s="13" t="s">
+      <c r="H745" s="14" t="s">
         <v>1454</v>
       </c>
-      <c r="H745" s="14" t="s">
-        <v>1455</v>
-      </c>
       <c r="I745" s="8">
-        <f>LEN(H745)</f>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="J745" s="14"/>
@@ -30897,16 +30899,16 @@
       <c r="D746" s="11"/>
       <c r="E746" s="11"/>
       <c r="F746" s="13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G746" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H746" s="14" t="s">
         <v>1456</v>
       </c>
-      <c r="H746" s="14" t="s">
-        <v>1457</v>
-      </c>
       <c r="I746" s="8">
-        <f>LEN(H746)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="J746" s="14"/>
@@ -30924,16 +30926,16 @@
       <c r="D747" s="11"/>
       <c r="E747" s="11"/>
       <c r="F747" s="13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G747" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H747" s="14" t="s">
         <v>1458</v>
       </c>
-      <c r="H747" s="14" t="s">
-        <v>1459</v>
-      </c>
       <c r="I747" s="8">
-        <f>LEN(H747)</f>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="J747" s="14"/>
@@ -30951,16 +30953,16 @@
       <c r="D748" s="11"/>
       <c r="E748" s="11"/>
       <c r="F748" s="13" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G748" s="13" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H748" s="14" t="s">
         <v>1460</v>
       </c>
-      <c r="H748" s="14" t="s">
-        <v>1461</v>
-      </c>
       <c r="I748" s="8">
-        <f>LEN(H748)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="J748" s="14"/>
@@ -30980,7 +30982,7 @@
       <c r="D749" s="11"/>
       <c r="E749" s="11"/>
       <c r="F749" s="13" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G749" s="13" t="s">
         <v>84</v>
@@ -30989,7 +30991,7 @@
         <v>85</v>
       </c>
       <c r="I749" s="8">
-        <f>LEN(H749)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="J749" s="14"/>
@@ -31009,7 +31011,7 @@
       <c r="D750" s="11"/>
       <c r="E750" s="11"/>
       <c r="F750" s="13" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G750" s="13" t="s">
         <v>87</v>
@@ -31018,7 +31020,7 @@
         <v>88</v>
       </c>
       <c r="I750" s="8">
-        <f>LEN(H750)</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="J750" s="14"/>
@@ -31038,16 +31040,16 @@
       <c r="D751" s="11"/>
       <c r="E751" s="11"/>
       <c r="F751" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G751" s="13" t="s">
         <v>1462</v>
       </c>
-      <c r="G751" s="13" t="s">
+      <c r="H751" s="14" t="s">
         <v>1463</v>
       </c>
-      <c r="H751" s="14" t="s">
-        <v>1464</v>
-      </c>
       <c r="I751" s="8">
-        <f>LEN(H751)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J751" s="14"/>
@@ -31069,16 +31071,16 @@
       </c>
       <c r="E752" s="11"/>
       <c r="F752" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G752" s="13" t="s">
         <v>1465</v>
       </c>
-      <c r="G752" s="13" t="s">
+      <c r="H752" s="14" t="s">
         <v>1466</v>
       </c>
-      <c r="H752" s="14" t="s">
-        <v>1467</v>
-      </c>
       <c r="I752" s="8">
-        <f>LEN(H752)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J752" s="14"/>
@@ -31100,16 +31102,16 @@
       </c>
       <c r="E753" s="11"/>
       <c r="F753" s="13" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G753" s="13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H753" s="14" t="s">
         <v>1468</v>
       </c>
-      <c r="H753" s="14" t="s">
-        <v>1469</v>
-      </c>
       <c r="I753" s="8">
-        <f>LEN(H753)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J753" s="14"/>
@@ -31129,16 +31131,16 @@
       <c r="D754" s="11"/>
       <c r="E754" s="11"/>
       <c r="F754" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G754" s="13" t="s">
         <v>1470</v>
       </c>
-      <c r="G754" s="13" t="s">
+      <c r="H754" s="14" t="s">
         <v>1471</v>
       </c>
-      <c r="H754" s="14" t="s">
-        <v>1472</v>
-      </c>
       <c r="I754" s="8">
-        <f t="shared" ref="I754:I790" si="21">LEN(H754)</f>
+        <f t="shared" ref="I754:I790" si="22">LEN(H754)</f>
         <v>21</v>
       </c>
       <c r="J754" s="14"/>
@@ -31158,16 +31160,16 @@
       <c r="D755" s="11"/>
       <c r="E755" s="11"/>
       <c r="F755" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G755" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H755" s="14" t="s">
         <v>1473</v>
       </c>
-      <c r="H755" s="14" t="s">
-        <v>1474</v>
-      </c>
       <c r="I755" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J755" s="14"/>
@@ -31187,16 +31189,16 @@
       <c r="D756" s="11"/>
       <c r="E756" s="11"/>
       <c r="F756" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G756" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H756" s="14" t="s">
         <v>1475</v>
       </c>
-      <c r="H756" s="14" t="s">
-        <v>1476</v>
-      </c>
       <c r="I756" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J756" s="14"/>
@@ -31216,16 +31218,16 @@
       <c r="D757" s="11"/>
       <c r="E757" s="11"/>
       <c r="F757" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G757" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H757" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="H757" s="14" t="s">
-        <v>1478</v>
-      </c>
       <c r="I757" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J757" s="14"/>
@@ -31245,16 +31247,16 @@
       <c r="D758" s="11"/>
       <c r="E758" s="11"/>
       <c r="F758" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G758" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H758" s="14" t="s">
         <v>1479</v>
       </c>
-      <c r="H758" s="14" t="s">
-        <v>1480</v>
-      </c>
       <c r="I758" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J758" s="14"/>
@@ -31274,16 +31276,16 @@
       <c r="D759" s="11"/>
       <c r="E759" s="11"/>
       <c r="F759" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G759" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H759" s="14" t="s">
         <v>1481</v>
       </c>
-      <c r="H759" s="14" t="s">
-        <v>1482</v>
-      </c>
       <c r="I759" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J759" s="14"/>
@@ -31303,16 +31305,16 @@
       <c r="D760" s="11"/>
       <c r="E760" s="11"/>
       <c r="F760" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G760" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H760" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="H760" s="14" t="s">
-        <v>1484</v>
-      </c>
       <c r="I760" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J760" s="14"/>
@@ -31332,16 +31334,16 @@
       <c r="D761" s="11"/>
       <c r="E761" s="11"/>
       <c r="F761" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G761" s="13" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H761" s="14" t="s">
         <v>1485</v>
       </c>
-      <c r="H761" s="14" t="s">
-        <v>1486</v>
-      </c>
       <c r="I761" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J761" s="14"/>
@@ -31361,16 +31363,16 @@
       <c r="D762" s="11"/>
       <c r="E762" s="11"/>
       <c r="F762" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G762" s="13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H762" s="14" t="s">
         <v>1487</v>
       </c>
-      <c r="H762" s="14" t="s">
-        <v>1488</v>
-      </c>
       <c r="I762" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J762" s="14"/>
@@ -31390,16 +31392,16 @@
       <c r="D763" s="11"/>
       <c r="E763" s="11"/>
       <c r="F763" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G763" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H763" s="14" t="s">
         <v>1489</v>
       </c>
-      <c r="H763" s="14" t="s">
-        <v>1490</v>
-      </c>
       <c r="I763" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J763" s="14"/>
@@ -31419,16 +31421,16 @@
       <c r="D764" s="11"/>
       <c r="E764" s="11"/>
       <c r="F764" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G764" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H764" s="14" t="s">
         <v>1491</v>
       </c>
-      <c r="H764" s="14" t="s">
-        <v>1492</v>
-      </c>
       <c r="I764" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J764" s="14"/>
@@ -31448,16 +31450,16 @@
       <c r="D765" s="11"/>
       <c r="E765" s="11"/>
       <c r="F765" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G765" s="13" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H765" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="H765" s="14" t="s">
-        <v>1494</v>
-      </c>
       <c r="I765" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J765" s="14"/>
@@ -31477,16 +31479,16 @@
       <c r="D766" s="11"/>
       <c r="E766" s="11"/>
       <c r="F766" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G766" s="13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H766" s="14" t="s">
         <v>1495</v>
       </c>
-      <c r="H766" s="14" t="s">
-        <v>1496</v>
-      </c>
       <c r="I766" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J766" s="14"/>
@@ -31506,16 +31508,16 @@
       <c r="D767" s="11"/>
       <c r="E767" s="11"/>
       <c r="F767" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G767" s="13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H767" s="14" t="s">
         <v>1497</v>
       </c>
-      <c r="H767" s="14" t="s">
-        <v>1498</v>
-      </c>
       <c r="I767" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J767" s="14"/>
@@ -31535,16 +31537,16 @@
       <c r="D768" s="11"/>
       <c r="E768" s="11"/>
       <c r="F768" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G768" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H768" s="14" t="s">
         <v>1499</v>
       </c>
-      <c r="H768" s="14" t="s">
-        <v>1500</v>
-      </c>
       <c r="I768" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J768" s="14"/>
@@ -31564,16 +31566,16 @@
       <c r="D769" s="11"/>
       <c r="E769" s="11"/>
       <c r="F769" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G769" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H769" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="H769" s="14" t="s">
-        <v>1502</v>
-      </c>
       <c r="I769" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J769" s="14"/>
@@ -31593,16 +31595,16 @@
       <c r="D770" s="11"/>
       <c r="E770" s="11"/>
       <c r="F770" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G770" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H770" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="H770" s="14" t="s">
-        <v>1504</v>
-      </c>
       <c r="I770" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="J770" s="14"/>
@@ -31622,16 +31624,16 @@
       <c r="D771" s="11"/>
       <c r="E771" s="11"/>
       <c r="F771" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G771" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H771" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="H771" s="14" t="s">
-        <v>1506</v>
-      </c>
       <c r="I771" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J771" s="14"/>
@@ -31651,16 +31653,16 @@
       <c r="D772" s="11"/>
       <c r="E772" s="11"/>
       <c r="F772" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G772" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H772" s="14" t="s">
         <v>1507</v>
       </c>
-      <c r="H772" s="14" t="s">
-        <v>1508</v>
-      </c>
       <c r="I772" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="J772" s="14"/>
@@ -31680,16 +31682,16 @@
       <c r="D773" s="11"/>
       <c r="E773" s="11"/>
       <c r="F773" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G773" s="13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="H773" s="14" t="s">
         <v>1509</v>
       </c>
-      <c r="H773" s="14" t="s">
-        <v>1510</v>
-      </c>
       <c r="I773" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J773" s="14"/>
@@ -31709,16 +31711,16 @@
       <c r="D774" s="11"/>
       <c r="E774" s="11"/>
       <c r="F774" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G774" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H774" s="14" t="s">
         <v>1511</v>
       </c>
-      <c r="H774" s="14" t="s">
-        <v>1512</v>
-      </c>
       <c r="I774" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J774" s="14"/>
@@ -31738,16 +31740,16 @@
       <c r="D775" s="11"/>
       <c r="E775" s="11"/>
       <c r="F775" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G775" s="13" t="s">
+        <v>1512</v>
+      </c>
+      <c r="H775" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="H775" s="14" t="s">
-        <v>1514</v>
-      </c>
       <c r="I775" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J775" s="14"/>
@@ -31767,16 +31769,16 @@
       <c r="D776" s="11"/>
       <c r="E776" s="11"/>
       <c r="F776" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G776" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H776" s="14" t="s">
         <v>1515</v>
       </c>
-      <c r="H776" s="14" t="s">
-        <v>1516</v>
-      </c>
       <c r="I776" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J776" s="14"/>
@@ -31796,16 +31798,16 @@
       <c r="D777" s="11"/>
       <c r="E777" s="11"/>
       <c r="F777" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G777" s="13" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H777" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="H777" s="14" t="s">
-        <v>1518</v>
-      </c>
       <c r="I777" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J777" s="14"/>
@@ -31825,16 +31827,16 @@
       <c r="D778" s="11"/>
       <c r="E778" s="11"/>
       <c r="F778" s="13" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G778" s="13" t="s">
+        <v>1518</v>
+      </c>
+      <c r="H778" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="H778" s="14" t="s">
-        <v>1520</v>
-      </c>
       <c r="I778" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J778" s="14"/>
@@ -31852,16 +31854,16 @@
       <c r="D779" s="11"/>
       <c r="E779" s="11"/>
       <c r="F779" s="13" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G779" s="13" t="s">
         <v>1521</v>
       </c>
-      <c r="G779" s="13" t="s">
-        <v>1522</v>
-      </c>
       <c r="H779" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I779" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J779" s="14"/>
@@ -31879,16 +31881,16 @@
       <c r="D780" s="11"/>
       <c r="E780" s="11"/>
       <c r="F780" s="13" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G780" s="13" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H780" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I780" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J780" s="14"/>
@@ -31906,16 +31908,16 @@
       <c r="D781" s="11"/>
       <c r="E781" s="11"/>
       <c r="F781" s="13" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G781" s="13" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H781" s="14" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I781" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="J781" s="14"/>
@@ -31939,16 +31941,16 @@
       </c>
       <c r="E782" s="11"/>
       <c r="F782" s="13" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G782" s="13" t="s">
         <v>1525</v>
       </c>
-      <c r="G782" s="13" t="s">
+      <c r="H782" s="14" t="s">
         <v>1526</v>
       </c>
-      <c r="H782" s="14" t="s">
-        <v>1527</v>
-      </c>
       <c r="I782" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="J782" s="14"/>
@@ -31972,16 +31974,16 @@
       </c>
       <c r="E783" s="11"/>
       <c r="F783" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G783" s="13" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H783" s="14" t="s">
         <v>1528</v>
       </c>
-      <c r="H783" s="14" t="s">
-        <v>1529</v>
-      </c>
       <c r="I783" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="J783" s="14"/>
@@ -32005,16 +32007,16 @@
       </c>
       <c r="E784" s="11"/>
       <c r="F784" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G784" s="13" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H784" s="14" t="s">
         <v>1530</v>
       </c>
-      <c r="H784" s="14" t="s">
-        <v>1531</v>
-      </c>
       <c r="I784" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="J784" s="14"/>
@@ -32038,16 +32040,16 @@
       </c>
       <c r="E785" s="11"/>
       <c r="F785" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G785" s="13" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H785" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="H785" s="14" t="s">
-        <v>1533</v>
-      </c>
       <c r="I785" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="J785" s="14"/>
@@ -32071,16 +32073,16 @@
       </c>
       <c r="E786" s="11"/>
       <c r="F786" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G786" s="13" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H786" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="H786" s="14" t="s">
-        <v>1535</v>
-      </c>
       <c r="I786" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="J786" s="14"/>
@@ -32104,16 +32106,16 @@
       </c>
       <c r="E787" s="11"/>
       <c r="F787" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G787" s="13" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H787" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="H787" s="14" t="s">
-        <v>1537</v>
-      </c>
       <c r="I787" s="8">
-        <f t="shared" ref="I787:I850" si="22">LEN(H787)</f>
+        <f t="shared" ref="I787:I850" si="23">LEN(H787)</f>
         <v>34</v>
       </c>
       <c r="J787" s="14"/>
@@ -32137,16 +32139,16 @@
       </c>
       <c r="E788" s="11"/>
       <c r="F788" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G788" s="13" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H788" s="14" t="s">
         <v>1538</v>
       </c>
-      <c r="H788" s="14" t="s">
-        <v>1539</v>
-      </c>
       <c r="I788" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>27</v>
       </c>
       <c r="J788" s="14"/>
@@ -32170,16 +32172,16 @@
       </c>
       <c r="E789" s="11"/>
       <c r="F789" s="13" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="G789" s="13" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H789" s="14" t="s">
         <v>1540</v>
       </c>
-      <c r="H789" s="14" t="s">
-        <v>1541</v>
-      </c>
       <c r="I789" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="J789" s="14"/>
@@ -32203,16 +32205,16 @@
       </c>
       <c r="E790" s="11"/>
       <c r="F790" s="13" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G790" s="13" t="s">
         <v>1542</v>
       </c>
-      <c r="G790" s="13" t="s">
+      <c r="H790" s="14" t="s">
         <v>1543</v>
       </c>
-      <c r="H790" s="14" t="s">
-        <v>1544</v>
-      </c>
       <c r="I790" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26</v>
       </c>
       <c r="J790" s="14"/>
@@ -32236,16 +32238,16 @@
       </c>
       <c r="E791" s="11"/>
       <c r="F791" s="13" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G791" s="13" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H791" s="14" t="s">
         <v>1545</v>
       </c>
-      <c r="H791" s="14" t="s">
-        <v>1546</v>
-      </c>
       <c r="I791" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="J791" s="14"/>
@@ -32269,16 +32271,16 @@
       </c>
       <c r="E792" s="11"/>
       <c r="F792" s="13" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G792" s="13" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H792" s="14" t="s">
         <v>1547</v>
       </c>
-      <c r="H792" s="14" t="s">
-        <v>1548</v>
-      </c>
       <c r="I792" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>34</v>
       </c>
       <c r="J792" s="14"/>
@@ -32300,16 +32302,16 @@
       <c r="D793" s="11"/>
       <c r="E793" s="11"/>
       <c r="F793" s="13" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G793" s="13" t="s">
         <v>1549</v>
       </c>
-      <c r="G793" s="13" t="s">
+      <c r="H793" s="14" t="s">
         <v>1550</v>
       </c>
-      <c r="H793" s="14" t="s">
-        <v>1551</v>
-      </c>
       <c r="I793" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J793" s="14"/>
@@ -32331,16 +32333,16 @@
       <c r="D794" s="11"/>
       <c r="E794" s="11"/>
       <c r="F794" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G794" s="13" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H794" s="14" t="s">
         <v>1552</v>
       </c>
-      <c r="H794" s="14" t="s">
-        <v>1553</v>
-      </c>
       <c r="I794" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J794" s="14"/>
@@ -32362,16 +32364,16 @@
       <c r="D795" s="11"/>
       <c r="E795" s="11"/>
       <c r="F795" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G795" s="13" t="s">
+        <v>1553</v>
+      </c>
+      <c r="H795" s="14" t="s">
         <v>1554</v>
       </c>
-      <c r="H795" s="14" t="s">
-        <v>1555</v>
-      </c>
       <c r="I795" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="J795" s="14"/>
@@ -32393,16 +32395,16 @@
       <c r="D796" s="11"/>
       <c r="E796" s="11"/>
       <c r="F796" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G796" s="13" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H796" s="14" t="s">
         <v>1556</v>
       </c>
-      <c r="H796" s="14" t="s">
-        <v>1557</v>
-      </c>
       <c r="I796" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="J796" s="14"/>
@@ -32424,16 +32426,16 @@
       <c r="D797" s="11"/>
       <c r="E797" s="11"/>
       <c r="F797" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G797" s="13" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H797" s="14" t="s">
         <v>1558</v>
       </c>
-      <c r="H797" s="14" t="s">
-        <v>1559</v>
-      </c>
       <c r="I797" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J797" s="14"/>
@@ -32455,16 +32457,16 @@
       <c r="D798" s="11"/>
       <c r="E798" s="11"/>
       <c r="F798" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G798" s="13" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H798" s="14" t="s">
         <v>1560</v>
       </c>
-      <c r="H798" s="14" t="s">
-        <v>1561</v>
-      </c>
       <c r="I798" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J798" s="14"/>
@@ -32486,16 +32488,16 @@
       <c r="D799" s="11"/>
       <c r="E799" s="11"/>
       <c r="F799" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G799" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H799" s="14" t="s">
         <v>1562</v>
       </c>
-      <c r="H799" s="14" t="s">
-        <v>1563</v>
-      </c>
       <c r="I799" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J799" s="14"/>
@@ -32517,16 +32519,16 @@
       <c r="D800" s="11"/>
       <c r="E800" s="11"/>
       <c r="F800" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G800" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H800" s="14" t="s">
         <v>1564</v>
       </c>
-      <c r="H800" s="14" t="s">
-        <v>1565</v>
-      </c>
       <c r="I800" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J800" s="14"/>
@@ -32548,16 +32550,16 @@
       <c r="D801" s="11"/>
       <c r="E801" s="11"/>
       <c r="F801" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G801" s="13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="H801" s="14" t="s">
         <v>1566</v>
       </c>
-      <c r="H801" s="14" t="s">
-        <v>1567</v>
-      </c>
       <c r="I801" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J801" s="14"/>
@@ -32579,16 +32581,16 @@
       <c r="D802" s="11"/>
       <c r="E802" s="11"/>
       <c r="F802" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G802" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H802" s="14" t="s">
         <v>1568</v>
       </c>
-      <c r="H802" s="14" t="s">
-        <v>1569</v>
-      </c>
       <c r="I802" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J802" s="14"/>
@@ -32610,16 +32612,16 @@
       <c r="D803" s="11"/>
       <c r="E803" s="11"/>
       <c r="F803" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G803" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H803" s="14" t="s">
         <v>1570</v>
       </c>
-      <c r="H803" s="14" t="s">
-        <v>1571</v>
-      </c>
       <c r="I803" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J803" s="14"/>
@@ -32641,16 +32643,16 @@
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
       <c r="F804" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G804" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H804" s="14" t="s">
         <v>1572</v>
       </c>
-      <c r="H804" s="14" t="s">
-        <v>1573</v>
-      </c>
       <c r="I804" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J804" s="14"/>
@@ -32672,16 +32674,16 @@
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
       <c r="F805" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G805" s="13" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H805" s="14" t="s">
         <v>1574</v>
       </c>
-      <c r="H805" s="14" t="s">
-        <v>1575</v>
-      </c>
       <c r="I805" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J805" s="14"/>
@@ -32703,16 +32705,16 @@
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
       <c r="F806" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G806" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H806" s="14" t="s">
         <v>1576</v>
       </c>
-      <c r="H806" s="14" t="s">
-        <v>1577</v>
-      </c>
       <c r="I806" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J806" s="14"/>
@@ -32734,16 +32736,16 @@
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
       <c r="F807" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G807" s="13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H807" s="14" t="s">
         <v>1578</v>
       </c>
-      <c r="H807" s="14" t="s">
-        <v>1579</v>
-      </c>
       <c r="I807" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J807" s="14"/>
@@ -32765,16 +32767,16 @@
       <c r="D808" s="11"/>
       <c r="E808" s="11"/>
       <c r="F808" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G808" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H808" s="14" t="s">
         <v>1580</v>
       </c>
-      <c r="H808" s="14" t="s">
-        <v>1581</v>
-      </c>
       <c r="I808" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J808" s="14"/>
@@ -32796,16 +32798,16 @@
       <c r="D809" s="11"/>
       <c r="E809" s="11"/>
       <c r="F809" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G809" s="13" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H809" s="14" t="s">
         <v>1582</v>
       </c>
-      <c r="H809" s="14" t="s">
-        <v>1583</v>
-      </c>
       <c r="I809" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J809" s="14"/>
@@ -32827,16 +32829,16 @@
       <c r="D810" s="11"/>
       <c r="E810" s="11"/>
       <c r="F810" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G810" s="13" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H810" s="14" t="s">
         <v>1584</v>
       </c>
-      <c r="H810" s="14" t="s">
-        <v>1585</v>
-      </c>
       <c r="I810" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J810" s="14"/>
@@ -32858,16 +32860,16 @@
       <c r="D811" s="11"/>
       <c r="E811" s="11"/>
       <c r="F811" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G811" s="13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="H811" s="14" t="s">
         <v>1586</v>
       </c>
-      <c r="H811" s="14" t="s">
-        <v>1587</v>
-      </c>
       <c r="I811" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J811" s="14"/>
@@ -32889,16 +32891,16 @@
       <c r="D812" s="11"/>
       <c r="E812" s="11"/>
       <c r="F812" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G812" s="13" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H812" s="14" t="s">
         <v>1588</v>
       </c>
-      <c r="H812" s="14" t="s">
-        <v>1589</v>
-      </c>
       <c r="I812" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J812" s="14"/>
@@ -32920,16 +32922,16 @@
       <c r="D813" s="11"/>
       <c r="E813" s="11"/>
       <c r="F813" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G813" s="13" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H813" s="14" t="s">
         <v>1590</v>
       </c>
-      <c r="H813" s="14" t="s">
-        <v>1591</v>
-      </c>
       <c r="I813" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="J813" s="14"/>
@@ -32951,16 +32953,16 @@
       <c r="D814" s="11"/>
       <c r="E814" s="11"/>
       <c r="F814" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G814" s="13" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H814" s="14" t="s">
         <v>1592</v>
       </c>
-      <c r="H814" s="14" t="s">
-        <v>1593</v>
-      </c>
       <c r="I814" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J814" s="14"/>
@@ -32982,16 +32984,16 @@
       <c r="D815" s="11"/>
       <c r="E815" s="11"/>
       <c r="F815" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G815" s="13" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H815" s="14" t="s">
         <v>1594</v>
       </c>
-      <c r="H815" s="14" t="s">
-        <v>1595</v>
-      </c>
       <c r="I815" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J815" s="14"/>
@@ -33013,16 +33015,16 @@
       <c r="D816" s="11"/>
       <c r="E816" s="11"/>
       <c r="F816" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G816" s="13" t="s">
+        <v>1595</v>
+      </c>
+      <c r="H816" s="14" t="s">
         <v>1596</v>
       </c>
-      <c r="H816" s="14" t="s">
-        <v>1597</v>
-      </c>
       <c r="I816" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J816" s="14"/>
@@ -33044,16 +33046,16 @@
       <c r="D817" s="11"/>
       <c r="E817" s="11"/>
       <c r="F817" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G817" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H817" s="14" t="s">
         <v>1598</v>
       </c>
-      <c r="H817" s="14" t="s">
-        <v>1599</v>
-      </c>
       <c r="I817" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J817" s="14"/>
@@ -33075,16 +33077,16 @@
       <c r="D818" s="11"/>
       <c r="E818" s="11"/>
       <c r="F818" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G818" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H818" s="14" t="s">
         <v>1600</v>
       </c>
-      <c r="H818" s="14" t="s">
-        <v>1601</v>
-      </c>
       <c r="I818" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J818" s="14"/>
@@ -33106,16 +33108,16 @@
       <c r="D819" s="11"/>
       <c r="E819" s="11"/>
       <c r="F819" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G819" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H819" s="14" t="s">
         <v>1602</v>
       </c>
-      <c r="H819" s="14" t="s">
-        <v>1603</v>
-      </c>
       <c r="I819" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J819" s="14"/>
@@ -33137,16 +33139,16 @@
       <c r="D820" s="11"/>
       <c r="E820" s="11"/>
       <c r="F820" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G820" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H820" s="14" t="s">
         <v>1604</v>
       </c>
-      <c r="H820" s="14" t="s">
-        <v>1605</v>
-      </c>
       <c r="I820" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="J820" s="14"/>
@@ -33168,16 +33170,16 @@
       <c r="D821" s="11"/>
       <c r="E821" s="11"/>
       <c r="F821" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G821" s="13" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H821" s="14" t="s">
         <v>1606</v>
       </c>
-      <c r="H821" s="14" t="s">
-        <v>1607</v>
-      </c>
       <c r="I821" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J821" s="14"/>
@@ -33199,16 +33201,16 @@
       <c r="D822" s="11"/>
       <c r="E822" s="11"/>
       <c r="F822" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G822" s="13" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H822" s="14" t="s">
         <v>1608</v>
       </c>
-      <c r="H822" s="14" t="s">
-        <v>1609</v>
-      </c>
       <c r="I822" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="J822" s="14"/>
@@ -33230,16 +33232,16 @@
       <c r="D823" s="11"/>
       <c r="E823" s="11"/>
       <c r="F823" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G823" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H823" s="14" t="s">
         <v>1610</v>
       </c>
-      <c r="H823" s="14" t="s">
-        <v>1611</v>
-      </c>
       <c r="I823" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J823" s="14"/>
@@ -33261,16 +33263,16 @@
       <c r="D824" s="11"/>
       <c r="E824" s="11"/>
       <c r="F824" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G824" s="13" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H824" s="14" t="s">
         <v>1612</v>
       </c>
-      <c r="H824" s="14" t="s">
-        <v>1613</v>
-      </c>
       <c r="I824" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J824" s="14"/>
@@ -33292,16 +33294,16 @@
       <c r="D825" s="11"/>
       <c r="E825" s="11"/>
       <c r="F825" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G825" s="13" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H825" s="14" t="s">
         <v>1614</v>
       </c>
-      <c r="H825" s="14" t="s">
-        <v>1615</v>
-      </c>
       <c r="I825" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="J825" s="14"/>
@@ -33323,16 +33325,16 @@
       <c r="D826" s="11"/>
       <c r="E826" s="11"/>
       <c r="F826" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G826" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H826" s="14" t="s">
         <v>1616</v>
       </c>
-      <c r="H826" s="14" t="s">
-        <v>1617</v>
-      </c>
       <c r="I826" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J826" s="14"/>
@@ -33354,16 +33356,16 @@
       <c r="D827" s="11"/>
       <c r="E827" s="11"/>
       <c r="F827" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G827" s="13" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H827" s="14" t="s">
         <v>1618</v>
       </c>
-      <c r="H827" s="14" t="s">
-        <v>1619</v>
-      </c>
       <c r="I827" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J827" s="14"/>
@@ -33385,16 +33387,16 @@
       <c r="D828" s="11"/>
       <c r="E828" s="11"/>
       <c r="F828" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G828" s="13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H828" s="14" t="s">
         <v>1620</v>
       </c>
-      <c r="H828" s="14" t="s">
-        <v>1621</v>
-      </c>
       <c r="I828" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J828" s="14"/>
@@ -33416,16 +33418,16 @@
       <c r="D829" s="11"/>
       <c r="E829" s="11"/>
       <c r="F829" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G829" s="13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H829" s="14" t="s">
         <v>1622</v>
       </c>
-      <c r="H829" s="14" t="s">
-        <v>1623</v>
-      </c>
       <c r="I829" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J829" s="14"/>
@@ -33447,16 +33449,16 @@
       <c r="D830" s="11"/>
       <c r="E830" s="11"/>
       <c r="F830" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G830" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H830" s="14" t="s">
         <v>1624</v>
       </c>
-      <c r="H830" s="14" t="s">
-        <v>1625</v>
-      </c>
       <c r="I830" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="J830" s="14"/>
@@ -33478,16 +33480,16 @@
       <c r="D831" s="11"/>
       <c r="E831" s="11"/>
       <c r="F831" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G831" s="13" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H831" s="14" t="s">
         <v>1626</v>
       </c>
-      <c r="H831" s="14" t="s">
-        <v>1627</v>
-      </c>
       <c r="I831" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>41</v>
       </c>
       <c r="J831" s="14"/>
@@ -33509,16 +33511,16 @@
       <c r="D832" s="11"/>
       <c r="E832" s="11"/>
       <c r="F832" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G832" s="13" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H832" s="14" t="s">
         <v>1628</v>
       </c>
-      <c r="H832" s="14" t="s">
-        <v>1629</v>
-      </c>
       <c r="I832" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="J832" s="14"/>
@@ -33540,16 +33542,16 @@
       <c r="D833" s="11"/>
       <c r="E833" s="11"/>
       <c r="F833" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G833" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H833" s="14" t="s">
         <v>1630</v>
       </c>
-      <c r="H833" s="14" t="s">
-        <v>1631</v>
-      </c>
       <c r="I833" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J833" s="14"/>
@@ -33571,16 +33573,16 @@
       <c r="D834" s="11"/>
       <c r="E834" s="11"/>
       <c r="F834" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G834" s="13" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H834" s="14" t="s">
         <v>1632</v>
       </c>
-      <c r="H834" s="14" t="s">
-        <v>1633</v>
-      </c>
       <c r="I834" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J834" s="14"/>
@@ -33602,16 +33604,16 @@
       <c r="D835" s="11"/>
       <c r="E835" s="11"/>
       <c r="F835" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G835" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H835" s="14" t="s">
         <v>1634</v>
       </c>
-      <c r="H835" s="14" t="s">
-        <v>1635</v>
-      </c>
       <c r="I835" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J835" s="14"/>
@@ -33633,16 +33635,16 @@
       <c r="D836" s="11"/>
       <c r="E836" s="11"/>
       <c r="F836" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G836" s="13" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H836" s="14" t="s">
         <v>1636</v>
       </c>
-      <c r="H836" s="14" t="s">
-        <v>1637</v>
-      </c>
       <c r="I836" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J836" s="14"/>
@@ -33664,16 +33666,16 @@
       <c r="D837" s="11"/>
       <c r="E837" s="11"/>
       <c r="F837" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G837" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H837" s="14" t="s">
         <v>1638</v>
       </c>
-      <c r="H837" s="14" t="s">
-        <v>1639</v>
-      </c>
       <c r="I837" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J837" s="14"/>
@@ -33695,16 +33697,16 @@
       <c r="D838" s="11"/>
       <c r="E838" s="11"/>
       <c r="F838" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G838" s="13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H838" s="14" t="s">
         <v>1640</v>
       </c>
-      <c r="H838" s="14" t="s">
-        <v>1641</v>
-      </c>
       <c r="I838" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J838" s="14"/>
@@ -33726,16 +33728,16 @@
       <c r="D839" s="11"/>
       <c r="E839" s="11"/>
       <c r="F839" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G839" s="13" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H839" s="14" t="s">
         <v>1642</v>
       </c>
-      <c r="H839" s="14" t="s">
-        <v>1643</v>
-      </c>
       <c r="I839" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J839" s="14"/>
@@ -33757,16 +33759,16 @@
       <c r="D840" s="11"/>
       <c r="E840" s="11"/>
       <c r="F840" s="13" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="G840" s="13" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H840" s="14" t="s">
         <v>1644</v>
       </c>
-      <c r="H840" s="14" t="s">
-        <v>1645</v>
-      </c>
       <c r="I840" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="J840" s="14"/>
@@ -33784,16 +33786,16 @@
       <c r="D841" s="11"/>
       <c r="E841" s="11"/>
       <c r="F841" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G841" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="G841" s="13" t="s">
+      <c r="H841" s="14" t="s">
         <v>1647</v>
       </c>
-      <c r="H841" s="14" t="s">
-        <v>1648</v>
-      </c>
       <c r="I841" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="J841" s="14"/>
@@ -33811,16 +33813,16 @@
       <c r="D842" s="11"/>
       <c r="E842" s="11"/>
       <c r="F842" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G842" s="13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H842" s="14" t="s">
         <v>1649</v>
       </c>
-      <c r="H842" s="14" t="s">
-        <v>1650</v>
-      </c>
       <c r="I842" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="J842" s="14"/>
@@ -33838,16 +33840,16 @@
       <c r="D843" s="11"/>
       <c r="E843" s="11"/>
       <c r="F843" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G843" s="13" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H843" s="14" t="s">
         <v>970</v>
       </c>
       <c r="I843" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="J843" s="14"/>
@@ -33865,16 +33867,16 @@
       <c r="D844" s="11"/>
       <c r="E844" s="11"/>
       <c r="F844" s="13" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G844" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H844" s="14" t="s">
         <v>1652</v>
       </c>
-      <c r="H844" s="14" t="s">
-        <v>1653</v>
-      </c>
       <c r="I844" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="J844" s="14"/>
@@ -33894,14 +33896,14 @@
       <c r="D845" s="11"/>
       <c r="E845" s="11"/>
       <c r="F845" s="13" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G845" s="13"/>
       <c r="H845" s="14" t="s">
         <v>553</v>
       </c>
       <c r="I845" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J845" s="14"/>
@@ -33921,14 +33923,14 @@
       <c r="D846" s="11"/>
       <c r="E846" s="11"/>
       <c r="F846" s="13" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G846" s="13"/>
       <c r="H846" s="14" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="I846" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J846" s="14"/>
@@ -33950,16 +33952,16 @@
       </c>
       <c r="E847" s="11"/>
       <c r="F847" s="13" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G847" s="13" t="s">
         <v>1656</v>
       </c>
-      <c r="G847" s="13" t="s">
+      <c r="H847" s="14" t="s">
         <v>1657</v>
       </c>
-      <c r="H847" s="14" t="s">
-        <v>1658</v>
-      </c>
       <c r="I847" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="J847" s="14"/>
@@ -33981,16 +33983,16 @@
       </c>
       <c r="E848" s="11"/>
       <c r="F848" s="13" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G848" s="13" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H848" s="14" t="s">
         <v>1659</v>
       </c>
-      <c r="H848" s="14" t="s">
-        <v>1660</v>
-      </c>
       <c r="I848" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="J848" s="14"/>
@@ -34012,16 +34014,16 @@
       </c>
       <c r="E849" s="11"/>
       <c r="F849" s="13" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G849" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H849" s="14" t="s">
         <v>1661</v>
       </c>
-      <c r="H849" s="14" t="s">
-        <v>1662</v>
-      </c>
       <c r="I849" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>37</v>
       </c>
       <c r="J849" s="14"/>
@@ -34043,16 +34045,16 @@
       </c>
       <c r="E850" s="11"/>
       <c r="F850" s="13" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G850" s="13" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H850" s="14" t="s">
         <v>1663</v>
       </c>
-      <c r="H850" s="14" t="s">
-        <v>1664</v>
-      </c>
       <c r="I850" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36</v>
       </c>
       <c r="J850" s="14"/>
@@ -34070,16 +34072,16 @@
       <c r="D851" s="11"/>
       <c r="E851" s="11"/>
       <c r="F851" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G851" s="13" t="s">
         <v>1665</v>
       </c>
-      <c r="G851" s="13" t="s">
+      <c r="H851" s="14" t="s">
         <v>1666</v>
       </c>
-      <c r="H851" s="14" t="s">
-        <v>1667</v>
-      </c>
       <c r="I851" s="8">
-        <f>LEN(H851)</f>
+        <f t="shared" ref="I851:I872" si="24">LEN(H851)</f>
         <v>27</v>
       </c>
       <c r="J851" s="14"/>
@@ -34097,16 +34099,16 @@
       <c r="D852" s="11"/>
       <c r="E852" s="11"/>
       <c r="F852" s="13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G852" s="13" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H852" s="14" t="s">
         <v>1668</v>
       </c>
-      <c r="H852" s="14" t="s">
-        <v>1669</v>
-      </c>
       <c r="I852" s="8">
-        <f>LEN(H852)</f>
+        <f t="shared" si="24"/>
         <v>34</v>
       </c>
       <c r="J852" s="14"/>
@@ -34124,16 +34126,16 @@
       <c r="D853" s="11"/>
       <c r="E853" s="11"/>
       <c r="F853" s="13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G853" s="13" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H853" s="14" t="s">
         <v>1670</v>
       </c>
-      <c r="H853" s="14" t="s">
-        <v>1671</v>
-      </c>
       <c r="I853" s="8">
-        <f>LEN(H853)</f>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="J853" s="14"/>
@@ -34151,16 +34153,16 @@
       <c r="D854" s="11"/>
       <c r="E854" s="11"/>
       <c r="F854" s="13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="G854" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H854" s="14" t="s">
         <v>1672</v>
       </c>
-      <c r="H854" s="14" t="s">
-        <v>1673</v>
-      </c>
       <c r="I854" s="8">
-        <f>LEN(H854)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="J854" s="14"/>
@@ -34178,16 +34180,16 @@
       <c r="D855" s="11"/>
       <c r="E855" s="11"/>
       <c r="F855" s="13" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G855" s="13" t="s">
         <v>1674</v>
       </c>
-      <c r="G855" s="13" t="s">
+      <c r="H855" s="14" t="s">
         <v>1675</v>
       </c>
-      <c r="H855" s="14" t="s">
-        <v>1676</v>
-      </c>
       <c r="I855" s="8">
-        <f>LEN(H855)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="J855" s="14"/>
@@ -34205,16 +34207,16 @@
       <c r="D856" s="11"/>
       <c r="E856" s="11"/>
       <c r="F856" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G856" s="13" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H856" s="14" t="s">
         <v>1677</v>
       </c>
-      <c r="H856" s="14" t="s">
-        <v>1678</v>
-      </c>
       <c r="I856" s="8">
-        <f>LEN(H856)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="J856" s="14"/>
@@ -34232,16 +34234,16 @@
       <c r="D857" s="11"/>
       <c r="E857" s="11"/>
       <c r="F857" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G857" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H857" s="14" t="s">
         <v>1679</v>
       </c>
-      <c r="H857" s="14" t="s">
-        <v>1680</v>
-      </c>
       <c r="I857" s="8">
-        <f>LEN(H857)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="J857" s="14"/>
@@ -34259,16 +34261,16 @@
       <c r="D858" s="11"/>
       <c r="E858" s="11"/>
       <c r="F858" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G858" s="13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H858" s="14" t="s">
         <v>1681</v>
       </c>
-      <c r="H858" s="14" t="s">
-        <v>1682</v>
-      </c>
       <c r="I858" s="8">
-        <f>LEN(H858)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="J858" s="14"/>
@@ -34286,16 +34288,16 @@
       <c r="D859" s="11"/>
       <c r="E859" s="11"/>
       <c r="F859" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G859" s="13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H859" s="14" t="s">
         <v>1683</v>
       </c>
-      <c r="H859" s="14" t="s">
-        <v>1684</v>
-      </c>
       <c r="I859" s="8">
-        <f>LEN(H859)</f>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="J859" s="14"/>
@@ -34313,16 +34315,16 @@
       <c r="D860" s="11"/>
       <c r="E860" s="11"/>
       <c r="F860" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G860" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H860" s="14" t="s">
         <v>1685</v>
       </c>
-      <c r="H860" s="14" t="s">
-        <v>1686</v>
-      </c>
       <c r="I860" s="8">
-        <f>LEN(H860)</f>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="J860" s="14"/>
@@ -34340,16 +34342,16 @@
       <c r="D861" s="11"/>
       <c r="E861" s="11"/>
       <c r="F861" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G861" s="13" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H861" s="14" t="s">
         <v>1687</v>
       </c>
-      <c r="H861" s="14" t="s">
-        <v>1688</v>
-      </c>
       <c r="I861" s="8">
-        <f>LEN(H861)</f>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="J861" s="14"/>
@@ -34367,16 +34369,16 @@
       <c r="D862" s="11"/>
       <c r="E862" s="11"/>
       <c r="F862" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G862" s="13" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H862" s="14" t="s">
         <v>1689</v>
       </c>
-      <c r="H862" s="14" t="s">
-        <v>1690</v>
-      </c>
       <c r="I862" s="8">
-        <f>LEN(H862)</f>
+        <f t="shared" si="24"/>
         <v>32</v>
       </c>
       <c r="J862" s="14"/>
@@ -34394,16 +34396,16 @@
       <c r="D863" s="11"/>
       <c r="E863" s="11"/>
       <c r="F863" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G863" s="13" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H863" s="14" t="s">
         <v>1691</v>
       </c>
-      <c r="H863" s="14" t="s">
-        <v>1692</v>
-      </c>
       <c r="I863" s="8">
-        <f>LEN(H863)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J863" s="14"/>
@@ -34421,16 +34423,16 @@
       <c r="D864" s="11"/>
       <c r="E864" s="11"/>
       <c r="F864" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G864" s="13" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H864" s="14" t="s">
         <v>1693</v>
       </c>
-      <c r="H864" s="14" t="s">
-        <v>1694</v>
-      </c>
       <c r="I864" s="8">
-        <f>LEN(H864)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J864" s="14"/>
@@ -34450,7 +34452,7 @@
       <c r="D865" s="11"/>
       <c r="E865" s="11"/>
       <c r="F865" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G865" s="13" t="s">
         <v>19</v>
@@ -34459,7 +34461,7 @@
         <v>20</v>
       </c>
       <c r="I865" s="8">
-        <f>LEN(H865)</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="J865" s="14">
@@ -34483,7 +34485,7 @@
       <c r="D866" s="11"/>
       <c r="E866" s="11"/>
       <c r="F866" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G866" s="13" t="s">
         <v>23</v>
@@ -34492,7 +34494,7 @@
         <v>24</v>
       </c>
       <c r="I866" s="8">
-        <f>LEN(H866)</f>
+        <f t="shared" si="24"/>
         <v>29</v>
       </c>
       <c r="J866" s="14">
@@ -34514,16 +34516,16 @@
       <c r="D867" s="11"/>
       <c r="E867" s="11"/>
       <c r="F867" s="13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G867" s="13" t="s">
         <v>1695</v>
-      </c>
-      <c r="G867" s="13" t="s">
-        <v>1696</v>
       </c>
       <c r="H867" s="14" t="s">
         <v>27</v>
       </c>
       <c r="I867" s="8">
-        <f>LEN(H867)</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="J867" s="14">
@@ -34545,7 +34547,7 @@
       <c r="D868" s="11"/>
       <c r="E868" s="11"/>
       <c r="F868" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G868" s="13" t="s">
         <v>29</v>
@@ -34554,7 +34556,7 @@
         <v>30</v>
       </c>
       <c r="I868" s="8">
-        <f>LEN(H868)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J868" s="14">
@@ -34576,7 +34578,7 @@
       <c r="D869" s="11"/>
       <c r="E869" s="11"/>
       <c r="F869" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G869" s="13" t="s">
         <v>32</v>
@@ -34585,7 +34587,7 @@
         <v>33</v>
       </c>
       <c r="I869" s="8">
-        <f>LEN(H869)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J869" s="14">
@@ -34607,16 +34609,16 @@
       <c r="D870" s="11"/>
       <c r="E870" s="11"/>
       <c r="F870" s="13" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G870" s="13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H870" s="14" t="s">
         <v>1697</v>
       </c>
-      <c r="H870" s="14" t="s">
-        <v>1698</v>
-      </c>
       <c r="I870" s="8">
-        <f>LEN(H870)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="J870" s="14">
@@ -34642,16 +34644,16 @@
       <c r="D871" s="11"/>
       <c r="E871" s="11"/>
       <c r="F871" s="13" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G871" s="13" t="s">
         <v>1699</v>
       </c>
-      <c r="G871" s="13" t="s">
+      <c r="H871" s="14" t="s">
         <v>1700</v>
       </c>
-      <c r="H871" s="14" t="s">
-        <v>1701</v>
-      </c>
       <c r="I871" s="8">
-        <f>LEN(H871)</f>
+        <f t="shared" si="24"/>
         <v>27</v>
       </c>
       <c r="J871" s="14"/>
@@ -34673,16 +34675,16 @@
       <c r="D872" s="11"/>
       <c r="E872" s="11"/>
       <c r="F872" s="13" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="G872" s="13" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H872" s="14" t="s">
         <v>55</v>
       </c>
       <c r="I872" s="8">
-        <f>LEN(H872)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="J872" s="14"/>
@@ -34706,16 +34708,16 @@
       </c>
       <c r="E873" s="11"/>
       <c r="F873" s="13" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G873" s="13" t="s">
         <v>1703</v>
       </c>
-      <c r="G873" s="13" t="s">
+      <c r="H873" s="14" t="s">
         <v>1704</v>
       </c>
-      <c r="H873" s="14" t="s">
-        <v>1705</v>
-      </c>
       <c r="I873" s="8">
-        <f t="shared" ref="I873:I911" si="23">LEN(H873)</f>
+        <f t="shared" ref="I873:I911" si="25">LEN(H873)</f>
         <v>20</v>
       </c>
       <c r="J873" s="14"/>
@@ -34735,20 +34737,20 @@
         <v>31</v>
       </c>
       <c r="D874" s="11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E874" s="11"/>
       <c r="F874" s="13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G874" s="13" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H874" s="14" t="s">
         <v>1707</v>
       </c>
-      <c r="H874" s="14" t="s">
-        <v>1708</v>
-      </c>
       <c r="I874" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="J874" s="14"/>
@@ -34772,16 +34774,16 @@
       </c>
       <c r="E875" s="11"/>
       <c r="F875" s="13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G875" s="13" t="s">
+        <v>1708</v>
+      </c>
+      <c r="H875" s="14" t="s">
         <v>1709</v>
       </c>
-      <c r="H875" s="14" t="s">
-        <v>1710</v>
-      </c>
       <c r="I875" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="J875" s="14"/>
@@ -34805,16 +34807,16 @@
       </c>
       <c r="E876" s="11"/>
       <c r="F876" s="13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G876" s="13" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H876" s="14" t="s">
         <v>1711</v>
       </c>
-      <c r="H876" s="14" t="s">
-        <v>1712</v>
-      </c>
       <c r="I876" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="J876" s="14"/>
@@ -34838,16 +34840,16 @@
       </c>
       <c r="E877" s="11"/>
       <c r="F877" s="13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="G877" s="13" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H877" s="14" t="s">
         <v>1713</v>
       </c>
-      <c r="H877" s="14" t="s">
-        <v>1714</v>
-      </c>
       <c r="I877" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>53</v>
       </c>
       <c r="J877" s="14"/>
@@ -34871,16 +34873,16 @@
       </c>
       <c r="E878" s="11"/>
       <c r="F878" s="13" t="s">
+        <v>1714</v>
+      </c>
+      <c r="G878" s="13" t="s">
         <v>1715</v>
       </c>
-      <c r="G878" s="13" t="s">
+      <c r="H878" s="14" t="s">
         <v>1716</v>
       </c>
-      <c r="H878" s="14" t="s">
-        <v>1717</v>
-      </c>
       <c r="I878" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="J878" s="14"/>
@@ -34904,16 +34906,16 @@
       </c>
       <c r="E879" s="11"/>
       <c r="F879" s="13" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G879" s="13" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H879" s="14" t="s">
         <v>1718</v>
       </c>
-      <c r="H879" s="14" t="s">
-        <v>1719</v>
-      </c>
       <c r="I879" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="J879" s="14"/>
@@ -34933,16 +34935,16 @@
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
       <c r="F880" s="13" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G880" s="13" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H880" s="14" t="s">
         <v>1720</v>
       </c>
-      <c r="H880" s="14" t="s">
-        <v>1721</v>
-      </c>
       <c r="I880" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="J880" s="14"/>
@@ -34962,16 +34964,16 @@
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
       <c r="F881" s="13" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G881" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H881" s="14" t="s">
         <v>1722</v>
       </c>
-      <c r="H881" s="14" t="s">
-        <v>1723</v>
-      </c>
       <c r="I881" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="J881" s="14"/>
@@ -34993,16 +34995,16 @@
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
       <c r="F882" s="13" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G882" s="13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H882" s="14" t="s">
         <v>1724</v>
       </c>
-      <c r="H882" s="14" t="s">
-        <v>1725</v>
-      </c>
       <c r="I882" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="J882" s="14"/>
@@ -35024,16 +35026,16 @@
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
       <c r="F883" s="13" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G883" s="13" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H883" s="14" t="s">
         <v>1726</v>
       </c>
-      <c r="H883" s="14" t="s">
-        <v>1727</v>
-      </c>
       <c r="I883" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="J883" s="14"/>
@@ -35053,14 +35055,14 @@
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
       <c r="F884" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G884" s="13"/>
       <c r="H884" s="14" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="I884" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>27</v>
       </c>
       <c r="J884" s="14"/>
@@ -35080,14 +35082,14 @@
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
       <c r="F885" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G885" s="13"/>
       <c r="H885" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I885" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>29</v>
       </c>
       <c r="J885" s="14"/>
@@ -35105,14 +35107,14 @@
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
       <c r="F886" s="13" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G886" s="13"/>
       <c r="H886" s="14" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I886" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="J886" s="14"/>
@@ -35130,14 +35132,14 @@
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
       <c r="F887" s="13" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G887" s="13"/>
       <c r="H887" s="14" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I887" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="J887" s="14"/>
@@ -35157,14 +35159,14 @@
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
       <c r="F888" s="13" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="G888" s="13"/>
       <c r="H888" s="14" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I888" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>37</v>
       </c>
       <c r="J888" s="14"/>
@@ -35184,16 +35186,16 @@
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
       <c r="F889" s="13" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G889" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="G889" s="13" t="s">
+      <c r="H889" s="14" t="s">
         <v>1735</v>
       </c>
-      <c r="H889" s="14" t="s">
-        <v>1736</v>
-      </c>
       <c r="I889" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="J889" s="14"/>
@@ -35211,16 +35213,16 @@
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
       <c r="F890" s="13" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="G890" s="13" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H890" s="14" t="s">
         <v>1737</v>
       </c>
-      <c r="H890" s="14" t="s">
-        <v>1738</v>
-      </c>
       <c r="I890" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
       <c r="J890" s="14"/>
@@ -35240,14 +35242,14 @@
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
       <c r="F891" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G891" s="13"/>
       <c r="H891" s="14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I891" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="J891" s="14"/>
@@ -35267,14 +35269,14 @@
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
       <c r="F892" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G892" s="13"/>
       <c r="H892" s="14" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I892" s="8">
-        <f t="shared" ref="I892:I955" si="24">LEN(H892)</f>
+        <f t="shared" ref="I892:I955" si="26">LEN(H892)</f>
         <v>25</v>
       </c>
       <c r="J892" s="14"/>
@@ -35294,14 +35296,14 @@
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
       <c r="F893" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="G893" s="13"/>
       <c r="H893" s="14" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="I893" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J893" s="14"/>
@@ -35325,16 +35327,16 @@
       </c>
       <c r="E894" s="11"/>
       <c r="F894" s="13" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G894" s="13" t="s">
         <v>1743</v>
       </c>
-      <c r="G894" s="13" t="s">
+      <c r="H894" s="14" t="s">
         <v>1744</v>
       </c>
-      <c r="H894" s="14" t="s">
-        <v>1745</v>
-      </c>
       <c r="I894" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="J894" s="14"/>
@@ -35358,16 +35360,16 @@
       </c>
       <c r="E895" s="11"/>
       <c r="F895" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G895" s="13" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H895" s="14" t="s">
         <v>1746</v>
       </c>
-      <c r="H895" s="14" t="s">
-        <v>1747</v>
-      </c>
       <c r="I895" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J895" s="14"/>
@@ -35391,16 +35393,16 @@
       </c>
       <c r="E896" s="11"/>
       <c r="F896" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G896" s="13" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H896" s="14" t="s">
         <v>1748</v>
       </c>
-      <c r="H896" s="14" t="s">
-        <v>1749</v>
-      </c>
       <c r="I896" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="J896" s="14"/>
@@ -35424,16 +35426,16 @@
       </c>
       <c r="E897" s="11"/>
       <c r="F897" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G897" s="13" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H897" s="14" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I897" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="J897" s="14"/>
@@ -35457,16 +35459,16 @@
       </c>
       <c r="E898" s="11"/>
       <c r="F898" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G898" s="13" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H898" s="14" t="s">
         <v>1751</v>
       </c>
-      <c r="H898" s="14" t="s">
-        <v>1752</v>
-      </c>
       <c r="I898" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="J898" s="14"/>
@@ -35490,16 +35492,16 @@
       </c>
       <c r="E899" s="11"/>
       <c r="F899" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G899" s="13" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H899" s="14" t="s">
         <v>1753</v>
       </c>
-      <c r="H899" s="14" t="s">
-        <v>1754</v>
-      </c>
       <c r="I899" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="J899" s="14"/>
@@ -35521,16 +35523,16 @@
       </c>
       <c r="E900" s="11"/>
       <c r="F900" s="13" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G900" s="13" t="s">
         <v>1755</v>
       </c>
-      <c r="G900" s="13" t="s">
+      <c r="H900" s="14" t="s">
         <v>1756</v>
       </c>
-      <c r="H900" s="14" t="s">
-        <v>1757</v>
-      </c>
       <c r="I900" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="J900" s="14"/>
@@ -35552,16 +35554,16 @@
       </c>
       <c r="E901" s="11"/>
       <c r="F901" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G901" s="13" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H901" s="14" t="s">
         <v>1758</v>
       </c>
-      <c r="H901" s="14" t="s">
-        <v>1759</v>
-      </c>
       <c r="I901" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="J901" s="14"/>
@@ -35583,16 +35585,16 @@
       </c>
       <c r="E902" s="11"/>
       <c r="F902" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G902" s="13" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H902" s="14" t="s">
         <v>1760</v>
       </c>
-      <c r="H902" s="14" t="s">
-        <v>1761</v>
-      </c>
       <c r="I902" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J902" s="14"/>
@@ -35614,16 +35616,16 @@
       </c>
       <c r="E903" s="11"/>
       <c r="F903" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G903" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H903" s="14" t="s">
         <v>1762</v>
       </c>
-      <c r="H903" s="14" t="s">
-        <v>1763</v>
-      </c>
       <c r="I903" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J903" s="14"/>
@@ -35645,16 +35647,16 @@
       </c>
       <c r="E904" s="11"/>
       <c r="F904" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G904" s="13" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H904" s="14" t="s">
         <v>1764</v>
       </c>
-      <c r="H904" s="14" t="s">
-        <v>1765</v>
-      </c>
       <c r="I904" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J904" s="14"/>
@@ -35676,16 +35678,16 @@
       </c>
       <c r="E905" s="11"/>
       <c r="F905" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G905" s="13" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H905" s="14" t="s">
         <v>1766</v>
       </c>
-      <c r="H905" s="14" t="s">
-        <v>1767</v>
-      </c>
       <c r="I905" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="J905" s="14"/>
@@ -35707,16 +35709,16 @@
       </c>
       <c r="E906" s="11"/>
       <c r="F906" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G906" s="13" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H906" s="14" t="s">
         <v>1768</v>
       </c>
-      <c r="H906" s="14" t="s">
-        <v>1769</v>
-      </c>
       <c r="I906" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J906" s="14"/>
@@ -35738,16 +35740,16 @@
       </c>
       <c r="E907" s="11"/>
       <c r="F907" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G907" s="13" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H907" s="14" t="s">
         <v>1770</v>
       </c>
-      <c r="H907" s="14" t="s">
-        <v>1771</v>
-      </c>
       <c r="I907" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J907" s="14"/>
@@ -35767,16 +35769,16 @@
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
       <c r="F908" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G908" s="13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H908" s="14" t="s">
         <v>1772</v>
       </c>
-      <c r="H908" s="14" t="s">
-        <v>1773</v>
-      </c>
       <c r="I908" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="J908" s="14"/>
@@ -35796,16 +35798,16 @@
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
       <c r="F909" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G909" s="13" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H909" s="14" t="s">
         <v>1774</v>
       </c>
-      <c r="H909" s="14" t="s">
-        <v>1775</v>
-      </c>
       <c r="I909" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="J909" s="14"/>
@@ -35825,16 +35827,16 @@
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
       <c r="F910" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G910" s="13" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H910" s="14" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="I910" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J910" s="14"/>
@@ -35854,16 +35856,16 @@
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
       <c r="F911" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G911" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H911" s="14" t="s">
         <v>1777</v>
       </c>
-      <c r="H911" s="14" t="s">
-        <v>1778</v>
-      </c>
       <c r="I911" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>42</v>
       </c>
       <c r="J911" s="14"/>
@@ -35883,16 +35885,16 @@
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
       <c r="F912" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G912" s="13" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H912" s="14" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="I912" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J912" s="14"/>
@@ -35912,16 +35914,16 @@
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
       <c r="F913" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G913" s="13" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H913" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="H913" s="14" t="s">
-        <v>1781</v>
-      </c>
       <c r="I913" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>45</v>
       </c>
       <c r="J913" s="14"/>
@@ -35941,16 +35943,16 @@
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
       <c r="F914" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G914" s="13" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H914" s="14" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I914" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J914" s="14"/>
@@ -35970,16 +35972,16 @@
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
       <c r="F915" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="G915" s="13" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H915" s="14" t="s">
         <v>1783</v>
       </c>
-      <c r="H915" s="14" t="s">
-        <v>1784</v>
-      </c>
       <c r="I915" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>37</v>
       </c>
       <c r="J915" s="14"/>
@@ -35999,16 +36001,16 @@
       </c>
       <c r="E916" s="11"/>
       <c r="F916" s="13" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G916" s="13" t="s">
         <v>1785</v>
       </c>
-      <c r="G916" s="13" t="s">
+      <c r="H916" s="14" t="s">
         <v>1786</v>
       </c>
-      <c r="H916" s="14" t="s">
-        <v>1787</v>
-      </c>
       <c r="I916" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="J916" s="14">
@@ -36032,16 +36034,16 @@
       </c>
       <c r="E917" s="11"/>
       <c r="F917" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G917" s="13" t="s">
         <v>941</v>
       </c>
       <c r="H917" s="14" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="I917" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J917" s="14">
@@ -36063,16 +36065,16 @@
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
       <c r="F918" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G918" s="13" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H918" s="14" t="s">
         <v>1789</v>
       </c>
-      <c r="H918" s="14" t="s">
-        <v>1790</v>
-      </c>
       <c r="I918" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J918" s="14">
@@ -36094,16 +36096,16 @@
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
       <c r="F919" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G919" s="13" t="s">
         <v>937</v>
       </c>
       <c r="H919" s="14" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="I919" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J919" s="14">
@@ -36127,16 +36129,16 @@
       </c>
       <c r="E920" s="11"/>
       <c r="F920" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G920" s="13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H920" s="14" t="s">
         <v>1792</v>
       </c>
-      <c r="H920" s="14" t="s">
-        <v>1793</v>
-      </c>
       <c r="I920" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J920" s="14">
@@ -36160,16 +36162,16 @@
       </c>
       <c r="E921" s="11"/>
       <c r="F921" s="13" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="G921" s="13" t="s">
         <v>953</v>
       </c>
       <c r="H921" s="14" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="I921" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J921" s="14">
@@ -36197,14 +36199,14 @@
       </c>
       <c r="E922" s="11"/>
       <c r="F922" s="13" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G922" s="13"/>
       <c r="H922" s="14" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="I922" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="J922" s="14"/>
@@ -36228,14 +36230,14 @@
       </c>
       <c r="E923" s="11"/>
       <c r="F923" s="13" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G923" s="13"/>
       <c r="H923" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I923" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J923" s="14"/>
@@ -36259,16 +36261,16 @@
       </c>
       <c r="E924" s="11"/>
       <c r="F924" s="13" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G924" s="13" t="s">
         <v>1797</v>
       </c>
-      <c r="G924" s="13" t="s">
+      <c r="H924" s="14" t="s">
         <v>1798</v>
       </c>
-      <c r="H924" s="14" t="s">
-        <v>1799</v>
-      </c>
       <c r="I924" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="J924" s="14"/>
@@ -36292,16 +36294,16 @@
       </c>
       <c r="E925" s="11"/>
       <c r="F925" s="13" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G925" s="13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H925" s="14" t="s">
         <v>1800</v>
       </c>
-      <c r="H925" s="14" t="s">
-        <v>1801</v>
-      </c>
       <c r="I925" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="J925" s="14"/>
@@ -36325,16 +36327,16 @@
       </c>
       <c r="E926" s="11"/>
       <c r="F926" s="13" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G926" s="13" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H926" s="14" t="s">
         <v>1802</v>
       </c>
-      <c r="H926" s="14" t="s">
-        <v>1803</v>
-      </c>
       <c r="I926" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="J926" s="14"/>
@@ -36358,16 +36360,16 @@
       </c>
       <c r="E927" s="11"/>
       <c r="F927" s="13" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G927" s="13" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H927" s="14" t="s">
         <v>1804</v>
       </c>
-      <c r="H927" s="14" t="s">
-        <v>1805</v>
-      </c>
       <c r="I927" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="J927" s="14"/>
@@ -36389,16 +36391,16 @@
       </c>
       <c r="E928" s="11"/>
       <c r="F928" s="13" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G928" s="13" t="s">
         <v>1806</v>
       </c>
-      <c r="G928" s="13" t="s">
+      <c r="H928" s="14" t="s">
         <v>1807</v>
       </c>
-      <c r="H928" s="14" t="s">
-        <v>1808</v>
-      </c>
       <c r="I928" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="J928" s="14"/>
@@ -36420,16 +36422,16 @@
       </c>
       <c r="E929" s="11"/>
       <c r="F929" s="13" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G929" s="13" t="s">
         <v>343</v>
       </c>
       <c r="H929" s="14" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I929" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J929" s="14"/>
@@ -36451,14 +36453,14 @@
       </c>
       <c r="E930" s="11"/>
       <c r="F930" s="13" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G930" s="13"/>
       <c r="H930" s="14" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="I930" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="J930" s="14"/>
@@ -36480,14 +36482,14 @@
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
       <c r="F931" s="13" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G931" s="13"/>
       <c r="H931" s="14" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="I931" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="J931" s="14"/>
@@ -36509,14 +36511,14 @@
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
       <c r="F932" s="13" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G932" s="13"/>
       <c r="H932" s="14" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="I932" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="J932" s="14"/>
@@ -36534,14 +36536,14 @@
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
       <c r="F933" s="13" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G933" s="13"/>
       <c r="H933" s="14" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="I933" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="J933" s="14"/>
@@ -36559,14 +36561,14 @@
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
       <c r="F934" s="13" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G934" s="13"/>
       <c r="H934" s="14" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I934" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="J934" s="14"/>
@@ -36588,16 +36590,16 @@
       </c>
       <c r="E935" s="11"/>
       <c r="F935" s="13" t="s">
+        <v>1816</v>
+      </c>
+      <c r="G935" s="13" t="s">
         <v>1817</v>
       </c>
-      <c r="G935" s="13" t="s">
+      <c r="H935" s="14" t="s">
         <v>1818</v>
       </c>
-      <c r="H935" s="14" t="s">
-        <v>1819</v>
-      </c>
       <c r="I935" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
       <c r="J935" s="14">
@@ -36623,16 +36625,16 @@
       </c>
       <c r="E936" s="11"/>
       <c r="F936" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G936" s="13" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H936" s="14" t="s">
         <v>1820</v>
       </c>
-      <c r="H936" s="14" t="s">
-        <v>1821</v>
-      </c>
       <c r="I936" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>29</v>
       </c>
       <c r="J936" s="14">
@@ -36658,16 +36660,16 @@
       </c>
       <c r="E937" s="11"/>
       <c r="F937" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G937" s="13" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H937" s="14" t="s">
         <v>1822</v>
       </c>
-      <c r="H937" s="14" t="s">
-        <v>1823</v>
-      </c>
       <c r="I937" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="J937" s="14">
@@ -36693,16 +36695,16 @@
       </c>
       <c r="E938" s="11"/>
       <c r="F938" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G938" s="13" t="s">
+        <v>1823</v>
+      </c>
+      <c r="H938" s="14" t="s">
         <v>1824</v>
       </c>
-      <c r="H938" s="14" t="s">
-        <v>1825</v>
-      </c>
       <c r="I938" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="J938" s="14">
@@ -36728,16 +36730,16 @@
       </c>
       <c r="E939" s="11"/>
       <c r="F939" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G939" s="13" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H939" s="14" t="s">
         <v>1826</v>
       </c>
-      <c r="H939" s="14" t="s">
-        <v>1827</v>
-      </c>
       <c r="I939" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="J939" s="14">
@@ -36763,16 +36765,16 @@
       </c>
       <c r="E940" s="11"/>
       <c r="F940" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G940" s="13" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H940" s="14" t="s">
         <v>1828</v>
       </c>
-      <c r="H940" s="14" t="s">
-        <v>1829</v>
-      </c>
       <c r="I940" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="J940" s="14">
@@ -36798,16 +36800,16 @@
       </c>
       <c r="E941" s="11"/>
       <c r="F941" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G941" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H941" s="14" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="I941" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="J941" s="14">
@@ -36833,16 +36835,16 @@
       </c>
       <c r="E942" s="11"/>
       <c r="F942" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G942" s="13" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H942" s="14" t="s">
         <v>1831</v>
       </c>
-      <c r="H942" s="14" t="s">
-        <v>1832</v>
-      </c>
       <c r="I942" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="J942" s="14">
@@ -36868,16 +36870,16 @@
       </c>
       <c r="E943" s="11"/>
       <c r="F943" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G943" s="13" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H943" s="14" t="s">
         <v>1833</v>
       </c>
-      <c r="H943" s="14" t="s">
-        <v>1834</v>
-      </c>
       <c r="I943" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="J943" s="14">
@@ -36903,16 +36905,16 @@
       </c>
       <c r="E944" s="11"/>
       <c r="F944" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G944" s="13" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H944" s="14" t="s">
         <v>1835</v>
       </c>
-      <c r="H944" s="14" t="s">
-        <v>1836</v>
-      </c>
       <c r="I944" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="J944" s="14">
@@ -36940,7 +36942,7 @@
       </c>
       <c r="E945" s="11"/>
       <c r="F945" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G945" s="13" t="s">
         <v>19</v>
@@ -36949,7 +36951,7 @@
         <v>20</v>
       </c>
       <c r="I945" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="J945" s="14">
@@ -36977,7 +36979,7 @@
       </c>
       <c r="E946" s="11"/>
       <c r="F946" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G946" s="13" t="s">
         <v>23</v>
@@ -36986,7 +36988,7 @@
         <v>24</v>
       </c>
       <c r="I946" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>29</v>
       </c>
       <c r="J946" s="14">
@@ -37014,7 +37016,7 @@
       </c>
       <c r="E947" s="11"/>
       <c r="F947" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G947" s="13" t="s">
         <v>26</v>
@@ -37023,7 +37025,7 @@
         <v>27</v>
       </c>
       <c r="I947" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="J947" s="14">
@@ -37051,7 +37053,7 @@
       </c>
       <c r="E948" s="11"/>
       <c r="F948" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G948" s="13" t="s">
         <v>29</v>
@@ -37060,7 +37062,7 @@
         <v>30</v>
       </c>
       <c r="I948" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J948" s="14">
@@ -37088,7 +37090,7 @@
       </c>
       <c r="E949" s="11"/>
       <c r="F949" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G949" s="13" t="s">
         <v>32</v>
@@ -37097,7 +37099,7 @@
         <v>33</v>
       </c>
       <c r="I949" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J949" s="14">
@@ -37125,7 +37127,7 @@
       </c>
       <c r="E950" s="11"/>
       <c r="F950" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G950" s="13" t="s">
         <v>35</v>
@@ -37134,7 +37136,7 @@
         <v>36</v>
       </c>
       <c r="I950" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J950" s="14">
@@ -37158,16 +37160,16 @@
       </c>
       <c r="E951" s="11"/>
       <c r="F951" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G951" s="13" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H951" s="14" t="s">
         <v>1837</v>
       </c>
-      <c r="H951" s="14" t="s">
-        <v>1838</v>
-      </c>
       <c r="I951" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="J951" s="14">
@@ -37193,16 +37195,16 @@
       </c>
       <c r="E952" s="11"/>
       <c r="F952" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G952" s="13" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H952" s="14" t="s">
         <v>1839</v>
       </c>
-      <c r="H952" s="14" t="s">
-        <v>1840</v>
-      </c>
       <c r="I952" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J952" s="14">
@@ -37228,16 +37230,16 @@
       </c>
       <c r="E953" s="11"/>
       <c r="F953" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G953" s="13" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H953" s="14" t="s">
         <v>1841</v>
       </c>
-      <c r="H953" s="14" t="s">
-        <v>1842</v>
-      </c>
       <c r="I953" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J953" s="14">
@@ -37263,16 +37265,16 @@
       </c>
       <c r="E954" s="11"/>
       <c r="F954" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G954" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H954" s="14" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="I954" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J954" s="14">
@@ -37298,16 +37300,16 @@
       </c>
       <c r="E955" s="11"/>
       <c r="F955" s="13" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G955" s="13" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H955" s="14" t="s">
         <v>1841</v>
       </c>
-      <c r="H955" s="14" t="s">
-        <v>1842</v>
-      </c>
       <c r="I955" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="J955" s="14">
@@ -37333,16 +37335,16 @@
       </c>
       <c r="E956" s="11"/>
       <c r="F956" s="13" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G956" s="13" t="s">
         <v>1844</v>
       </c>
-      <c r="G956" s="13" t="s">
+      <c r="H956" s="14" t="s">
         <v>1845</v>
       </c>
-      <c r="H956" s="14" t="s">
-        <v>1846</v>
-      </c>
       <c r="I956" s="8">
-        <f t="shared" ref="I956:I972" si="25">LEN(H956)</f>
+        <f t="shared" ref="I956:I972" si="27">LEN(H956)</f>
         <v>25</v>
       </c>
       <c r="J956" s="14"/>
@@ -37364,16 +37366,16 @@
       </c>
       <c r="E957" s="11"/>
       <c r="F957" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G957" s="13" t="s">
+        <v>1846</v>
+      </c>
+      <c r="H957" s="14" t="s">
         <v>1847</v>
       </c>
-      <c r="H957" s="14" t="s">
-        <v>1848</v>
-      </c>
       <c r="I957" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="J957" s="14"/>
@@ -37388,19 +37390,19 @@
       </c>
       <c r="B958" s="11"/>
       <c r="C958" s="11" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D958" s="11"/>
       <c r="E958" s="11"/>
       <c r="F958" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G958" s="13"/>
       <c r="H958" s="14" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="I958" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>27</v>
       </c>
       <c r="J958" s="14"/>
@@ -37415,19 +37417,19 @@
       </c>
       <c r="B959" s="11"/>
       <c r="C959" s="11" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D959" s="11"/>
       <c r="E959" s="11"/>
       <c r="F959" s="13" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="G959" s="13"/>
       <c r="H959" s="14" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="I959" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>27</v>
       </c>
       <c r="J959" s="14"/>
@@ -37447,14 +37449,14 @@
       <c r="D960" s="11"/>
       <c r="E960" s="11"/>
       <c r="F960" s="13" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G960" s="13"/>
       <c r="H960" s="14" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I960" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="J960" s="14">
@@ -37478,14 +37480,14 @@
       <c r="D961" s="11"/>
       <c r="E961" s="11"/>
       <c r="F961" s="13" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="G961" s="13"/>
       <c r="H961" s="14" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="I961" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="J961" s="14">
@@ -37509,14 +37511,14 @@
       <c r="D962" s="11"/>
       <c r="E962" s="11"/>
       <c r="F962" s="13" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G962" s="13"/>
       <c r="H962" s="14" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="I962" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="J962" s="14"/>
@@ -37536,14 +37538,14 @@
       <c r="D963" s="11"/>
       <c r="E963" s="11"/>
       <c r="F963" s="13" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G963" s="13"/>
       <c r="H963" s="14" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="I963" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="J963" s="14"/>
@@ -37563,14 +37565,14 @@
       <c r="D964" s="11"/>
       <c r="E964" s="11"/>
       <c r="F964" s="13" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="G964" s="13"/>
       <c r="H964" s="14" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="I964" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="J964" s="14"/>
@@ -37592,16 +37594,16 @@
       </c>
       <c r="E965" s="11"/>
       <c r="F965" s="13" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G965" s="13" t="s">
         <v>1860</v>
       </c>
-      <c r="G965" s="13" t="s">
-        <v>1861</v>
-      </c>
       <c r="H965" s="14" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I965" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="J965" s="14"/>
@@ -37623,16 +37625,16 @@
       </c>
       <c r="E966" s="11"/>
       <c r="F966" s="13" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G966" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="H966" s="14" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I966" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="J966" s="14"/>
@@ -37650,16 +37652,16 @@
       <c r="D967" s="11"/>
       <c r="E967" s="11"/>
       <c r="F967" s="13" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G967" s="13" t="s">
         <v>1863</v>
       </c>
-      <c r="G967" s="13" t="s">
+      <c r="H967" s="14" t="s">
         <v>1864</v>
       </c>
-      <c r="H967" s="14" t="s">
-        <v>1865</v>
-      </c>
       <c r="I967" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="J967" s="14"/>
@@ -37677,16 +37679,16 @@
       <c r="D968" s="11"/>
       <c r="E968" s="11"/>
       <c r="F968" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G968" s="13" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H968" s="14" t="s">
         <v>1866</v>
       </c>
-      <c r="H968" s="14" t="s">
-        <v>1867</v>
-      </c>
       <c r="I968" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="J968" s="14"/>
@@ -37704,16 +37706,16 @@
       <c r="D969" s="11"/>
       <c r="E969" s="11"/>
       <c r="F969" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G969" s="13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="H969" s="14" t="s">
         <v>1868</v>
       </c>
-      <c r="H969" s="14" t="s">
-        <v>1869</v>
-      </c>
       <c r="I969" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="J969" s="14"/>
@@ -37731,16 +37733,16 @@
       <c r="D970" s="11"/>
       <c r="E970" s="11"/>
       <c r="F970" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G970" s="13" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H970" s="14" t="s">
         <v>1870</v>
       </c>
-      <c r="H970" s="14" t="s">
-        <v>1871</v>
-      </c>
       <c r="I970" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="J970" s="14"/>
@@ -37758,16 +37760,16 @@
       <c r="D971" s="11"/>
       <c r="E971" s="11"/>
       <c r="F971" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G971" s="13" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H971" s="14" t="s">
         <v>1872</v>
       </c>
-      <c r="H971" s="14" t="s">
-        <v>1873</v>
-      </c>
       <c r="I971" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="J971" s="14"/>
@@ -37785,16 +37787,16 @@
       <c r="D972" s="11"/>
       <c r="E972" s="11"/>
       <c r="F972" s="13" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G972" s="13" t="s">
+        <v>1873</v>
+      </c>
+      <c r="H972" s="14" t="s">
         <v>1874</v>
       </c>
-      <c r="H972" s="14" t="s">
-        <v>1875</v>
-      </c>
       <c r="I972" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="J972" s="14"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5506" uniqueCount="1874">
   <si>
     <t>Method</t>
   </si>
@@ -5359,9 +5359,6 @@
   </si>
   <si>
     <t>TTCCAGTTGCTTTCTGTGTC</t>
-  </si>
-  <si>
-    <t>NS2b</t>
   </si>
   <si>
     <t>DENV3-4370-F</t>
@@ -7127,9 +7124,9 @@
   <dimension ref="A1:N972"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A853" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F861" sqref="F861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
@@ -34737,17 +34734,17 @@
         <v>31</v>
       </c>
       <c r="D874" s="11" t="s">
-        <v>1705</v>
+        <v>451</v>
       </c>
       <c r="E874" s="11"/>
       <c r="F874" s="13" t="s">
         <v>1702</v>
       </c>
       <c r="G874" s="13" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H874" s="14" t="s">
         <v>1706</v>
-      </c>
-      <c r="H874" s="14" t="s">
-        <v>1707</v>
       </c>
       <c r="I874" s="8">
         <f t="shared" si="25"/>
@@ -34777,10 +34774,10 @@
         <v>1702</v>
       </c>
       <c r="G875" s="13" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H875" s="14" t="s">
         <v>1708</v>
-      </c>
-      <c r="H875" s="14" t="s">
-        <v>1709</v>
       </c>
       <c r="I875" s="8">
         <f t="shared" si="25"/>
@@ -34810,10 +34807,10 @@
         <v>1702</v>
       </c>
       <c r="G876" s="13" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H876" s="14" t="s">
         <v>1710</v>
-      </c>
-      <c r="H876" s="14" t="s">
-        <v>1711</v>
       </c>
       <c r="I876" s="8">
         <f t="shared" si="25"/>
@@ -34843,10 +34840,10 @@
         <v>1702</v>
       </c>
       <c r="G877" s="13" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H877" s="14" t="s">
         <v>1712</v>
-      </c>
-      <c r="H877" s="14" t="s">
-        <v>1713</v>
       </c>
       <c r="I877" s="8">
         <f t="shared" si="25"/>
@@ -34873,13 +34870,13 @@
       </c>
       <c r="E878" s="11"/>
       <c r="F878" s="13" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G878" s="13" t="s">
         <v>1714</v>
       </c>
-      <c r="G878" s="13" t="s">
+      <c r="H878" s="14" t="s">
         <v>1715</v>
-      </c>
-      <c r="H878" s="14" t="s">
-        <v>1716</v>
       </c>
       <c r="I878" s="8">
         <f t="shared" si="25"/>
@@ -34906,13 +34903,13 @@
       </c>
       <c r="E879" s="11"/>
       <c r="F879" s="13" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G879" s="13" t="s">
+        <v>1716</v>
+      </c>
+      <c r="H879" s="14" t="s">
         <v>1717</v>
-      </c>
-      <c r="H879" s="14" t="s">
-        <v>1718</v>
       </c>
       <c r="I879" s="8">
         <f t="shared" si="25"/>
@@ -34935,13 +34932,13 @@
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
       <c r="F880" s="13" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G880" s="13" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H880" s="14" t="s">
         <v>1719</v>
-      </c>
-      <c r="H880" s="14" t="s">
-        <v>1720</v>
       </c>
       <c r="I880" s="8">
         <f t="shared" si="25"/>
@@ -34964,13 +34961,13 @@
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
       <c r="F881" s="13" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G881" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H881" s="14" t="s">
         <v>1721</v>
-      </c>
-      <c r="H881" s="14" t="s">
-        <v>1722</v>
       </c>
       <c r="I881" s="8">
         <f t="shared" si="25"/>
@@ -34995,13 +34992,13 @@
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
       <c r="F882" s="13" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G882" s="13" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H882" s="14" t="s">
         <v>1723</v>
-      </c>
-      <c r="H882" s="14" t="s">
-        <v>1724</v>
       </c>
       <c r="I882" s="8">
         <f t="shared" si="25"/>
@@ -35026,13 +35023,13 @@
       <c r="D883" s="11"/>
       <c r="E883" s="11"/>
       <c r="F883" s="13" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G883" s="13" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H883" s="14" t="s">
         <v>1725</v>
-      </c>
-      <c r="H883" s="14" t="s">
-        <v>1726</v>
       </c>
       <c r="I883" s="8">
         <f t="shared" si="25"/>
@@ -35055,11 +35052,11 @@
       <c r="D884" s="11"/>
       <c r="E884" s="11"/>
       <c r="F884" s="13" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G884" s="13"/>
       <c r="H884" s="14" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="I884" s="8">
         <f t="shared" si="25"/>
@@ -35082,7 +35079,7 @@
       <c r="D885" s="11"/>
       <c r="E885" s="11"/>
       <c r="F885" s="13" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="G885" s="13"/>
       <c r="H885" s="14" t="s">
@@ -35107,11 +35104,11 @@
       <c r="D886" s="11"/>
       <c r="E886" s="11"/>
       <c r="F886" s="13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G886" s="13"/>
       <c r="H886" s="14" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="I886" s="8">
         <f t="shared" si="25"/>
@@ -35132,11 +35129,11 @@
       <c r="D887" s="11"/>
       <c r="E887" s="11"/>
       <c r="F887" s="13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G887" s="13"/>
       <c r="H887" s="14" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I887" s="8">
         <f t="shared" si="25"/>
@@ -35159,11 +35156,11 @@
       <c r="D888" s="11"/>
       <c r="E888" s="11"/>
       <c r="F888" s="13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G888" s="13"/>
       <c r="H888" s="14" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="I888" s="8">
         <f t="shared" si="25"/>
@@ -35186,13 +35183,13 @@
       <c r="D889" s="11"/>
       <c r="E889" s="11"/>
       <c r="F889" s="13" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G889" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="G889" s="13" t="s">
+      <c r="H889" s="14" t="s">
         <v>1734</v>
-      </c>
-      <c r="H889" s="14" t="s">
-        <v>1735</v>
       </c>
       <c r="I889" s="8">
         <f t="shared" si="25"/>
@@ -35213,13 +35210,13 @@
       <c r="D890" s="11"/>
       <c r="E890" s="11"/>
       <c r="F890" s="13" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G890" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H890" s="14" t="s">
         <v>1736</v>
-      </c>
-      <c r="H890" s="14" t="s">
-        <v>1737</v>
       </c>
       <c r="I890" s="8">
         <f t="shared" si="25"/>
@@ -35242,11 +35239,11 @@
       <c r="D891" s="11"/>
       <c r="E891" s="11"/>
       <c r="F891" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G891" s="13"/>
       <c r="H891" s="14" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="I891" s="8">
         <f t="shared" si="25"/>
@@ -35269,11 +35266,11 @@
       <c r="D892" s="11"/>
       <c r="E892" s="11"/>
       <c r="F892" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G892" s="13"/>
       <c r="H892" s="14" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="I892" s="8">
         <f t="shared" ref="I892:I955" si="26">LEN(H892)</f>
@@ -35296,11 +35293,11 @@
       <c r="D893" s="11"/>
       <c r="E893" s="11"/>
       <c r="F893" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="G893" s="13"/>
       <c r="H893" s="14" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="I893" s="8">
         <f t="shared" si="26"/>
@@ -35327,13 +35324,13 @@
       </c>
       <c r="E894" s="11"/>
       <c r="F894" s="13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G894" s="13" t="s">
         <v>1742</v>
       </c>
-      <c r="G894" s="13" t="s">
+      <c r="H894" s="14" t="s">
         <v>1743</v>
-      </c>
-      <c r="H894" s="14" t="s">
-        <v>1744</v>
       </c>
       <c r="I894" s="8">
         <f t="shared" si="26"/>
@@ -35360,13 +35357,13 @@
       </c>
       <c r="E895" s="11"/>
       <c r="F895" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G895" s="13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="H895" s="14" t="s">
         <v>1745</v>
-      </c>
-      <c r="H895" s="14" t="s">
-        <v>1746</v>
       </c>
       <c r="I895" s="8">
         <f t="shared" si="26"/>
@@ -35393,13 +35390,13 @@
       </c>
       <c r="E896" s="11"/>
       <c r="F896" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G896" s="13" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H896" s="14" t="s">
         <v>1747</v>
-      </c>
-      <c r="H896" s="14" t="s">
-        <v>1748</v>
       </c>
       <c r="I896" s="8">
         <f t="shared" si="26"/>
@@ -35426,13 +35423,13 @@
       </c>
       <c r="E897" s="11"/>
       <c r="F897" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G897" s="13" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H897" s="14" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="I897" s="8">
         <f t="shared" si="26"/>
@@ -35459,13 +35456,13 @@
       </c>
       <c r="E898" s="11"/>
       <c r="F898" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G898" s="13" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H898" s="14" t="s">
         <v>1750</v>
-      </c>
-      <c r="H898" s="14" t="s">
-        <v>1751</v>
       </c>
       <c r="I898" s="8">
         <f t="shared" si="26"/>
@@ -35492,13 +35489,13 @@
       </c>
       <c r="E899" s="11"/>
       <c r="F899" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G899" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H899" s="14" t="s">
         <v>1752</v>
-      </c>
-      <c r="H899" s="14" t="s">
-        <v>1753</v>
       </c>
       <c r="I899" s="8">
         <f t="shared" si="26"/>
@@ -35523,13 +35520,13 @@
       </c>
       <c r="E900" s="11"/>
       <c r="F900" s="13" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G900" s="13" t="s">
         <v>1754</v>
       </c>
-      <c r="G900" s="13" t="s">
+      <c r="H900" s="14" t="s">
         <v>1755</v>
-      </c>
-      <c r="H900" s="14" t="s">
-        <v>1756</v>
       </c>
       <c r="I900" s="8">
         <f t="shared" si="26"/>
@@ -35554,13 +35551,13 @@
       </c>
       <c r="E901" s="11"/>
       <c r="F901" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G901" s="13" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H901" s="14" t="s">
         <v>1757</v>
-      </c>
-      <c r="H901" s="14" t="s">
-        <v>1758</v>
       </c>
       <c r="I901" s="8">
         <f t="shared" si="26"/>
@@ -35585,13 +35582,13 @@
       </c>
       <c r="E902" s="11"/>
       <c r="F902" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G902" s="13" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H902" s="14" t="s">
         <v>1759</v>
-      </c>
-      <c r="H902" s="14" t="s">
-        <v>1760</v>
       </c>
       <c r="I902" s="8">
         <f t="shared" si="26"/>
@@ -35616,13 +35613,13 @@
       </c>
       <c r="E903" s="11"/>
       <c r="F903" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G903" s="13" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H903" s="14" t="s">
         <v>1761</v>
-      </c>
-      <c r="H903" s="14" t="s">
-        <v>1762</v>
       </c>
       <c r="I903" s="8">
         <f t="shared" si="26"/>
@@ -35647,13 +35644,13 @@
       </c>
       <c r="E904" s="11"/>
       <c r="F904" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G904" s="13" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H904" s="14" t="s">
         <v>1763</v>
-      </c>
-      <c r="H904" s="14" t="s">
-        <v>1764</v>
       </c>
       <c r="I904" s="8">
         <f t="shared" si="26"/>
@@ -35678,13 +35675,13 @@
       </c>
       <c r="E905" s="11"/>
       <c r="F905" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G905" s="13" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H905" s="14" t="s">
         <v>1765</v>
-      </c>
-      <c r="H905" s="14" t="s">
-        <v>1766</v>
       </c>
       <c r="I905" s="8">
         <f t="shared" si="26"/>
@@ -35709,13 +35706,13 @@
       </c>
       <c r="E906" s="11"/>
       <c r="F906" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G906" s="13" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H906" s="14" t="s">
         <v>1767</v>
-      </c>
-      <c r="H906" s="14" t="s">
-        <v>1768</v>
       </c>
       <c r="I906" s="8">
         <f t="shared" si="26"/>
@@ -35740,13 +35737,13 @@
       </c>
       <c r="E907" s="11"/>
       <c r="F907" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G907" s="13" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H907" s="14" t="s">
         <v>1769</v>
-      </c>
-      <c r="H907" s="14" t="s">
-        <v>1770</v>
       </c>
       <c r="I907" s="8">
         <f t="shared" si="26"/>
@@ -35769,13 +35766,13 @@
       <c r="D908" s="11"/>
       <c r="E908" s="11"/>
       <c r="F908" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G908" s="13" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H908" s="14" t="s">
         <v>1771</v>
-      </c>
-      <c r="H908" s="14" t="s">
-        <v>1772</v>
       </c>
       <c r="I908" s="8">
         <f t="shared" si="26"/>
@@ -35798,13 +35795,13 @@
       <c r="D909" s="11"/>
       <c r="E909" s="11"/>
       <c r="F909" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G909" s="13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H909" s="14" t="s">
         <v>1773</v>
-      </c>
-      <c r="H909" s="14" t="s">
-        <v>1774</v>
       </c>
       <c r="I909" s="8">
         <f t="shared" si="26"/>
@@ -35827,13 +35824,13 @@
       <c r="D910" s="11"/>
       <c r="E910" s="11"/>
       <c r="F910" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G910" s="13" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H910" s="14" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="I910" s="8">
         <f t="shared" si="26"/>
@@ -35856,13 +35853,13 @@
       <c r="D911" s="11"/>
       <c r="E911" s="11"/>
       <c r="F911" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G911" s="13" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H911" s="14" t="s">
         <v>1776</v>
-      </c>
-      <c r="H911" s="14" t="s">
-        <v>1777</v>
       </c>
       <c r="I911" s="8">
         <f t="shared" si="26"/>
@@ -35885,13 +35882,13 @@
       <c r="D912" s="11"/>
       <c r="E912" s="11"/>
       <c r="F912" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G912" s="13" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H912" s="14" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="I912" s="8">
         <f t="shared" si="26"/>
@@ -35914,13 +35911,13 @@
       <c r="D913" s="11"/>
       <c r="E913" s="11"/>
       <c r="F913" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G913" s="13" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H913" s="14" t="s">
         <v>1779</v>
-      </c>
-      <c r="H913" s="14" t="s">
-        <v>1780</v>
       </c>
       <c r="I913" s="8">
         <f t="shared" si="26"/>
@@ -35943,13 +35940,13 @@
       <c r="D914" s="11"/>
       <c r="E914" s="11"/>
       <c r="F914" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G914" s="13" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H914" s="14" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="I914" s="8">
         <f t="shared" si="26"/>
@@ -35972,13 +35969,13 @@
       <c r="D915" s="11"/>
       <c r="E915" s="11"/>
       <c r="F915" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="G915" s="13" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H915" s="14" t="s">
         <v>1782</v>
-      </c>
-      <c r="H915" s="14" t="s">
-        <v>1783</v>
       </c>
       <c r="I915" s="8">
         <f t="shared" si="26"/>
@@ -36001,13 +35998,13 @@
       </c>
       <c r="E916" s="11"/>
       <c r="F916" s="13" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G916" s="13" t="s">
         <v>1784</v>
       </c>
-      <c r="G916" s="13" t="s">
+      <c r="H916" s="14" t="s">
         <v>1785</v>
-      </c>
-      <c r="H916" s="14" t="s">
-        <v>1786</v>
       </c>
       <c r="I916" s="8">
         <f t="shared" si="26"/>
@@ -36034,13 +36031,13 @@
       </c>
       <c r="E917" s="11"/>
       <c r="F917" s="13" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G917" s="13" t="s">
         <v>941</v>
       </c>
       <c r="H917" s="14" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="I917" s="8">
         <f t="shared" si="26"/>
@@ -36065,13 +36062,13 @@
       <c r="D918" s="11"/>
       <c r="E918" s="11"/>
       <c r="F918" s="13" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G918" s="13" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H918" s="14" t="s">
         <v>1788</v>
-      </c>
-      <c r="H918" s="14" t="s">
-        <v>1789</v>
       </c>
       <c r="I918" s="8">
         <f t="shared" si="26"/>
@@ -36096,13 +36093,13 @@
       <c r="D919" s="11"/>
       <c r="E919" s="11"/>
       <c r="F919" s="13" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G919" s="13" t="s">
         <v>937</v>
       </c>
       <c r="H919" s="14" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="I919" s="8">
         <f t="shared" si="26"/>
@@ -36129,13 +36126,13 @@
       </c>
       <c r="E920" s="11"/>
       <c r="F920" s="13" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G920" s="13" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H920" s="14" t="s">
         <v>1791</v>
-      </c>
-      <c r="H920" s="14" t="s">
-        <v>1792</v>
       </c>
       <c r="I920" s="8">
         <f t="shared" si="26"/>
@@ -36162,13 +36159,13 @@
       </c>
       <c r="E921" s="11"/>
       <c r="F921" s="13" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="G921" s="13" t="s">
         <v>953</v>
       </c>
       <c r="H921" s="14" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="I921" s="8">
         <f t="shared" si="26"/>
@@ -36199,11 +36196,11 @@
       </c>
       <c r="E922" s="11"/>
       <c r="F922" s="13" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G922" s="13"/>
       <c r="H922" s="14" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="I922" s="8">
         <f t="shared" si="26"/>
@@ -36230,7 +36227,7 @@
       </c>
       <c r="E923" s="11"/>
       <c r="F923" s="13" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G923" s="13"/>
       <c r="H923" s="14" t="s">
@@ -36261,13 +36258,13 @@
       </c>
       <c r="E924" s="11"/>
       <c r="F924" s="13" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G924" s="13" t="s">
         <v>1796</v>
       </c>
-      <c r="G924" s="13" t="s">
+      <c r="H924" s="14" t="s">
         <v>1797</v>
-      </c>
-      <c r="H924" s="14" t="s">
-        <v>1798</v>
       </c>
       <c r="I924" s="8">
         <f t="shared" si="26"/>
@@ -36294,13 +36291,13 @@
       </c>
       <c r="E925" s="11"/>
       <c r="F925" s="13" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G925" s="13" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H925" s="14" t="s">
         <v>1799</v>
-      </c>
-      <c r="H925" s="14" t="s">
-        <v>1800</v>
       </c>
       <c r="I925" s="8">
         <f t="shared" si="26"/>
@@ -36327,13 +36324,13 @@
       </c>
       <c r="E926" s="11"/>
       <c r="F926" s="13" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G926" s="13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H926" s="14" t="s">
         <v>1801</v>
-      </c>
-      <c r="H926" s="14" t="s">
-        <v>1802</v>
       </c>
       <c r="I926" s="8">
         <f t="shared" si="26"/>
@@ -36360,13 +36357,13 @@
       </c>
       <c r="E927" s="11"/>
       <c r="F927" s="13" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G927" s="13" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H927" s="14" t="s">
         <v>1803</v>
-      </c>
-      <c r="H927" s="14" t="s">
-        <v>1804</v>
       </c>
       <c r="I927" s="8">
         <f t="shared" si="26"/>
@@ -36391,13 +36388,13 @@
       </c>
       <c r="E928" s="11"/>
       <c r="F928" s="13" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G928" s="13" t="s">
         <v>1805</v>
       </c>
-      <c r="G928" s="13" t="s">
+      <c r="H928" s="14" t="s">
         <v>1806</v>
-      </c>
-      <c r="H928" s="14" t="s">
-        <v>1807</v>
       </c>
       <c r="I928" s="8">
         <f t="shared" si="26"/>
@@ -36422,13 +36419,13 @@
       </c>
       <c r="E929" s="11"/>
       <c r="F929" s="13" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G929" s="13" t="s">
         <v>343</v>
       </c>
       <c r="H929" s="14" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="I929" s="8">
         <f t="shared" si="26"/>
@@ -36453,11 +36450,11 @@
       </c>
       <c r="E930" s="11"/>
       <c r="F930" s="13" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G930" s="13"/>
       <c r="H930" s="14" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="I930" s="8">
         <f t="shared" si="26"/>
@@ -36482,11 +36479,11 @@
       <c r="D931" s="11"/>
       <c r="E931" s="11"/>
       <c r="F931" s="13" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G931" s="13"/>
       <c r="H931" s="14" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="I931" s="8">
         <f t="shared" si="26"/>
@@ -36511,11 +36508,11 @@
       <c r="D932" s="11"/>
       <c r="E932" s="11"/>
       <c r="F932" s="13" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G932" s="13"/>
       <c r="H932" s="14" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="I932" s="8">
         <f t="shared" si="26"/>
@@ -36536,11 +36533,11 @@
       <c r="D933" s="11"/>
       <c r="E933" s="11"/>
       <c r="F933" s="13" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G933" s="13"/>
       <c r="H933" s="14" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="I933" s="8">
         <f t="shared" si="26"/>
@@ -36561,11 +36558,11 @@
       <c r="D934" s="11"/>
       <c r="E934" s="11"/>
       <c r="F934" s="13" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="G934" s="13"/>
       <c r="H934" s="14" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="I934" s="8">
         <f t="shared" si="26"/>
@@ -36590,13 +36587,13 @@
       </c>
       <c r="E935" s="11"/>
       <c r="F935" s="13" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G935" s="13" t="s">
         <v>1816</v>
       </c>
-      <c r="G935" s="13" t="s">
+      <c r="H935" s="14" t="s">
         <v>1817</v>
-      </c>
-      <c r="H935" s="14" t="s">
-        <v>1818</v>
       </c>
       <c r="I935" s="8">
         <f t="shared" si="26"/>
@@ -36625,13 +36622,13 @@
       </c>
       <c r="E936" s="11"/>
       <c r="F936" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G936" s="13" t="s">
+        <v>1818</v>
+      </c>
+      <c r="H936" s="14" t="s">
         <v>1819</v>
-      </c>
-      <c r="H936" s="14" t="s">
-        <v>1820</v>
       </c>
       <c r="I936" s="8">
         <f t="shared" si="26"/>
@@ -36660,13 +36657,13 @@
       </c>
       <c r="E937" s="11"/>
       <c r="F937" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G937" s="13" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H937" s="14" t="s">
         <v>1821</v>
-      </c>
-      <c r="H937" s="14" t="s">
-        <v>1822</v>
       </c>
       <c r="I937" s="8">
         <f t="shared" si="26"/>
@@ -36695,13 +36692,13 @@
       </c>
       <c r="E938" s="11"/>
       <c r="F938" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G938" s="13" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H938" s="14" t="s">
         <v>1823</v>
-      </c>
-      <c r="H938" s="14" t="s">
-        <v>1824</v>
       </c>
       <c r="I938" s="8">
         <f t="shared" si="26"/>
@@ -36730,13 +36727,13 @@
       </c>
       <c r="E939" s="11"/>
       <c r="F939" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G939" s="13" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H939" s="14" t="s">
         <v>1825</v>
-      </c>
-      <c r="H939" s="14" t="s">
-        <v>1826</v>
       </c>
       <c r="I939" s="8">
         <f t="shared" si="26"/>
@@ -36765,13 +36762,13 @@
       </c>
       <c r="E940" s="11"/>
       <c r="F940" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G940" s="13" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H940" s="14" t="s">
         <v>1827</v>
-      </c>
-      <c r="H940" s="14" t="s">
-        <v>1828</v>
       </c>
       <c r="I940" s="8">
         <f t="shared" si="26"/>
@@ -36800,13 +36797,13 @@
       </c>
       <c r="E941" s="11"/>
       <c r="F941" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G941" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H941" s="14" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="I941" s="8">
         <f t="shared" si="26"/>
@@ -36835,13 +36832,13 @@
       </c>
       <c r="E942" s="11"/>
       <c r="F942" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G942" s="13" t="s">
+        <v>1829</v>
+      </c>
+      <c r="H942" s="14" t="s">
         <v>1830</v>
-      </c>
-      <c r="H942" s="14" t="s">
-        <v>1831</v>
       </c>
       <c r="I942" s="8">
         <f t="shared" si="26"/>
@@ -36870,13 +36867,13 @@
       </c>
       <c r="E943" s="11"/>
       <c r="F943" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G943" s="13" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H943" s="14" t="s">
         <v>1832</v>
-      </c>
-      <c r="H943" s="14" t="s">
-        <v>1833</v>
       </c>
       <c r="I943" s="8">
         <f t="shared" si="26"/>
@@ -36905,13 +36902,13 @@
       </c>
       <c r="E944" s="11"/>
       <c r="F944" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G944" s="13" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H944" s="14" t="s">
         <v>1834</v>
-      </c>
-      <c r="H944" s="14" t="s">
-        <v>1835</v>
       </c>
       <c r="I944" s="8">
         <f t="shared" si="26"/>
@@ -36942,7 +36939,7 @@
       </c>
       <c r="E945" s="11"/>
       <c r="F945" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G945" s="13" t="s">
         <v>19</v>
@@ -36979,7 +36976,7 @@
       </c>
       <c r="E946" s="11"/>
       <c r="F946" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G946" s="13" t="s">
         <v>23</v>
@@ -37016,7 +37013,7 @@
       </c>
       <c r="E947" s="11"/>
       <c r="F947" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G947" s="13" t="s">
         <v>26</v>
@@ -37053,7 +37050,7 @@
       </c>
       <c r="E948" s="11"/>
       <c r="F948" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G948" s="13" t="s">
         <v>29</v>
@@ -37090,7 +37087,7 @@
       </c>
       <c r="E949" s="11"/>
       <c r="F949" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G949" s="13" t="s">
         <v>32</v>
@@ -37127,7 +37124,7 @@
       </c>
       <c r="E950" s="11"/>
       <c r="F950" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G950" s="13" t="s">
         <v>35</v>
@@ -37160,13 +37157,13 @@
       </c>
       <c r="E951" s="11"/>
       <c r="F951" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G951" s="13" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H951" s="14" t="s">
         <v>1836</v>
-      </c>
-      <c r="H951" s="14" t="s">
-        <v>1837</v>
       </c>
       <c r="I951" s="8">
         <f t="shared" si="26"/>
@@ -37195,13 +37192,13 @@
       </c>
       <c r="E952" s="11"/>
       <c r="F952" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G952" s="13" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H952" s="14" t="s">
         <v>1838</v>
-      </c>
-      <c r="H952" s="14" t="s">
-        <v>1839</v>
       </c>
       <c r="I952" s="8">
         <f t="shared" si="26"/>
@@ -37230,13 +37227,13 @@
       </c>
       <c r="E953" s="11"/>
       <c r="F953" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G953" s="13" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H953" s="14" t="s">
         <v>1840</v>
-      </c>
-      <c r="H953" s="14" t="s">
-        <v>1841</v>
       </c>
       <c r="I953" s="8">
         <f t="shared" si="26"/>
@@ -37265,13 +37262,13 @@
       </c>
       <c r="E954" s="11"/>
       <c r="F954" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G954" s="13" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H954" s="14" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="I954" s="8">
         <f t="shared" si="26"/>
@@ -37300,13 +37297,13 @@
       </c>
       <c r="E955" s="11"/>
       <c r="F955" s="13" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="G955" s="13" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H955" s="14" t="s">
         <v>1840</v>
-      </c>
-      <c r="H955" s="14" t="s">
-        <v>1841</v>
       </c>
       <c r="I955" s="8">
         <f t="shared" si="26"/>
@@ -37335,13 +37332,13 @@
       </c>
       <c r="E956" s="11"/>
       <c r="F956" s="13" t="s">
+        <v>1842</v>
+      </c>
+      <c r="G956" s="13" t="s">
         <v>1843</v>
       </c>
-      <c r="G956" s="13" t="s">
+      <c r="H956" s="14" t="s">
         <v>1844</v>
-      </c>
-      <c r="H956" s="14" t="s">
-        <v>1845</v>
       </c>
       <c r="I956" s="8">
         <f t="shared" ref="I956:I972" si="27">LEN(H956)</f>
@@ -37366,13 +37363,13 @@
       </c>
       <c r="E957" s="11"/>
       <c r="F957" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G957" s="13" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H957" s="14" t="s">
         <v>1846</v>
-      </c>
-      <c r="H957" s="14" t="s">
-        <v>1847</v>
       </c>
       <c r="I957" s="8">
         <f t="shared" si="27"/>
@@ -37390,16 +37387,16 @@
       </c>
       <c r="B958" s="11"/>
       <c r="C958" s="11" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D958" s="11"/>
       <c r="E958" s="11"/>
       <c r="F958" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G958" s="13"/>
       <c r="H958" s="14" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I958" s="8">
         <f t="shared" si="27"/>
@@ -37417,16 +37414,16 @@
       </c>
       <c r="B959" s="11"/>
       <c r="C959" s="11" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D959" s="11"/>
       <c r="E959" s="11"/>
       <c r="F959" s="13" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G959" s="13"/>
       <c r="H959" s="14" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="I959" s="8">
         <f t="shared" si="27"/>
@@ -37449,11 +37446,11 @@
       <c r="D960" s="11"/>
       <c r="E960" s="11"/>
       <c r="F960" s="13" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G960" s="13"/>
       <c r="H960" s="14" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="I960" s="8">
         <f t="shared" si="27"/>
@@ -37480,11 +37477,11 @@
       <c r="D961" s="11"/>
       <c r="E961" s="11"/>
       <c r="F961" s="13" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="G961" s="13"/>
       <c r="H961" s="14" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I961" s="8">
         <f t="shared" si="27"/>
@@ -37511,11 +37508,11 @@
       <c r="D962" s="11"/>
       <c r="E962" s="11"/>
       <c r="F962" s="13" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G962" s="13"/>
       <c r="H962" s="14" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="I962" s="8">
         <f t="shared" si="27"/>
@@ -37538,11 +37535,11 @@
       <c r="D963" s="11"/>
       <c r="E963" s="11"/>
       <c r="F963" s="13" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G963" s="13"/>
       <c r="H963" s="14" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="I963" s="8">
         <f t="shared" si="27"/>
@@ -37565,11 +37562,11 @@
       <c r="D964" s="11"/>
       <c r="E964" s="11"/>
       <c r="F964" s="13" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G964" s="13"/>
       <c r="H964" s="14" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="I964" s="8">
         <f t="shared" si="27"/>
@@ -37594,10 +37591,10 @@
       </c>
       <c r="E965" s="11"/>
       <c r="F965" s="13" t="s">
+        <v>1858</v>
+      </c>
+      <c r="G965" s="13" t="s">
         <v>1859</v>
-      </c>
-      <c r="G965" s="13" t="s">
-        <v>1860</v>
       </c>
       <c r="H965" s="14" t="s">
         <v>1203</v>
@@ -37625,10 +37622,10 @@
       </c>
       <c r="E966" s="11"/>
       <c r="F966" s="13" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G966" s="13" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H966" s="14" t="s">
         <v>1205</v>
@@ -37652,13 +37649,13 @@
       <c r="D967" s="11"/>
       <c r="E967" s="11"/>
       <c r="F967" s="13" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G967" s="13" t="s">
         <v>1862</v>
       </c>
-      <c r="G967" s="13" t="s">
+      <c r="H967" s="14" t="s">
         <v>1863</v>
-      </c>
-      <c r="H967" s="14" t="s">
-        <v>1864</v>
       </c>
       <c r="I967" s="8">
         <f t="shared" si="27"/>
@@ -37679,13 +37676,13 @@
       <c r="D968" s="11"/>
       <c r="E968" s="11"/>
       <c r="F968" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G968" s="13" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H968" s="14" t="s">
         <v>1865</v>
-      </c>
-      <c r="H968" s="14" t="s">
-        <v>1866</v>
       </c>
       <c r="I968" s="8">
         <f t="shared" si="27"/>
@@ -37706,13 +37703,13 @@
       <c r="D969" s="11"/>
       <c r="E969" s="11"/>
       <c r="F969" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G969" s="13" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H969" s="14" t="s">
         <v>1867</v>
-      </c>
-      <c r="H969" s="14" t="s">
-        <v>1868</v>
       </c>
       <c r="I969" s="8">
         <f t="shared" si="27"/>
@@ -37733,13 +37730,13 @@
       <c r="D970" s="11"/>
       <c r="E970" s="11"/>
       <c r="F970" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G970" s="13" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H970" s="14" t="s">
         <v>1869</v>
-      </c>
-      <c r="H970" s="14" t="s">
-        <v>1870</v>
       </c>
       <c r="I970" s="8">
         <f t="shared" si="27"/>
@@ -37760,13 +37757,13 @@
       <c r="D971" s="11"/>
       <c r="E971" s="11"/>
       <c r="F971" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G971" s="13" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H971" s="14" t="s">
         <v>1871</v>
-      </c>
-      <c r="H971" s="14" t="s">
-        <v>1872</v>
       </c>
       <c r="I971" s="8">
         <f t="shared" si="27"/>
@@ -37787,13 +37784,13 @@
       <c r="D972" s="11"/>
       <c r="E972" s="11"/>
       <c r="F972" s="13" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G972" s="13" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H972" s="14" t="s">
         <v>1873</v>
-      </c>
-      <c r="H972" s="14" t="s">
-        <v>1874</v>
       </c>
       <c r="I972" s="8">
         <f t="shared" si="27"/>

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13368" windowHeight="8867"/>
+    <workbookView windowWidth="12795" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="1645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5287" uniqueCount="1645">
   <si>
     <t>Method</t>
   </si>
@@ -765,6 +765,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CCATCAATGAGAA AGGTCTGTTGATGACTCTGTAGACTGTAGAGAGC 3’</t>
     </r>
     <r>
@@ -1282,6 +1287,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PloS one</t>
     </r>
     <r>
@@ -1472,6 +1483,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Southeast Asian Journal of Tropical Medicine &amp; Public Health</t>
     </r>
     <r>
@@ -1902,8 +1919,7 @@
     <t>E (forward)</t>
   </si>
   <si>
-    <t xml:space="preserve">GGGGACAAGTTTGTACAAAAAAGCAGGCTTCACCATGAGAGCCCTGATTTTCATCTTACTGACAG
-</t>
+    <t>GGGGACAAGTTTGTACAAAAAAGCAGGCTTCACCATGAGAGCCCTGATTTTCATCTTACTGACAG</t>
   </si>
   <si>
     <t>E (reverse)</t>
@@ -1921,8 +1937,7 @@
     <t>NS1 (reverse)</t>
   </si>
   <si>
-    <t xml:space="preserve">GGGGACCACTTTGTACAAGAAAGCTGGGTCGGCTGTGACCAAGGAGTTGAC
-</t>
+    <t>GGGGACCACTTTGTACAAGAAAGCTGGGTCGGCTGTGACCAAGGAGTTGAC</t>
   </si>
   <si>
     <t>NS1G (reverse)</t>
@@ -4344,6 +4359,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>DENV-2 consensus primers (forward</t>
     </r>
     <r>
@@ -4357,6 +4377,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>DENV-2 consensus primers (Reverse</t>
     </r>
     <r>
@@ -4376,6 +4401,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>Chin J Public Health Apr 2012 Vol</t>
     </r>
     <r>
@@ -6399,25 +6429,25 @@
   <dimension ref="A1:N878"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C201" sqref="C201"/>
+      <selection pane="bottomLeft" activeCell="F500" sqref="F500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.10833333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.55555555555556" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.1111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.10833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1083333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.7777777777778" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.09259259259259" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.0462962962963" style="3" customWidth="1"/>
-    <col min="11" max="11" width="6.65740740740741" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.62962962962963" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.775" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.09166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.05" style="3" customWidth="1"/>
+    <col min="11" max="11" width="6.65833333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.63333333333333" style="4" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="5"/>
@@ -6733,7 +6763,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" ref="I8:I17" si="0">LEN(H8)</f>
+        <f t="shared" ref="I8:I23" si="0">LEN(H8)</f>
         <v>18</v>
       </c>
       <c r="J8" s="10"/>
@@ -7039,7 +7069,7 @@
         <v>58</v>
       </c>
       <c r="I16" s="8">
-        <f>LEN(H16)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="J16" s="10"/>
@@ -7072,7 +7102,7 @@
         <v>60</v>
       </c>
       <c r="I17" s="8">
-        <f>LEN(H17)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J17" s="10"/>
@@ -7107,7 +7137,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="8">
-        <f>LEN(H18)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="J18" s="10"/>
@@ -7140,7 +7170,7 @@
         <v>64</v>
       </c>
       <c r="I19" s="8">
-        <f>LEN(H19)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J19" s="10"/>
@@ -7173,7 +7203,7 @@
         <v>66</v>
       </c>
       <c r="I20" s="8">
-        <f>LEN(H20)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="J20" s="10"/>
@@ -7206,7 +7236,7 @@
         <v>68</v>
       </c>
       <c r="I21" s="8">
-        <f>LEN(H21)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="J21" s="10"/>
@@ -7239,7 +7269,7 @@
         <v>70</v>
       </c>
       <c r="I22" s="8">
-        <f>LEN(H22)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="J22" s="10"/>
@@ -7272,7 +7302,7 @@
         <v>72</v>
       </c>
       <c r="I23" s="8">
-        <f>LEN(H23)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="J23" s="10"/>
@@ -7305,7 +7335,7 @@
         <v>74</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" ref="I24:I33" si="1">LEN(H24)</f>
+        <f t="shared" ref="I24:I60" si="1">LEN(H24)</f>
         <v>20</v>
       </c>
       <c r="J24" s="10"/>
@@ -7634,7 +7664,7 @@
         <v>93</v>
       </c>
       <c r="I34" s="8">
-        <f>LEN(H34)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J34" s="13">
@@ -7668,7 +7698,7 @@
         <v>95</v>
       </c>
       <c r="I35" s="8">
-        <f>LEN(H35)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J35" s="13">
@@ -7702,7 +7732,7 @@
         <v>97</v>
       </c>
       <c r="I36" s="8">
-        <f>LEN(H36)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J36" s="13">
@@ -7736,7 +7766,7 @@
         <v>99</v>
       </c>
       <c r="I37" s="8">
-        <f>LEN(H37)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="J37" s="13">
@@ -7770,7 +7800,7 @@
         <v>101</v>
       </c>
       <c r="I38" s="8">
-        <f>LEN(H38)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J38" s="13">
@@ -7804,7 +7834,7 @@
         <v>103</v>
       </c>
       <c r="I39" s="8">
-        <f>LEN(H39)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J39" s="13">
@@ -7838,7 +7868,7 @@
         <v>105</v>
       </c>
       <c r="I40" s="8">
-        <f>LEN(H40)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J40" s="13">
@@ -7875,7 +7905,7 @@
         <v>108</v>
       </c>
       <c r="I41" s="8">
-        <f>LEN(H41)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J41" s="13"/>
@@ -7908,7 +7938,7 @@
         <v>110</v>
       </c>
       <c r="I42" s="8">
-        <f>LEN(H42)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="J42" s="13"/>
@@ -7943,7 +7973,7 @@
         <v>112</v>
       </c>
       <c r="I43" s="8">
-        <f>LEN(H43)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J43" s="13"/>
@@ -7978,7 +8008,7 @@
         <v>114</v>
       </c>
       <c r="I44" s="8">
-        <f>LEN(H44)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J44" s="13"/>
@@ -8013,7 +8043,7 @@
         <v>116</v>
       </c>
       <c r="I45" s="8">
-        <f>LEN(H45)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J45" s="13"/>
@@ -8048,7 +8078,7 @@
         <v>118</v>
       </c>
       <c r="I46" s="8">
-        <f>LEN(H46)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J46" s="13"/>
@@ -8083,7 +8113,7 @@
         <v>120</v>
       </c>
       <c r="I47" s="8">
-        <f>LEN(H47)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J47" s="13"/>
@@ -8118,7 +8148,7 @@
         <v>122</v>
       </c>
       <c r="I48" s="8">
-        <f>LEN(H48)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J48" s="13"/>
@@ -8153,7 +8183,7 @@
         <v>124</v>
       </c>
       <c r="I49" s="8">
-        <f>LEN(H49)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J49" s="13"/>
@@ -8188,7 +8218,7 @@
         <v>126</v>
       </c>
       <c r="I50" s="8">
-        <f>LEN(H50)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J50" s="13"/>
@@ -8223,7 +8253,7 @@
         <v>130</v>
       </c>
       <c r="I51" s="8">
-        <f>LEN(H51)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J51" s="13"/>
@@ -8258,7 +8288,7 @@
         <v>132</v>
       </c>
       <c r="I52" s="8">
-        <f>LEN(H52)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J52" s="13"/>
@@ -8293,7 +8323,7 @@
         <v>135</v>
       </c>
       <c r="I53" s="8">
-        <f>LEN(H53)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="J53" s="13"/>
@@ -8328,7 +8358,7 @@
         <v>137</v>
       </c>
       <c r="I54" s="8">
-        <f>LEN(H54)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="J54" s="13"/>
@@ -8363,7 +8393,7 @@
         <v>139</v>
       </c>
       <c r="I55" s="8">
-        <f>LEN(H55)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="J55" s="13"/>
@@ -8398,7 +8428,7 @@
         <v>141</v>
       </c>
       <c r="I56" s="8">
-        <f>LEN(H56)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="J56" s="13"/>
@@ -8433,7 +8463,7 @@
         <v>143</v>
       </c>
       <c r="I57" s="8">
-        <f>LEN(H57)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J57" s="13"/>
@@ -8468,7 +8498,7 @@
         <v>145</v>
       </c>
       <c r="I58" s="8">
-        <f>LEN(H58)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J58" s="13"/>
@@ -8503,7 +8533,7 @@
         <v>147</v>
       </c>
       <c r="I59" s="8">
-        <f>LEN(H59)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="J59" s="13"/>
@@ -8538,7 +8568,7 @@
         <v>149</v>
       </c>
       <c r="I60" s="8">
-        <f>LEN(H60)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J60" s="13"/>
@@ -8573,7 +8603,7 @@
         <v>153</v>
       </c>
       <c r="I61" s="8">
-        <f t="shared" ref="I61:I85" si="2">LEN(H61)</f>
+        <f t="shared" ref="I61:I124" si="2">LEN(H61)</f>
         <v>31</v>
       </c>
       <c r="J61" s="13">
@@ -9546,7 +9576,7 @@
         <v>199</v>
       </c>
       <c r="I86" s="8">
-        <f>LEN(H86)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J86" s="13">
@@ -9583,7 +9613,7 @@
         <v>201</v>
       </c>
       <c r="I87" s="8">
-        <f>LEN(H87)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J87" s="13">
@@ -9620,7 +9650,7 @@
         <v>203</v>
       </c>
       <c r="I88" s="8">
-        <f>LEN(H88)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J88" s="13">
@@ -9657,7 +9687,7 @@
         <v>205</v>
       </c>
       <c r="I89" s="8">
-        <f>LEN(H89)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J89" s="13">
@@ -9694,7 +9724,7 @@
         <v>207</v>
       </c>
       <c r="I90" s="8">
-        <f>LEN(H90)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="J90" s="13">
@@ -9731,7 +9761,7 @@
         <v>209</v>
       </c>
       <c r="I91" s="8">
-        <f>LEN(H91)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J91" s="13">
@@ -9768,7 +9798,7 @@
         <v>211</v>
       </c>
       <c r="I92" s="8">
-        <f>LEN(H92)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="J92" s="13">
@@ -9805,7 +9835,7 @@
         <v>213</v>
       </c>
       <c r="I93" s="8">
-        <f>LEN(H93)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J93" s="13">
@@ -9844,7 +9874,7 @@
         <v>216</v>
       </c>
       <c r="I94" s="8">
-        <f>LEN(H94)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J94" s="13">
@@ -9883,7 +9913,7 @@
         <v>201</v>
       </c>
       <c r="I95" s="8">
-        <f>LEN(H95)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J95" s="13">
@@ -9922,7 +9952,7 @@
         <v>219</v>
       </c>
       <c r="I96" s="8">
-        <f>LEN(H96)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J96" s="13">
@@ -9961,7 +9991,7 @@
         <v>221</v>
       </c>
       <c r="I97" s="8">
-        <f>LEN(H97)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J97" s="13">
@@ -10000,7 +10030,7 @@
         <v>223</v>
       </c>
       <c r="I98" s="8">
-        <f>LEN(H98)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J98" s="13">
@@ -10039,7 +10069,7 @@
         <v>201</v>
       </c>
       <c r="I99" s="8">
-        <f>LEN(H99)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J99" s="13">
@@ -10078,7 +10108,7 @@
         <v>225</v>
       </c>
       <c r="I100" s="8">
-        <f>LEN(H100)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J100" s="13">
@@ -10117,7 +10147,7 @@
         <v>221</v>
       </c>
       <c r="I101" s="8">
-        <f>LEN(H101)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J101" s="13">
@@ -10156,7 +10186,7 @@
         <v>228</v>
       </c>
       <c r="I102" s="8">
-        <f>LEN(H102)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J102" s="13">
@@ -10195,7 +10225,7 @@
         <v>201</v>
       </c>
       <c r="I103" s="8">
-        <f>LEN(H103)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J103" s="13">
@@ -10234,7 +10264,7 @@
         <v>230</v>
       </c>
       <c r="I104" s="8">
-        <f>LEN(H104)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="J104" s="13">
@@ -10273,7 +10303,7 @@
         <v>221</v>
       </c>
       <c r="I105" s="8">
-        <f>LEN(H105)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J105" s="13">
@@ -10312,7 +10342,7 @@
         <v>232</v>
       </c>
       <c r="I106" s="8">
-        <f>LEN(H106)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J106" s="13">
@@ -10351,7 +10381,7 @@
         <v>201</v>
       </c>
       <c r="I107" s="8">
-        <f>LEN(H107)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J107" s="13">
@@ -10390,7 +10420,7 @@
         <v>234</v>
       </c>
       <c r="I108" s="8">
-        <f>LEN(H108)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="J108" s="13">
@@ -10429,7 +10459,7 @@
         <v>221</v>
       </c>
       <c r="I109" s="8">
-        <f>LEN(H109)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J109" s="13">
@@ -10466,7 +10496,7 @@
         <v>237</v>
       </c>
       <c r="I110" s="8">
-        <f>LEN(H110)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="J110" s="13"/>
@@ -10499,7 +10529,7 @@
         <v>238</v>
       </c>
       <c r="I111" s="8">
-        <f>LEN(H111)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J111" s="13"/>
@@ -10532,7 +10562,7 @@
         <v>240</v>
       </c>
       <c r="I112" s="8">
-        <f>LEN(H112)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="J112" s="13"/>
@@ -10565,7 +10595,7 @@
         <v>241</v>
       </c>
       <c r="I113" s="8">
-        <f>LEN(H113)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="J113" s="13"/>
@@ -10598,7 +10628,7 @@
         <v>243</v>
       </c>
       <c r="I114" s="8">
-        <f>LEN(H114)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="J114" s="13"/>
@@ -10631,7 +10661,7 @@
         <v>244</v>
       </c>
       <c r="I115" s="8">
-        <f>LEN(H115)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="J115" s="13"/>
@@ -10664,7 +10694,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="8">
-        <f>LEN(H116)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="J116" s="13"/>
@@ -10697,7 +10727,7 @@
         <v>247</v>
       </c>
       <c r="I117" s="8">
-        <f>LEN(H117)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="J117" s="13"/>
@@ -10728,7 +10758,7 @@
         <v>250</v>
       </c>
       <c r="I118" s="8">
-        <f>LEN(H118)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="J118" s="13"/>
@@ -10763,7 +10793,7 @@
         <v>250</v>
       </c>
       <c r="I119" s="8">
-        <f>LEN(H119)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="J119" s="13"/>
@@ -10798,7 +10828,7 @@
         <v>252</v>
       </c>
       <c r="I120" s="8">
-        <f>LEN(H120)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="J120" s="13"/>
@@ -10833,7 +10863,7 @@
         <v>254</v>
       </c>
       <c r="I121" s="8">
-        <f>LEN(H121)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="J121" s="13"/>
@@ -10868,7 +10898,7 @@
         <v>256</v>
       </c>
       <c r="I122" s="8">
-        <f>LEN(H122)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="J122" s="13"/>
@@ -10903,7 +10933,7 @@
         <v>258</v>
       </c>
       <c r="I123" s="8">
-        <f>LEN(H123)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J123" s="13"/>
@@ -10938,7 +10968,7 @@
         <v>261</v>
       </c>
       <c r="I124" s="8">
-        <f>LEN(H124)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J124" s="13"/>
@@ -10975,7 +11005,7 @@
         <v>264</v>
       </c>
       <c r="I125" s="8">
-        <f>LEN(H125)</f>
+        <f t="shared" ref="I125:I185" si="3">LEN(H125)</f>
         <v>28</v>
       </c>
       <c r="J125" s="13"/>
@@ -11012,7 +11042,7 @@
         <v>266</v>
       </c>
       <c r="I126" s="8">
-        <f>LEN(H126)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="J126" s="13"/>
@@ -11049,7 +11079,7 @@
         <v>268</v>
       </c>
       <c r="I127" s="8">
-        <f>LEN(H127)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J127" s="13"/>
@@ -11086,7 +11116,7 @@
         <v>270</v>
       </c>
       <c r="I128" s="8">
-        <f>LEN(H128)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J128" s="13"/>
@@ -11123,7 +11153,7 @@
         <v>272</v>
       </c>
       <c r="I129" s="8">
-        <f>LEN(H129)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="J129" s="13"/>
@@ -11160,7 +11190,7 @@
         <v>274</v>
       </c>
       <c r="I130" s="8">
-        <f>LEN(H130)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="J130" s="13"/>
@@ -11197,7 +11227,7 @@
         <v>276</v>
       </c>
       <c r="I131" s="8">
-        <f>LEN(H131)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="J131" s="13"/>
@@ -11234,7 +11264,7 @@
         <v>278</v>
       </c>
       <c r="I132" s="8">
-        <f>LEN(H132)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J132" s="13"/>
@@ -11271,7 +11301,7 @@
         <v>280</v>
       </c>
       <c r="I133" s="8">
-        <f>LEN(H133)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="J133" s="13"/>
@@ -11308,7 +11338,7 @@
         <v>282</v>
       </c>
       <c r="I134" s="8">
-        <f>LEN(H134)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="J134" s="13"/>
@@ -11345,7 +11375,7 @@
         <v>284</v>
       </c>
       <c r="I135" s="8">
-        <f>LEN(H135)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="J135" s="13"/>
@@ -11382,7 +11412,7 @@
         <v>286</v>
       </c>
       <c r="I136" s="8">
-        <f>LEN(H136)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="J136" s="13"/>
@@ -11419,7 +11449,7 @@
         <v>288</v>
       </c>
       <c r="I137" s="8">
-        <f>LEN(H137)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="J137" s="13"/>
@@ -11454,7 +11484,7 @@
         <v>290</v>
       </c>
       <c r="I138" s="8">
-        <f>LEN(H138)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="J138" s="13"/>
@@ -11489,7 +11519,7 @@
         <v>293</v>
       </c>
       <c r="I139" s="8">
-        <f>LEN(H139)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="J139" s="13"/>
@@ -11528,7 +11558,7 @@
         <v>296</v>
       </c>
       <c r="I140" s="8">
-        <f>LEN(H140)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J140" s="13"/>
@@ -11561,7 +11591,7 @@
         <v>298</v>
       </c>
       <c r="I141" s="8">
-        <f>LEN(H141)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J141" s="13"/>
@@ -11594,7 +11624,7 @@
         <v>300</v>
       </c>
       <c r="I142" s="8">
-        <f>LEN(H142)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J142" s="13"/>
@@ -11627,7 +11657,7 @@
         <v>302</v>
       </c>
       <c r="I143" s="8">
-        <f>LEN(H143)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J143" s="13"/>
@@ -11660,7 +11690,7 @@
         <v>304</v>
       </c>
       <c r="I144" s="8">
-        <f>LEN(H144)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="J144" s="13"/>
@@ -11693,7 +11723,7 @@
         <v>306</v>
       </c>
       <c r="I145" s="8">
-        <f>LEN(H145)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J145" s="13"/>
@@ -11726,7 +11756,7 @@
         <v>308</v>
       </c>
       <c r="I146" s="8">
-        <f>LEN(H146)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J146" s="13"/>
@@ -11759,7 +11789,7 @@
         <v>310</v>
       </c>
       <c r="I147" s="8">
-        <f>LEN(H147)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="J147" s="13"/>
@@ -11792,7 +11822,7 @@
         <v>312</v>
       </c>
       <c r="I148" s="8">
-        <f>LEN(H148)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="J148" s="13"/>
@@ -11825,7 +11855,7 @@
         <v>314</v>
       </c>
       <c r="I149" s="8">
-        <f>LEN(H149)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="J149" s="13"/>
@@ -11858,7 +11888,7 @@
         <v>316</v>
       </c>
       <c r="I150" s="8">
-        <f>LEN(H150)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J150" s="13"/>
@@ -11891,7 +11921,7 @@
         <v>318</v>
       </c>
       <c r="I151" s="8">
-        <f>LEN(H151)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="J151" s="13"/>
@@ -11924,7 +11954,7 @@
         <v>320</v>
       </c>
       <c r="I152" s="8">
-        <f>LEN(H152)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J152" s="13"/>
@@ -11957,7 +11987,7 @@
         <v>322</v>
       </c>
       <c r="I153" s="8">
-        <f>LEN(H153)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="J153" s="13"/>
@@ -11990,7 +12020,7 @@
         <v>325</v>
       </c>
       <c r="I154" s="8">
-        <f>LEN(H154)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J154" s="13"/>
@@ -12023,7 +12053,7 @@
         <v>327</v>
       </c>
       <c r="I155" s="8">
-        <f>LEN(H155)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J155" s="13"/>
@@ -12056,7 +12086,7 @@
         <v>329</v>
       </c>
       <c r="I156" s="8">
-        <f>LEN(H156)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J156" s="13"/>
@@ -12089,7 +12119,7 @@
         <v>331</v>
       </c>
       <c r="I157" s="8">
-        <f>LEN(H157)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J157" s="13"/>
@@ -12122,7 +12152,7 @@
         <v>333</v>
       </c>
       <c r="I158" s="8">
-        <f>LEN(H158)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J158" s="13"/>
@@ -12155,7 +12185,7 @@
         <v>335</v>
       </c>
       <c r="I159" s="8">
-        <f>LEN(H159)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J159" s="13"/>
@@ -12188,7 +12218,7 @@
         <v>337</v>
       </c>
       <c r="I160" s="8">
-        <f>LEN(H160)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J160" s="13"/>
@@ -12221,7 +12251,7 @@
         <v>339</v>
       </c>
       <c r="I161" s="8">
-        <f>LEN(H161)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J161" s="13"/>
@@ -12254,7 +12284,7 @@
         <v>341</v>
       </c>
       <c r="I162" s="8">
-        <f>LEN(H162)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J162" s="13"/>
@@ -12287,7 +12317,7 @@
         <v>343</v>
       </c>
       <c r="I163" s="8">
-        <f>LEN(H163)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J163" s="13"/>
@@ -12320,7 +12350,7 @@
         <v>345</v>
       </c>
       <c r="I164" s="8">
-        <f>LEN(H164)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J164" s="13"/>
@@ -12353,7 +12383,7 @@
         <v>347</v>
       </c>
       <c r="I165" s="8">
-        <f>LEN(H165)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J165" s="13"/>
@@ -12382,7 +12412,7 @@
         <v>349</v>
       </c>
       <c r="I166" s="8">
-        <f>LEN(H166)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J166" s="13">
@@ -12415,7 +12445,7 @@
         <v>351</v>
       </c>
       <c r="I167" s="8">
-        <f>LEN(H167)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="J167" s="13"/>
@@ -12444,7 +12474,7 @@
         <v>352</v>
       </c>
       <c r="I168" s="8">
-        <f>LEN(H168)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="J168" s="13"/>
@@ -12475,7 +12505,7 @@
         <v>39</v>
       </c>
       <c r="I169" s="8">
-        <f>LEN(H169)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="J169" s="13"/>
@@ -12506,7 +12536,7 @@
         <v>356</v>
       </c>
       <c r="I170" s="8">
-        <f>LEN(H170)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="J170" s="13"/>
@@ -12537,7 +12567,7 @@
         <v>358</v>
       </c>
       <c r="I171" s="8">
-        <f>LEN(H171)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="J171" s="13"/>
@@ -12568,7 +12598,7 @@
         <v>361</v>
       </c>
       <c r="I172" s="8">
-        <f>LEN(H172)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J172" s="13"/>
@@ -12599,7 +12629,7 @@
         <v>363</v>
       </c>
       <c r="I173" s="8">
-        <f>LEN(H173)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="J173" s="13"/>
@@ -12630,7 +12660,7 @@
         <v>365</v>
       </c>
       <c r="I174" s="8">
-        <f>LEN(H174)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="J174" s="13"/>
@@ -12661,7 +12691,7 @@
         <v>367</v>
       </c>
       <c r="I175" s="8">
-        <f>LEN(H175)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="J175" s="13"/>
@@ -12696,7 +12726,7 @@
         <v>370</v>
       </c>
       <c r="I176" s="8">
-        <f>LEN(H176)</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J176" s="13"/>
@@ -12731,7 +12761,7 @@
         <v>372</v>
       </c>
       <c r="I177" s="8">
-        <f>LEN(H177)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="J177" s="13"/>
@@ -12766,7 +12796,7 @@
         <v>374</v>
       </c>
       <c r="I178" s="8">
-        <f>LEN(H178)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="J178" s="13"/>
@@ -12801,7 +12831,7 @@
         <v>376</v>
       </c>
       <c r="I179" s="8">
-        <f>LEN(H179)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="J179" s="13"/>
@@ -12836,7 +12866,7 @@
         <v>378</v>
       </c>
       <c r="I180" s="8">
-        <f>LEN(H180)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J180" s="13"/>
@@ -12871,7 +12901,7 @@
         <v>380</v>
       </c>
       <c r="I181" s="8">
-        <f>LEN(H181)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="J181" s="13"/>
@@ -12906,7 +12936,7 @@
         <v>382</v>
       </c>
       <c r="I182" s="8">
-        <f>LEN(H182)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="J182" s="13"/>
@@ -12941,7 +12971,7 @@
         <v>384</v>
       </c>
       <c r="I183" s="8">
-        <f>LEN(H183)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="J183" s="13"/>
@@ -12976,7 +13006,7 @@
         <v>388</v>
       </c>
       <c r="I184" s="8">
-        <f>LEN(H184)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="J184" s="13"/>
@@ -13011,7 +13041,7 @@
         <v>390</v>
       </c>
       <c r="I185" s="8">
-        <f>LEN(H185)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="J185" s="13"/>
@@ -13042,7 +13072,7 @@
         <v>388</v>
       </c>
       <c r="I186" s="8">
-        <f t="shared" ref="I176:I211" si="3">LEN(H186)</f>
+        <f t="shared" ref="I176:I211" si="4">LEN(H186)</f>
         <v>18</v>
       </c>
       <c r="J186" s="13"/>
@@ -13073,7 +13103,7 @@
         <v>390</v>
       </c>
       <c r="I187" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J187" s="13"/>
@@ -13108,7 +13138,7 @@
         <v>370</v>
       </c>
       <c r="I188" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="J188" s="13"/>
@@ -13143,7 +13173,7 @@
         <v>372</v>
       </c>
       <c r="I189" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="J189" s="13"/>
@@ -13178,7 +13208,7 @@
         <v>374</v>
       </c>
       <c r="I190" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J190" s="13"/>
@@ -13213,7 +13243,7 @@
         <v>376</v>
       </c>
       <c r="I191" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="J191" s="13"/>
@@ -13248,7 +13278,7 @@
         <v>378</v>
       </c>
       <c r="I192" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="J192" s="13"/>
@@ -13283,7 +13313,7 @@
         <v>380</v>
       </c>
       <c r="I193" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="J193" s="13"/>
@@ -13318,7 +13348,7 @@
         <v>382</v>
       </c>
       <c r="I194" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="J194" s="13"/>
@@ -13353,7 +13383,7 @@
         <v>384</v>
       </c>
       <c r="I195" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="J195" s="13"/>
@@ -13386,7 +13416,7 @@
         <v>394</v>
       </c>
       <c r="I196" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J196" s="13"/>
@@ -13419,7 +13449,7 @@
         <v>396</v>
       </c>
       <c r="I197" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J197" s="13"/>
@@ -13452,7 +13482,7 @@
         <v>400</v>
       </c>
       <c r="I198" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="J198" s="13"/>
@@ -13487,7 +13517,7 @@
         <v>402</v>
       </c>
       <c r="I199" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J199" s="13"/>
@@ -13520,7 +13550,7 @@
         <v>404</v>
       </c>
       <c r="I200" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="J200" s="13"/>
@@ -13555,7 +13585,7 @@
         <v>20</v>
       </c>
       <c r="I201" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J201" s="13"/>
@@ -13590,7 +13620,7 @@
         <v>24</v>
       </c>
       <c r="I202" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="J202" s="13"/>
@@ -13623,7 +13653,7 @@
         <v>27</v>
       </c>
       <c r="I203" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="J203" s="13"/>
@@ -13636,7 +13666,9 @@
       <c r="A204" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="11"/>
+      <c r="B204" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C204" s="11" t="s">
         <v>28</v>
       </c>
@@ -13654,7 +13686,7 @@
         <v>30</v>
       </c>
       <c r="I204" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="J204" s="13"/>
@@ -13687,7 +13719,7 @@
         <v>33</v>
       </c>
       <c r="I205" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J205" s="13"/>
@@ -13720,7 +13752,7 @@
         <v>36</v>
       </c>
       <c r="I206" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J206" s="13"/>
@@ -13751,7 +13783,7 @@
         <v>408</v>
       </c>
       <c r="I207" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J207" s="13"/>
@@ -13782,7 +13814,7 @@
         <v>410</v>
       </c>
       <c r="I208" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J208" s="13"/>
@@ -13815,7 +13847,7 @@
         <v>413</v>
       </c>
       <c r="I209" s="8">
-        <f>LEN(H209)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="J209" s="13">
@@ -13852,7 +13884,7 @@
         <v>416</v>
       </c>
       <c r="I210" s="8">
-        <f t="shared" ref="I210:I232" si="4">LEN(H210)</f>
+        <f t="shared" ref="I210:I232" si="5">LEN(H210)</f>
         <v>22</v>
       </c>
       <c r="J210" s="13">
@@ -13889,7 +13921,7 @@
         <v>418</v>
       </c>
       <c r="I211" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J211" s="13">
@@ -13926,7 +13958,7 @@
         <v>420</v>
       </c>
       <c r="I212" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J212" s="13">
@@ -13963,7 +13995,7 @@
         <v>422</v>
       </c>
       <c r="I213" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J213" s="13">
@@ -14000,7 +14032,7 @@
         <v>424</v>
       </c>
       <c r="I214" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J214" s="13">
@@ -14037,7 +14069,7 @@
         <v>426</v>
       </c>
       <c r="I215" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J215" s="13">
@@ -14074,7 +14106,7 @@
         <v>428</v>
       </c>
       <c r="I216" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="J216" s="13">
@@ -14111,7 +14143,7 @@
         <v>430</v>
       </c>
       <c r="I217" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J217" s="13">
@@ -14148,7 +14180,7 @@
         <v>432</v>
       </c>
       <c r="I218" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J218" s="13">
@@ -14185,7 +14217,7 @@
         <v>434</v>
       </c>
       <c r="I219" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J219" s="13">
@@ -14222,7 +14254,7 @@
         <v>436</v>
       </c>
       <c r="I220" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J220" s="13">
@@ -14259,7 +14291,7 @@
         <v>438</v>
       </c>
       <c r="I221" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="J221" s="13">
@@ -14296,7 +14328,7 @@
         <v>440</v>
       </c>
       <c r="I222" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J222" s="13">
@@ -14333,7 +14365,7 @@
         <v>442</v>
       </c>
       <c r="I223" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J223" s="13">
@@ -14370,7 +14402,7 @@
         <v>444</v>
       </c>
       <c r="I224" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J224" s="13">
@@ -14407,7 +14439,7 @@
         <v>446</v>
       </c>
       <c r="I225" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J225" s="13">
@@ -14444,7 +14476,7 @@
         <v>448</v>
       </c>
       <c r="I226" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="J226" s="13">
@@ -14481,7 +14513,7 @@
         <v>450</v>
       </c>
       <c r="I227" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J227" s="13">
@@ -14518,7 +14550,7 @@
         <v>452</v>
       </c>
       <c r="I228" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="J228" s="13">
@@ -14555,7 +14587,7 @@
         <v>454</v>
       </c>
       <c r="I229" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J229" s="13">
@@ -14592,7 +14624,7 @@
         <v>456</v>
       </c>
       <c r="I230" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="J230" s="13">
@@ -14629,7 +14661,7 @@
         <v>458</v>
       </c>
       <c r="I231" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="J231" s="13">
@@ -14668,7 +14700,7 @@
         <v>462</v>
       </c>
       <c r="I232" s="8">
-        <f t="shared" ref="I232:I280" si="5">LEN(H232)</f>
+        <f t="shared" ref="I232:I295" si="6">LEN(H232)</f>
         <v>31</v>
       </c>
       <c r="J232" s="13"/>
@@ -14703,7 +14735,7 @@
         <v>464</v>
       </c>
       <c r="I233" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="J233" s="13"/>
@@ -14738,7 +14770,7 @@
         <v>20</v>
       </c>
       <c r="I234" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="J234" s="13"/>
@@ -14773,7 +14805,7 @@
         <v>24</v>
       </c>
       <c r="I235" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="J235" s="13"/>
@@ -14806,7 +14838,7 @@
         <v>27</v>
       </c>
       <c r="I236" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J236" s="13"/>
@@ -14819,7 +14851,9 @@
       <c r="A237" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="11"/>
+      <c r="B237" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C237" s="11" t="s">
         <v>28</v>
       </c>
@@ -14837,7 +14871,7 @@
         <v>27</v>
       </c>
       <c r="I237" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J237" s="13"/>
@@ -14870,7 +14904,7 @@
         <v>27</v>
       </c>
       <c r="I238" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J238" s="13"/>
@@ -14903,7 +14937,7 @@
         <v>36</v>
       </c>
       <c r="I239" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J239" s="13"/>
@@ -14930,7 +14964,7 @@
         <v>467</v>
       </c>
       <c r="I240" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J240" s="13"/>
@@ -14957,7 +14991,7 @@
         <v>467</v>
       </c>
       <c r="I241" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J241" s="13"/>
@@ -14984,7 +15018,7 @@
         <v>468</v>
       </c>
       <c r="I242" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J242" s="13"/>
@@ -15011,7 +15045,7 @@
         <v>469</v>
       </c>
       <c r="I243" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J243" s="13"/>
@@ -15040,7 +15074,7 @@
         <v>471</v>
       </c>
       <c r="I244" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J244" s="13"/>
@@ -15069,7 +15103,7 @@
         <v>472</v>
       </c>
       <c r="I245" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J245" s="13"/>
@@ -15098,7 +15132,7 @@
         <v>473</v>
       </c>
       <c r="I246" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="J246" s="13"/>
@@ -15129,7 +15163,7 @@
         <v>476</v>
       </c>
       <c r="I247" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J247" s="13">
@@ -15164,7 +15198,7 @@
         <v>478</v>
       </c>
       <c r="I248" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J248" s="13">
@@ -15199,7 +15233,7 @@
         <v>480</v>
       </c>
       <c r="I249" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="J249" s="13">
@@ -15238,7 +15272,7 @@
         <v>483</v>
       </c>
       <c r="I250" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J250" s="13"/>
@@ -15273,7 +15307,7 @@
         <v>485</v>
       </c>
       <c r="I251" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J251" s="13"/>
@@ -15306,7 +15340,7 @@
         <v>488</v>
       </c>
       <c r="I252" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J252" s="13"/>
@@ -15339,7 +15373,7 @@
         <v>490</v>
       </c>
       <c r="I253" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J253" s="13"/>
@@ -15372,7 +15406,7 @@
         <v>492</v>
       </c>
       <c r="I254" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J254" s="13"/>
@@ -15405,7 +15439,7 @@
         <v>494</v>
       </c>
       <c r="I255" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J255" s="13"/>
@@ -15438,7 +15472,7 @@
         <v>496</v>
       </c>
       <c r="I256" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J256" s="13"/>
@@ -15471,7 +15505,7 @@
         <v>498</v>
       </c>
       <c r="I257" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="J257" s="13"/>
@@ -15504,7 +15538,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J258" s="13"/>
@@ -15537,7 +15571,7 @@
         <v>502</v>
       </c>
       <c r="I259" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="J259" s="13"/>
@@ -15564,7 +15598,7 @@
         <v>504</v>
       </c>
       <c r="I260" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="J260" s="13"/>
@@ -15599,7 +15633,7 @@
         <v>507</v>
       </c>
       <c r="I261" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="J261" s="13"/>
@@ -15634,7 +15668,7 @@
         <v>24</v>
       </c>
       <c r="I262" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="J262" s="13"/>
@@ -15649,7 +15683,9 @@
       <c r="A263" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B263" s="11"/>
+      <c r="B263" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C263" s="11" t="s">
         <v>25</v>
       </c>
@@ -15669,7 +15705,7 @@
         <v>509</v>
       </c>
       <c r="I263" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J263" s="13"/>
@@ -15684,7 +15720,9 @@
       <c r="A264" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B264" s="11"/>
+      <c r="B264" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C264" s="11" t="s">
         <v>28</v>
       </c>
@@ -15704,7 +15742,7 @@
         <v>511</v>
       </c>
       <c r="I264" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="J264" s="13"/>
@@ -15741,7 +15779,7 @@
         <v>33</v>
       </c>
       <c r="I265" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J265" s="13"/>
@@ -15756,7 +15794,9 @@
       <c r="A266" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="11"/>
+      <c r="B266" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C266" s="11" t="s">
         <v>34</v>
       </c>
@@ -15776,7 +15816,7 @@
         <v>513</v>
       </c>
       <c r="I266" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J266" s="13"/>
@@ -15807,7 +15847,7 @@
         <v>516</v>
       </c>
       <c r="I267" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J267" s="13"/>
@@ -15836,7 +15876,7 @@
         <v>517</v>
       </c>
       <c r="I268" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J268" s="13"/>
@@ -15849,7 +15889,9 @@
       <c r="A269" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B269" s="11"/>
+      <c r="B269" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11">
@@ -15865,7 +15907,7 @@
         <v>520</v>
       </c>
       <c r="I269" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="J269" s="13">
@@ -15882,7 +15924,9 @@
       <c r="A270" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B270" s="11"/>
+      <c r="B270" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11">
@@ -15898,7 +15942,7 @@
         <v>522</v>
       </c>
       <c r="I270" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J270" s="13">
@@ -15915,7 +15959,9 @@
       <c r="A271" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B271" s="11"/>
+      <c r="B271" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C271" s="11" t="s">
         <v>25</v>
       </c>
@@ -15933,7 +15979,7 @@
         <v>524</v>
       </c>
       <c r="I271" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J271" s="13">
@@ -15950,7 +15996,9 @@
       <c r="A272" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B272" s="11"/>
+      <c r="B272" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C272" s="11" t="s">
         <v>28</v>
       </c>
@@ -15968,7 +16016,7 @@
         <v>526</v>
       </c>
       <c r="I272" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J272" s="13">
@@ -15985,7 +16033,9 @@
       <c r="A273" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B273" s="11"/>
+      <c r="B273" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C273" s="11" t="s">
         <v>31</v>
       </c>
@@ -16003,7 +16053,7 @@
         <v>528</v>
       </c>
       <c r="I273" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="J273" s="13">
@@ -16020,7 +16070,9 @@
       <c r="A274" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B274" s="11"/>
+      <c r="B274" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C274" s="11" t="s">
         <v>34</v>
       </c>
@@ -16038,7 +16090,7 @@
         <v>530</v>
       </c>
       <c r="I274" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J274" s="13">
@@ -16075,7 +16127,7 @@
         <v>516</v>
       </c>
       <c r="I275" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J275" s="13"/>
@@ -16108,7 +16160,7 @@
         <v>517</v>
       </c>
       <c r="I276" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J276" s="13"/>
@@ -16141,7 +16193,7 @@
         <v>533</v>
       </c>
       <c r="I277" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J277" s="13"/>
@@ -16174,7 +16226,7 @@
         <v>517</v>
       </c>
       <c r="I278" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="J278" s="13"/>
@@ -16201,7 +16253,7 @@
         <v>536</v>
       </c>
       <c r="I279" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J279" s="13"/>
@@ -16228,7 +16280,7 @@
         <v>538</v>
       </c>
       <c r="I280" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J280" s="13"/>
@@ -16263,7 +16315,7 @@
         <v>542</v>
       </c>
       <c r="I281" s="8">
-        <f>LEN(H281)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="J281" s="13"/>
@@ -16296,7 +16348,7 @@
         <v>544</v>
       </c>
       <c r="I282" s="8">
-        <f>LEN(H282)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J282" s="13"/>
@@ -16325,7 +16377,7 @@
         <v>546</v>
       </c>
       <c r="I283" s="8">
-        <f>LEN(H283)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J283" s="13"/>
@@ -16354,7 +16406,7 @@
         <v>547</v>
       </c>
       <c r="I284" s="8">
-        <f>LEN(H284)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="J284" s="13"/>
@@ -16381,7 +16433,7 @@
         <v>548</v>
       </c>
       <c r="I285" s="8">
-        <f>LEN(H285)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="J285" s="13"/>
@@ -16410,7 +16462,7 @@
         <v>551</v>
       </c>
       <c r="I286" s="8">
-        <f>LEN(H286)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J286" s="13"/>
@@ -16439,7 +16491,7 @@
         <v>553</v>
       </c>
       <c r="I287" s="8">
-        <f>LEN(H287)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="J287" s="13"/>
@@ -16468,7 +16520,7 @@
         <v>555</v>
       </c>
       <c r="I288" s="8">
-        <f>LEN(H288)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="J288" s="13"/>
@@ -16497,7 +16549,7 @@
         <v>556</v>
       </c>
       <c r="I289" s="8">
-        <f>LEN(H289)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="J289" s="13"/>
@@ -16530,7 +16582,7 @@
         <v>559</v>
       </c>
       <c r="I290" s="8">
-        <f>LEN(H290)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="J290" s="13"/>
@@ -16563,7 +16615,7 @@
         <v>561</v>
       </c>
       <c r="I291" s="8">
-        <f>LEN(H291)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="J291" s="13"/>
@@ -16596,7 +16648,7 @@
         <v>563</v>
       </c>
       <c r="I292" s="8">
-        <f>LEN(H292)</f>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J292" s="13"/>
@@ -16629,7 +16681,7 @@
         <v>565</v>
       </c>
       <c r="I293" s="8">
-        <f>LEN(H293)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="J293" s="13"/>
@@ -16662,7 +16714,7 @@
         <v>568</v>
       </c>
       <c r="I294" s="8">
-        <f>LEN(H294)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="J294" s="13"/>
@@ -16695,7 +16747,7 @@
         <v>570</v>
       </c>
       <c r="I295" s="8">
-        <f>LEN(H295)</f>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="J295" s="13"/>
@@ -16831,7 +16883,7 @@
         <v>579</v>
       </c>
       <c r="I299" s="8">
-        <f t="shared" ref="I299:I324" si="6">LEN(H299)</f>
+        <f t="shared" ref="I299:I324" si="7">LEN(H299)</f>
         <v>39</v>
       </c>
       <c r="J299" s="13"/>
@@ -16864,7 +16916,7 @@
         <v>580</v>
       </c>
       <c r="I300" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="J300" s="13"/>
@@ -16897,7 +16949,7 @@
         <v>579</v>
       </c>
       <c r="I301" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="J301" s="13"/>
@@ -16930,7 +16982,7 @@
         <v>581</v>
       </c>
       <c r="I302" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J302" s="13"/>
@@ -16963,7 +17015,7 @@
         <v>582</v>
       </c>
       <c r="I303" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="J303" s="13"/>
@@ -16996,7 +17048,7 @@
         <v>583</v>
       </c>
       <c r="I304" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J304" s="13"/>
@@ -17029,7 +17081,7 @@
         <v>584</v>
       </c>
       <c r="I305" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J305" s="13"/>
@@ -17062,7 +17114,7 @@
         <v>585</v>
       </c>
       <c r="I306" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="J306" s="13"/>
@@ -17095,7 +17147,7 @@
         <v>586</v>
       </c>
       <c r="I307" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="J307" s="13"/>
@@ -17128,7 +17180,7 @@
         <v>587</v>
       </c>
       <c r="I308" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="J308" s="13"/>
@@ -17161,7 +17213,7 @@
         <v>588</v>
       </c>
       <c r="I309" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="J309" s="13"/>
@@ -17194,7 +17246,7 @@
         <v>589</v>
       </c>
       <c r="I310" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="J310" s="13"/>
@@ -17225,7 +17277,7 @@
         <v>592</v>
       </c>
       <c r="I311" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="J311" s="13"/>
@@ -17256,7 +17308,7 @@
         <v>594</v>
       </c>
       <c r="I312" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="J312" s="13"/>
@@ -17289,7 +17341,7 @@
         <v>596</v>
       </c>
       <c r="I313" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="J313" s="13"/>
@@ -17322,7 +17374,7 @@
         <v>598</v>
       </c>
       <c r="I314" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="J314" s="13"/>
@@ -17355,7 +17407,7 @@
         <v>600</v>
       </c>
       <c r="I315" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="J315" s="13"/>
@@ -17388,7 +17440,7 @@
         <v>602</v>
       </c>
       <c r="I316" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="J316" s="13"/>
@@ -17421,8 +17473,8 @@
         <v>604</v>
       </c>
       <c r="I317" s="8">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="J317" s="13"/>
       <c r="K317" s="13"/>
@@ -17454,7 +17506,7 @@
         <v>606</v>
       </c>
       <c r="I318" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="J318" s="13"/>
@@ -17487,7 +17539,7 @@
         <v>608</v>
       </c>
       <c r="I319" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="J319" s="13"/>
@@ -17520,8 +17572,8 @@
         <v>610</v>
       </c>
       <c r="I320" s="8">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="7"/>
+        <v>51</v>
       </c>
       <c r="J320" s="13"/>
       <c r="K320" s="13"/>
@@ -17553,7 +17605,7 @@
         <v>612</v>
       </c>
       <c r="I321" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="J321" s="13"/>
@@ -17586,7 +17638,7 @@
         <v>614</v>
       </c>
       <c r="I322" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="J322" s="13"/>
@@ -17619,7 +17671,7 @@
         <v>616</v>
       </c>
       <c r="I323" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="J323" s="13"/>
@@ -17652,7 +17704,7 @@
         <v>618</v>
       </c>
       <c r="I324" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="J324" s="13"/>
@@ -17685,7 +17737,7 @@
         <v>620</v>
       </c>
       <c r="I325" s="8">
-        <f t="shared" ref="I325:I377" si="7">LEN(H325)</f>
+        <f t="shared" ref="I325:I388" si="8">LEN(H325)</f>
         <v>54</v>
       </c>
       <c r="J325" s="13"/>
@@ -17718,7 +17770,7 @@
         <v>622</v>
       </c>
       <c r="I326" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="J326" s="13"/>
@@ -17751,7 +17803,7 @@
         <v>624</v>
       </c>
       <c r="I327" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="J327" s="13"/>
@@ -17784,7 +17836,7 @@
         <v>626</v>
       </c>
       <c r="I328" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="J328" s="13"/>
@@ -17817,7 +17869,7 @@
         <v>628</v>
       </c>
       <c r="I329" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="J329" s="13"/>
@@ -17850,7 +17902,7 @@
         <v>630</v>
       </c>
       <c r="I330" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="J330" s="13"/>
@@ -17883,7 +17935,7 @@
         <v>632</v>
       </c>
       <c r="I331" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="J331" s="13"/>
@@ -17916,7 +17968,7 @@
         <v>634</v>
       </c>
       <c r="I332" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="J332" s="13"/>
@@ -17949,7 +18001,7 @@
         <v>636</v>
       </c>
       <c r="I333" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="J333" s="13"/>
@@ -17982,7 +18034,7 @@
         <v>638</v>
       </c>
       <c r="I334" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J334" s="13"/>
@@ -18013,7 +18065,7 @@
         <v>30</v>
       </c>
       <c r="I335" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J335" s="13"/>
@@ -18046,7 +18098,7 @@
         <v>33</v>
       </c>
       <c r="I336" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="J336" s="13"/>
@@ -18079,7 +18131,7 @@
         <v>36</v>
       </c>
       <c r="I337" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="J337" s="13"/>
@@ -18112,7 +18164,7 @@
         <v>641</v>
       </c>
       <c r="I338" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="J338" s="13"/>
@@ -18145,7 +18197,7 @@
         <v>643</v>
       </c>
       <c r="I339" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="J339" s="13"/>
@@ -18180,7 +18232,7 @@
         <v>646</v>
       </c>
       <c r="I340" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="J340" s="13"/>
@@ -18215,7 +18267,7 @@
         <v>648</v>
       </c>
       <c r="I341" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="J341" s="13"/>
@@ -18246,7 +18298,7 @@
         <v>651</v>
       </c>
       <c r="I342" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J342" s="13"/>
@@ -18277,7 +18329,7 @@
         <v>653</v>
       </c>
       <c r="I343" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J343" s="13"/>
@@ -18304,7 +18356,7 @@
         <v>655</v>
       </c>
       <c r="I344" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="J344" s="13"/>
@@ -18335,7 +18387,7 @@
         <v>656</v>
       </c>
       <c r="I345" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J345" s="13"/>
@@ -18366,7 +18418,7 @@
         <v>657</v>
       </c>
       <c r="I346" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="J346" s="13"/>
@@ -18405,7 +18457,7 @@
         <v>660</v>
       </c>
       <c r="I347" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="J347" s="13"/>
@@ -18440,7 +18492,7 @@
         <v>662</v>
       </c>
       <c r="I348" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="J348" s="13"/>
@@ -18475,7 +18527,7 @@
         <v>664</v>
       </c>
       <c r="I349" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="J349" s="13"/>
@@ -18510,7 +18562,7 @@
         <v>666</v>
       </c>
       <c r="I350" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="J350" s="13"/>
@@ -18545,7 +18597,7 @@
         <v>668</v>
       </c>
       <c r="I351" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="J351" s="13"/>
@@ -18580,7 +18632,7 @@
         <v>670</v>
       </c>
       <c r="I352" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="J352" s="13"/>
@@ -18615,7 +18667,7 @@
         <v>672</v>
       </c>
       <c r="I353" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="J353" s="13"/>
@@ -18650,7 +18702,7 @@
         <v>674</v>
       </c>
       <c r="I354" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="J354" s="13"/>
@@ -18685,7 +18737,7 @@
         <v>677</v>
       </c>
       <c r="I355" s="8">
-        <f>LEN(H355)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J355" s="13">
@@ -18724,7 +18776,7 @@
         <v>679</v>
       </c>
       <c r="I356" s="8">
-        <f>LEN(H356)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="J356" s="13">
@@ -18763,7 +18815,7 @@
         <v>681</v>
       </c>
       <c r="I357" s="8">
-        <f>LEN(H357)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J357" s="13">
@@ -18802,7 +18854,7 @@
         <v>683</v>
       </c>
       <c r="I358" s="8">
-        <f>LEN(H358)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="J358" s="13">
@@ -18841,7 +18893,7 @@
         <v>685</v>
       </c>
       <c r="I359" s="8">
-        <f>LEN(H359)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="J359" s="13">
@@ -18880,7 +18932,7 @@
         <v>687</v>
       </c>
       <c r="I360" s="8">
-        <f>LEN(H360)</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="J360" s="13">
@@ -18919,7 +18971,7 @@
         <v>689</v>
       </c>
       <c r="I361" s="8">
-        <f>LEN(H361)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J361" s="13">
@@ -18958,7 +19010,7 @@
         <v>691</v>
       </c>
       <c r="I362" s="8">
-        <f>LEN(H362)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="J362" s="13">
@@ -18997,7 +19049,7 @@
         <v>693</v>
       </c>
       <c r="I363" s="8">
-        <f>LEN(H363)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="J363" s="13">
@@ -19036,7 +19088,7 @@
         <v>695</v>
       </c>
       <c r="I364" s="8">
-        <f>LEN(H364)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J364" s="13">
@@ -19075,7 +19127,7 @@
         <v>697</v>
       </c>
       <c r="I365" s="8">
-        <f>LEN(H365)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J365" s="13">
@@ -19114,7 +19166,7 @@
         <v>699</v>
       </c>
       <c r="I366" s="8">
-        <f>LEN(H366)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="J366" s="13">
@@ -19149,7 +19201,7 @@
         <v>702</v>
       </c>
       <c r="I367" s="8">
-        <f>LEN(H367)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="J367" s="13">
@@ -19184,7 +19236,7 @@
         <v>704</v>
       </c>
       <c r="I368" s="8">
-        <f>LEN(H368)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="J368" s="13">
@@ -19219,7 +19271,7 @@
         <v>706</v>
       </c>
       <c r="I369" s="8">
-        <f>LEN(H369)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="J369" s="13">
@@ -19254,7 +19306,7 @@
         <v>708</v>
       </c>
       <c r="I370" s="8">
-        <f>LEN(H370)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="J370" s="13">
@@ -19289,7 +19341,7 @@
         <v>710</v>
       </c>
       <c r="I371" s="8">
-        <f>LEN(H371)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J371" s="13">
@@ -19326,7 +19378,7 @@
         <v>713</v>
       </c>
       <c r="I372" s="8">
-        <f>LEN(H372)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J372" s="13">
@@ -19361,7 +19413,7 @@
         <v>715</v>
       </c>
       <c r="I373" s="8">
-        <f>LEN(H373)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J373" s="13">
@@ -19398,7 +19450,7 @@
         <v>717</v>
       </c>
       <c r="I374" s="8">
-        <f>LEN(H374)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="J374" s="13">
@@ -19437,7 +19489,7 @@
         <v>720</v>
       </c>
       <c r="I375" s="8">
-        <f>LEN(H375)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J375" s="13"/>
@@ -19472,7 +19524,7 @@
         <v>722</v>
       </c>
       <c r="I376" s="8">
-        <f>LEN(H376)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J376" s="13"/>
@@ -19507,7 +19559,7 @@
         <v>724</v>
       </c>
       <c r="I377" s="8">
-        <f>LEN(H377)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J377" s="13"/>
@@ -19542,7 +19594,7 @@
         <v>726</v>
       </c>
       <c r="I378" s="8">
-        <f>LEN(H378)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="J378" s="13"/>
@@ -19577,7 +19629,7 @@
         <v>728</v>
       </c>
       <c r="I379" s="8">
-        <f>LEN(H379)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J379" s="13"/>
@@ -19612,7 +19664,7 @@
         <v>730</v>
       </c>
       <c r="I380" s="8">
-        <f>LEN(H380)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="J380" s="13"/>
@@ -19647,7 +19699,7 @@
         <v>732</v>
       </c>
       <c r="I381" s="8">
-        <f>LEN(H381)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J381" s="13"/>
@@ -19682,7 +19734,7 @@
         <v>734</v>
       </c>
       <c r="I382" s="8">
-        <f>LEN(H382)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J382" s="13"/>
@@ -19717,7 +19769,7 @@
         <v>736</v>
       </c>
       <c r="I383" s="8">
-        <f>LEN(H383)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="J383" s="13"/>
@@ -19752,7 +19804,7 @@
         <v>738</v>
       </c>
       <c r="I384" s="8">
-        <f>LEN(H384)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J384" s="13"/>
@@ -19787,7 +19839,7 @@
         <v>740</v>
       </c>
       <c r="I385" s="8">
-        <f>LEN(H385)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J385" s="13"/>
@@ -19818,7 +19870,7 @@
         <v>742</v>
       </c>
       <c r="I386" s="8">
-        <f>LEN(H386)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="J386" s="13"/>
@@ -19849,7 +19901,7 @@
         <v>745</v>
       </c>
       <c r="I387" s="8">
-        <f>LEN(H387)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="J387" s="13"/>
@@ -19882,7 +19934,7 @@
         <v>748</v>
       </c>
       <c r="I388" s="8">
-        <f>LEN(H388)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="J388" s="13"/>
@@ -19915,7 +19967,7 @@
         <v>750</v>
       </c>
       <c r="I389" s="8">
-        <f>LEN(H389)</f>
+        <f t="shared" ref="I389:I398" si="9">LEN(H389)</f>
         <v>25</v>
       </c>
       <c r="J389" s="13"/>
@@ -19944,7 +19996,7 @@
         <v>752</v>
       </c>
       <c r="I390" s="8">
-        <f>LEN(H390)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J390" s="13"/>
@@ -19979,7 +20031,7 @@
         <v>754</v>
       </c>
       <c r="I391" s="8">
-        <f>LEN(H391)</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="J391" s="13"/>
@@ -20014,7 +20066,7 @@
         <v>756</v>
       </c>
       <c r="I392" s="8">
-        <f>LEN(H392)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="J392" s="13"/>
@@ -20049,7 +20101,7 @@
         <v>758</v>
       </c>
       <c r="I393" s="8">
-        <f>LEN(H393)</f>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J393" s="13"/>
@@ -20084,7 +20136,7 @@
         <v>760</v>
       </c>
       <c r="I394" s="8">
-        <f>LEN(H394)</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="J394" s="13"/>
@@ -20117,7 +20169,7 @@
         <v>763</v>
       </c>
       <c r="I395" s="8">
-        <f>LEN(H395)</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="J395" s="13"/>
@@ -20146,7 +20198,7 @@
         <v>765</v>
       </c>
       <c r="I396" s="8">
-        <f>LEN(H396)</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="J396" s="13"/>
@@ -20177,7 +20229,7 @@
         <v>768</v>
       </c>
       <c r="I397" s="8">
-        <f>LEN(H397)</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="J397" s="13"/>
@@ -20208,7 +20260,7 @@
         <v>770</v>
       </c>
       <c r="I398" s="8">
-        <f>LEN(H398)</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="J398" s="13"/>
@@ -20243,7 +20295,7 @@
         <v>773</v>
       </c>
       <c r="I399" s="8">
-        <f t="shared" ref="I399:I422" si="8">LEN(H399)</f>
+        <f t="shared" ref="I399:I425" si="10">LEN(H399)</f>
         <v>18</v>
       </c>
       <c r="J399" s="13"/>
@@ -20278,7 +20330,7 @@
         <v>775</v>
       </c>
       <c r="I400" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J400" s="13"/>
@@ -20307,7 +20359,7 @@
         <v>778</v>
       </c>
       <c r="I401" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="J401" s="13"/>
@@ -20340,7 +20392,7 @@
         <v>416</v>
       </c>
       <c r="I402" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="J402" s="13"/>
@@ -20373,7 +20425,7 @@
         <v>781</v>
       </c>
       <c r="I403" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="J403" s="13"/>
@@ -20406,7 +20458,7 @@
         <v>783</v>
       </c>
       <c r="I404" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J404" s="13"/>
@@ -20439,7 +20491,7 @@
         <v>785</v>
       </c>
       <c r="I405" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="J405" s="13"/>
@@ -20472,7 +20524,7 @@
         <v>787</v>
       </c>
       <c r="I406" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="J406" s="13"/>
@@ -20505,7 +20557,7 @@
         <v>789</v>
       </c>
       <c r="I407" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="J407" s="13"/>
@@ -20538,7 +20590,7 @@
         <v>792</v>
       </c>
       <c r="I408" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="J408" s="13"/>
@@ -20571,7 +20623,7 @@
         <v>794</v>
       </c>
       <c r="I409" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="J409" s="13"/>
@@ -20604,7 +20656,7 @@
         <v>796</v>
       </c>
       <c r="I410" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="J410" s="13"/>
@@ -20635,7 +20687,7 @@
         <v>799</v>
       </c>
       <c r="I411" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="J411" s="13"/>
@@ -20666,7 +20718,7 @@
         <v>801</v>
       </c>
       <c r="I412" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="J412" s="13"/>
@@ -20697,7 +20749,7 @@
         <v>803</v>
       </c>
       <c r="I413" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="J413" s="13"/>
@@ -20728,7 +20780,7 @@
         <v>805</v>
       </c>
       <c r="I414" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J414" s="13"/>
@@ -20759,7 +20811,7 @@
         <v>807</v>
       </c>
       <c r="I415" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J415" s="13"/>
@@ -20790,7 +20842,7 @@
         <v>809</v>
       </c>
       <c r="I416" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J416" s="13"/>
@@ -20821,7 +20873,7 @@
         <v>811</v>
       </c>
       <c r="I417" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J417" s="13"/>
@@ -20852,7 +20904,7 @@
         <v>813</v>
       </c>
       <c r="I418" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J418" s="13"/>
@@ -20883,7 +20935,7 @@
         <v>815</v>
       </c>
       <c r="I419" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J419" s="13"/>
@@ -20914,7 +20966,7 @@
         <v>817</v>
       </c>
       <c r="I420" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J420" s="13"/>
@@ -20945,7 +20997,7 @@
         <v>819</v>
       </c>
       <c r="I421" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J421" s="13"/>
@@ -20976,7 +21028,7 @@
         <v>821</v>
       </c>
       <c r="I422" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="J422" s="13"/>
@@ -21005,7 +21057,7 @@
         <v>823</v>
       </c>
       <c r="I423" s="8">
-        <f>LEN(H423)</f>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="J423" s="13"/>
@@ -21036,7 +21088,7 @@
         <v>825</v>
       </c>
       <c r="I424" s="8">
-        <f>LEN(H424)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="J424" s="13"/>
@@ -21067,7 +21119,7 @@
         <v>827</v>
       </c>
       <c r="I425" s="8">
-        <f>LEN(H425)</f>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="J425" s="13"/>
@@ -21098,7 +21150,7 @@
         <v>829</v>
       </c>
       <c r="I426" s="8">
-        <f t="shared" ref="I426:I451" si="9">LEN(H426)</f>
+        <f t="shared" ref="I426:I457" si="11">LEN(H426)</f>
         <v>26</v>
       </c>
       <c r="J426" s="13"/>
@@ -21129,7 +21181,7 @@
         <v>831</v>
       </c>
       <c r="I427" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>161</v>
       </c>
       <c r="J427" s="13"/>
@@ -21162,7 +21214,7 @@
         <v>834</v>
       </c>
       <c r="I428" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="J428" s="13">
@@ -21199,7 +21251,7 @@
         <v>836</v>
       </c>
       <c r="I429" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="J429" s="13">
@@ -21236,7 +21288,7 @@
         <v>838</v>
       </c>
       <c r="I430" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="J430" s="13">
@@ -21273,7 +21325,7 @@
         <v>840</v>
       </c>
       <c r="I431" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J431" s="13">
@@ -21310,7 +21362,7 @@
         <v>842</v>
       </c>
       <c r="I432" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="J432" s="13">
@@ -21347,7 +21399,7 @@
         <v>844</v>
       </c>
       <c r="I433" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J433" s="13">
@@ -21382,7 +21434,7 @@
         <v>846</v>
       </c>
       <c r="I434" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="J434" s="13">
@@ -21417,7 +21469,7 @@
         <v>848</v>
       </c>
       <c r="I435" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="J435" s="13">
@@ -21452,7 +21504,7 @@
         <v>850</v>
       </c>
       <c r="I436" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="J436" s="13">
@@ -21487,7 +21539,7 @@
         <v>852</v>
       </c>
       <c r="I437" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="J437" s="13">
@@ -21522,7 +21574,7 @@
         <v>854</v>
       </c>
       <c r="I438" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="J438" s="13">
@@ -21557,7 +21609,7 @@
         <v>856</v>
       </c>
       <c r="I439" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="J439" s="13">
@@ -21592,7 +21644,7 @@
         <v>858</v>
       </c>
       <c r="I440" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="J440" s="13">
@@ -21629,7 +21681,7 @@
         <v>20</v>
       </c>
       <c r="I441" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="J441" s="13">
@@ -21666,7 +21718,7 @@
         <v>862</v>
       </c>
       <c r="I442" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="J442" s="13">
@@ -21703,7 +21755,7 @@
         <v>864</v>
       </c>
       <c r="I443" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="J443" s="13">
@@ -21740,7 +21792,7 @@
         <v>866</v>
       </c>
       <c r="I444" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="J444" s="13">
@@ -21777,7 +21829,7 @@
         <v>868</v>
       </c>
       <c r="I445" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="J445" s="13">
@@ -21814,7 +21866,7 @@
         <v>870</v>
       </c>
       <c r="I446" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="J446" s="13">
@@ -21851,7 +21903,7 @@
         <v>20</v>
       </c>
       <c r="I447" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="J447" s="13">
@@ -21888,7 +21940,7 @@
         <v>36</v>
       </c>
       <c r="I448" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J448" s="13">
@@ -21927,7 +21979,7 @@
         <v>516</v>
       </c>
       <c r="I449" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="J449" s="13">
@@ -21966,7 +22018,7 @@
         <v>517</v>
       </c>
       <c r="I450" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="J450" s="13">
@@ -22005,7 +22057,7 @@
         <v>875</v>
       </c>
       <c r="I451" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42</v>
       </c>
       <c r="J451" s="13">
@@ -22042,7 +22094,7 @@
         <v>533</v>
       </c>
       <c r="I452" s="8">
-        <f>LEN(H452)</f>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="J452" s="13">
@@ -22077,7 +22129,7 @@
         <v>517</v>
       </c>
       <c r="I453" s="8">
-        <f>LEN(H453)</f>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="J453" s="13">
@@ -22112,7 +22164,7 @@
         <v>880</v>
       </c>
       <c r="I454" s="8">
-        <f>LEN(H454)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="J454" s="13"/>
@@ -22143,7 +22195,7 @@
         <v>882</v>
       </c>
       <c r="I455" s="8">
-        <f>LEN(H455)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="J455" s="13"/>
@@ -22174,7 +22226,7 @@
         <v>884</v>
       </c>
       <c r="I456" s="8">
-        <f>LEN(H456)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J456" s="13"/>
@@ -22205,7 +22257,7 @@
         <v>886</v>
       </c>
       <c r="I457" s="8">
-        <f>LEN(H457)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="J457" s="13"/>
@@ -22234,7 +22286,7 @@
         <v>888</v>
       </c>
       <c r="I458" s="8">
-        <f t="shared" ref="I458:I476" si="10">LEN(H458)</f>
+        <f t="shared" ref="I458:I476" si="12">LEN(H458)</f>
         <v>18</v>
       </c>
       <c r="J458" s="13"/>
@@ -22263,7 +22315,7 @@
         <v>889</v>
       </c>
       <c r="I459" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="J459" s="13"/>
@@ -22292,7 +22344,7 @@
         <v>890</v>
       </c>
       <c r="I460" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="J460" s="13"/>
@@ -22323,7 +22375,7 @@
         <v>892</v>
       </c>
       <c r="I461" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="J461" s="13"/>
@@ -22354,7 +22406,7 @@
         <v>894</v>
       </c>
       <c r="I462" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="J462" s="13"/>
@@ -22383,7 +22435,7 @@
         <v>895</v>
       </c>
       <c r="I463" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J463" s="13"/>
@@ -22412,7 +22464,7 @@
         <v>896</v>
       </c>
       <c r="I464" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J464" s="13"/>
@@ -22443,7 +22495,7 @@
         <v>899</v>
       </c>
       <c r="I465" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J465" s="13"/>
@@ -22474,7 +22526,7 @@
         <v>901</v>
       </c>
       <c r="I466" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J466" s="13"/>
@@ -22503,7 +22555,7 @@
         <v>903</v>
       </c>
       <c r="I467" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J467" s="13"/>
@@ -22532,7 +22584,7 @@
         <v>905</v>
       </c>
       <c r="I468" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J468" s="13"/>
@@ -22563,7 +22615,7 @@
         <v>907</v>
       </c>
       <c r="I469" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J469" s="13"/>
@@ -22594,7 +22646,7 @@
         <v>570</v>
       </c>
       <c r="I470" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="J470" s="13"/>
@@ -22625,7 +22677,7 @@
         <v>909</v>
       </c>
       <c r="I471" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J471" s="13"/>
@@ -22658,7 +22710,7 @@
         <v>912</v>
       </c>
       <c r="I472" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J472" s="13"/>
@@ -22691,7 +22743,7 @@
         <v>914</v>
       </c>
       <c r="I473" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J473" s="13"/>
@@ -22720,7 +22772,7 @@
         <v>917</v>
       </c>
       <c r="I474" s="8">
-        <f t="shared" ref="I474:I510" si="11">LEN(H474)</f>
+        <f t="shared" ref="I474:I510" si="13">LEN(H474)</f>
         <v>21</v>
       </c>
       <c r="J474" s="13"/>
@@ -22749,7 +22801,7 @@
         <v>919</v>
       </c>
       <c r="I475" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J475" s="13"/>
@@ -22778,7 +22830,7 @@
         <v>921</v>
       </c>
       <c r="I476" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J476" s="13"/>
@@ -22807,7 +22859,7 @@
         <v>923</v>
       </c>
       <c r="I477" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J477" s="13"/>
@@ -22836,7 +22888,7 @@
         <v>925</v>
       </c>
       <c r="I478" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J478" s="13"/>
@@ -22865,7 +22917,7 @@
         <v>927</v>
       </c>
       <c r="I479" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J479" s="13"/>
@@ -22894,7 +22946,7 @@
         <v>929</v>
       </c>
       <c r="I480" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J480" s="13"/>
@@ -22923,7 +22975,7 @@
         <v>931</v>
       </c>
       <c r="I481" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J481" s="13"/>
@@ -22952,7 +23004,7 @@
         <v>933</v>
       </c>
       <c r="I482" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J482" s="13"/>
@@ -22981,7 +23033,7 @@
         <v>935</v>
       </c>
       <c r="I483" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J483" s="13"/>
@@ -23010,7 +23062,7 @@
         <v>937</v>
       </c>
       <c r="I484" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J484" s="13"/>
@@ -23039,7 +23091,7 @@
         <v>939</v>
       </c>
       <c r="I485" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J485" s="13"/>
@@ -23068,7 +23120,7 @@
         <v>941</v>
       </c>
       <c r="I486" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J486" s="13"/>
@@ -23097,7 +23149,7 @@
         <v>943</v>
       </c>
       <c r="I487" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J487" s="13"/>
@@ -23126,7 +23178,7 @@
         <v>945</v>
       </c>
       <c r="I488" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J488" s="13"/>
@@ -23155,7 +23207,7 @@
         <v>947</v>
       </c>
       <c r="I489" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J489" s="13"/>
@@ -23184,7 +23236,7 @@
         <v>949</v>
       </c>
       <c r="I490" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="J490" s="13"/>
@@ -23213,7 +23265,7 @@
         <v>951</v>
       </c>
       <c r="I491" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J491" s="13"/>
@@ -23242,7 +23294,7 @@
         <v>953</v>
       </c>
       <c r="I492" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J492" s="13"/>
@@ -23271,7 +23323,7 @@
         <v>955</v>
       </c>
       <c r="I493" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J493" s="13"/>
@@ -23300,7 +23352,7 @@
         <v>957</v>
       </c>
       <c r="I494" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J494" s="13"/>
@@ -23329,7 +23381,7 @@
         <v>959</v>
       </c>
       <c r="I495" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J495" s="13"/>
@@ -23358,7 +23410,7 @@
         <v>961</v>
       </c>
       <c r="I496" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J496" s="13"/>
@@ -23387,7 +23439,7 @@
         <v>963</v>
       </c>
       <c r="I497" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J497" s="13"/>
@@ -23416,7 +23468,7 @@
         <v>965</v>
       </c>
       <c r="I498" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J498" s="13"/>
@@ -23445,7 +23497,7 @@
         <v>821</v>
       </c>
       <c r="I499" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="J499" s="13"/>
@@ -23474,7 +23526,7 @@
         <v>819</v>
       </c>
       <c r="I500" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="J500" s="13"/>
@@ -23503,7 +23555,7 @@
         <v>823</v>
       </c>
       <c r="I501" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="J501" s="13"/>
@@ -23538,7 +23590,7 @@
         <v>972</v>
       </c>
       <c r="I502" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J502" s="13"/>
@@ -23573,7 +23625,7 @@
         <v>974</v>
       </c>
       <c r="I503" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="J503" s="13"/>
@@ -23608,7 +23660,7 @@
         <v>976</v>
       </c>
       <c r="I504" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="J504" s="13"/>
@@ -23643,7 +23695,7 @@
         <v>978</v>
       </c>
       <c r="I505" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="J505" s="13"/>
@@ -23678,7 +23730,7 @@
         <v>980</v>
       </c>
       <c r="I506" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="J506" s="13"/>
@@ -23713,7 +23765,7 @@
         <v>982</v>
       </c>
       <c r="I507" s="8">
-        <f>LEN(H507)</f>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="J507" s="13"/>
@@ -23748,7 +23800,7 @@
         <v>984</v>
       </c>
       <c r="I508" s="8">
-        <f>LEN(H508)</f>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="J508" s="13"/>
@@ -23783,7 +23835,7 @@
         <v>986</v>
       </c>
       <c r="I509" s="8">
-        <f>LEN(H509)</f>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="J509" s="13"/>
@@ -23816,7 +23868,7 @@
         <v>989</v>
       </c>
       <c r="I510" s="8">
-        <f t="shared" ref="I510:I567" si="12">LEN(H510)</f>
+        <f t="shared" ref="I510:I573" si="14">LEN(H510)</f>
         <v>20</v>
       </c>
       <c r="J510" s="13"/>
@@ -23849,7 +23901,7 @@
         <v>991</v>
       </c>
       <c r="I511" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J511" s="13"/>
@@ -23882,7 +23934,7 @@
         <v>993</v>
       </c>
       <c r="I512" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="J512" s="13"/>
@@ -23915,7 +23967,7 @@
         <v>995</v>
       </c>
       <c r="I513" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J513" s="13"/>
@@ -23948,7 +24000,7 @@
         <v>997</v>
       </c>
       <c r="I514" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J514" s="13"/>
@@ -23981,7 +24033,7 @@
         <v>999</v>
       </c>
       <c r="I515" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J515" s="13"/>
@@ -24014,7 +24066,7 @@
         <v>1001</v>
       </c>
       <c r="I516" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J516" s="13"/>
@@ -24047,7 +24099,7 @@
         <v>1003</v>
       </c>
       <c r="I517" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J517" s="13"/>
@@ -24080,7 +24132,7 @@
         <v>1005</v>
       </c>
       <c r="I518" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J518" s="13"/>
@@ -24113,7 +24165,7 @@
         <v>1007</v>
       </c>
       <c r="I519" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J519" s="13"/>
@@ -24146,7 +24198,7 @@
         <v>1009</v>
       </c>
       <c r="I520" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J520" s="13"/>
@@ -24179,7 +24231,7 @@
         <v>1011</v>
       </c>
       <c r="I521" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J521" s="13"/>
@@ -24212,7 +24264,7 @@
         <v>1013</v>
       </c>
       <c r="I522" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J522" s="13"/>
@@ -24245,7 +24297,7 @@
         <v>1015</v>
       </c>
       <c r="I523" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J523" s="13"/>
@@ -24278,7 +24330,7 @@
         <v>1017</v>
       </c>
       <c r="I524" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J524" s="13"/>
@@ -24311,7 +24363,7 @@
         <v>1019</v>
       </c>
       <c r="I525" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J525" s="13"/>
@@ -24344,7 +24396,7 @@
         <v>1021</v>
       </c>
       <c r="I526" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J526" s="13"/>
@@ -24377,7 +24429,7 @@
         <v>1023</v>
       </c>
       <c r="I527" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J527" s="13"/>
@@ -24410,7 +24462,7 @@
         <v>1025</v>
       </c>
       <c r="I528" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J528" s="13"/>
@@ -24443,7 +24495,7 @@
         <v>1027</v>
       </c>
       <c r="I529" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J529" s="13"/>
@@ -24476,7 +24528,7 @@
         <v>1029</v>
       </c>
       <c r="I530" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="J530" s="13"/>
@@ -24509,7 +24561,7 @@
         <v>1031</v>
       </c>
       <c r="I531" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J531" s="13"/>
@@ -24542,7 +24594,7 @@
         <v>1033</v>
       </c>
       <c r="I532" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J532" s="13"/>
@@ -24575,7 +24627,7 @@
         <v>1035</v>
       </c>
       <c r="I533" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J533" s="13"/>
@@ -24608,7 +24660,7 @@
         <v>1037</v>
       </c>
       <c r="I534" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J534" s="13"/>
@@ -24641,7 +24693,7 @@
         <v>1039</v>
       </c>
       <c r="I535" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J535" s="13"/>
@@ -24674,7 +24726,7 @@
         <v>1041</v>
       </c>
       <c r="I536" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J536" s="13"/>
@@ -24707,7 +24759,7 @@
         <v>1043</v>
       </c>
       <c r="I537" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="J537" s="13"/>
@@ -24740,7 +24792,7 @@
         <v>1045</v>
       </c>
       <c r="I538" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J538" s="13"/>
@@ -24773,7 +24825,7 @@
         <v>1047</v>
       </c>
       <c r="I539" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J539" s="13"/>
@@ -24806,7 +24858,7 @@
         <v>1049</v>
       </c>
       <c r="I540" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J540" s="13"/>
@@ -24839,7 +24891,7 @@
         <v>1051</v>
       </c>
       <c r="I541" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J541" s="13"/>
@@ -24872,7 +24924,7 @@
         <v>1053</v>
       </c>
       <c r="I542" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="J542" s="13"/>
@@ -24905,7 +24957,7 @@
         <v>1055</v>
       </c>
       <c r="I543" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J543" s="13"/>
@@ -24938,7 +24990,7 @@
         <v>1057</v>
       </c>
       <c r="I544" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J544" s="13"/>
@@ -24971,7 +25023,7 @@
         <v>1059</v>
       </c>
       <c r="I545" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J545" s="13"/>
@@ -25004,7 +25056,7 @@
         <v>1061</v>
       </c>
       <c r="I546" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J546" s="13"/>
@@ -25037,7 +25089,7 @@
         <v>1063</v>
       </c>
       <c r="I547" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="J547" s="13"/>
@@ -25070,7 +25122,7 @@
         <v>1065</v>
       </c>
       <c r="I548" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>41</v>
       </c>
       <c r="J548" s="13"/>
@@ -25103,7 +25155,7 @@
         <v>1067</v>
       </c>
       <c r="I549" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="J549" s="13"/>
@@ -25136,7 +25188,7 @@
         <v>1069</v>
       </c>
       <c r="I550" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J550" s="13"/>
@@ -25169,7 +25221,7 @@
         <v>1071</v>
       </c>
       <c r="I551" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J551" s="13"/>
@@ -25202,7 +25254,7 @@
         <v>1073</v>
       </c>
       <c r="I552" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="J552" s="13"/>
@@ -25235,7 +25287,7 @@
         <v>1075</v>
       </c>
       <c r="I553" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J553" s="13"/>
@@ -25268,7 +25320,7 @@
         <v>1077</v>
       </c>
       <c r="I554" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J554" s="13"/>
@@ -25301,7 +25353,7 @@
         <v>1079</v>
       </c>
       <c r="I555" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J555" s="13"/>
@@ -25334,7 +25386,7 @@
         <v>1081</v>
       </c>
       <c r="I556" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J556" s="13"/>
@@ -25367,7 +25419,7 @@
         <v>1083</v>
       </c>
       <c r="I557" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="J557" s="13"/>
@@ -25396,7 +25448,7 @@
         <v>1086</v>
       </c>
       <c r="I558" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="J558" s="13"/>
@@ -25425,7 +25477,7 @@
         <v>1088</v>
       </c>
       <c r="I559" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J559" s="13"/>
@@ -25454,7 +25506,7 @@
         <v>458</v>
       </c>
       <c r="I560" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J560" s="13"/>
@@ -25483,7 +25535,7 @@
         <v>1091</v>
       </c>
       <c r="I561" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J561" s="13"/>
@@ -25512,7 +25564,7 @@
         <v>349</v>
       </c>
       <c r="I562" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J562" s="13"/>
@@ -25541,7 +25593,7 @@
         <v>1093</v>
       </c>
       <c r="I563" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="J563" s="13"/>
@@ -25574,7 +25626,7 @@
         <v>1096</v>
       </c>
       <c r="I564" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="J564" s="13"/>
@@ -25607,7 +25659,7 @@
         <v>1098</v>
       </c>
       <c r="I565" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="J565" s="13"/>
@@ -25640,7 +25692,7 @@
         <v>1100</v>
       </c>
       <c r="I566" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="J566" s="13"/>
@@ -25673,7 +25725,7 @@
         <v>1102</v>
       </c>
       <c r="I567" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="J567" s="13"/>
@@ -25702,7 +25754,7 @@
         <v>1105</v>
       </c>
       <c r="I568" s="8">
-        <f>LEN(H568)</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="J568" s="13"/>
@@ -25731,7 +25783,7 @@
         <v>1107</v>
       </c>
       <c r="I569" s="8">
-        <f>LEN(H569)</f>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="J569" s="13"/>
@@ -25760,7 +25812,7 @@
         <v>1109</v>
       </c>
       <c r="I570" s="8">
-        <f>LEN(H570)</f>
+        <f t="shared" si="14"/>
         <v>37</v>
       </c>
       <c r="J570" s="13"/>
@@ -25789,7 +25841,7 @@
         <v>1111</v>
       </c>
       <c r="I571" s="8">
-        <f>LEN(H571)</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="J571" s="13"/>
@@ -25820,7 +25872,7 @@
         <v>20</v>
       </c>
       <c r="I572" s="8">
-        <f>LEN(H572)</f>
+        <f t="shared" si="14"/>
         <v>28</v>
       </c>
       <c r="J572" s="13">
@@ -25855,7 +25907,7 @@
         <v>24</v>
       </c>
       <c r="I573" s="8">
-        <f>LEN(H573)</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="J573" s="13">
@@ -25888,7 +25940,7 @@
         <v>27</v>
       </c>
       <c r="I574" s="8">
-        <f>LEN(H574)</f>
+        <f t="shared" ref="I574:I579" si="15">LEN(H574)</f>
         <v>19</v>
       </c>
       <c r="J574" s="13">
@@ -25921,7 +25973,7 @@
         <v>30</v>
       </c>
       <c r="I575" s="8">
-        <f>LEN(H575)</f>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="J575" s="13">
@@ -25956,7 +26008,7 @@
         <v>33</v>
       </c>
       <c r="I576" s="8">
-        <f>LEN(H576)</f>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="J576" s="13">
@@ -25989,7 +26041,7 @@
         <v>1115</v>
       </c>
       <c r="I577" s="8">
-        <f>LEN(H577)</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="J577" s="13">
@@ -26024,7 +26076,7 @@
         <v>1118</v>
       </c>
       <c r="I578" s="8">
-        <f>LEN(H578)</f>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="J578" s="13"/>
@@ -26055,7 +26107,7 @@
         <v>55</v>
       </c>
       <c r="I579" s="8">
-        <f>LEN(H579)</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="J579" s="13"/>
@@ -26090,7 +26142,7 @@
         <v>1122</v>
       </c>
       <c r="I580" s="8">
-        <f t="shared" ref="I580:I618" si="13">LEN(H580)</f>
+        <f t="shared" ref="I580:I618" si="16">LEN(H580)</f>
         <v>20</v>
       </c>
       <c r="J580" s="13"/>
@@ -26125,7 +26177,7 @@
         <v>1124</v>
       </c>
       <c r="I581" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="J581" s="13"/>
@@ -26160,7 +26212,7 @@
         <v>1126</v>
       </c>
       <c r="I582" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J582" s="13"/>
@@ -26195,7 +26247,7 @@
         <v>1128</v>
       </c>
       <c r="I583" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="J583" s="13"/>
@@ -26230,7 +26282,7 @@
         <v>1130</v>
       </c>
       <c r="I584" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>53</v>
       </c>
       <c r="J584" s="13"/>
@@ -26265,7 +26317,7 @@
         <v>1133</v>
       </c>
       <c r="I585" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J585" s="13"/>
@@ -26300,7 +26352,7 @@
         <v>1135</v>
       </c>
       <c r="I586" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J586" s="13"/>
@@ -26331,7 +26383,7 @@
         <v>1137</v>
       </c>
       <c r="I587" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J587" s="13"/>
@@ -26362,7 +26414,7 @@
         <v>1139</v>
       </c>
       <c r="I588" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="J588" s="13"/>
@@ -26395,7 +26447,7 @@
         <v>1141</v>
       </c>
       <c r="I589" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="J589" s="13"/>
@@ -26428,7 +26480,7 @@
         <v>1143</v>
       </c>
       <c r="I590" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="J590" s="13"/>
@@ -26457,7 +26509,7 @@
         <v>1145</v>
       </c>
       <c r="I591" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="J591" s="13"/>
@@ -26486,7 +26538,7 @@
         <v>24</v>
       </c>
       <c r="I592" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>29</v>
       </c>
       <c r="J592" s="13"/>
@@ -26521,7 +26573,7 @@
         <v>1148</v>
       </c>
       <c r="I593" s="8">
-        <f t="shared" ref="I593:I654" si="14">LEN(H593)</f>
+        <f t="shared" ref="I593:I654" si="17">LEN(H593)</f>
         <v>17</v>
       </c>
       <c r="J593" s="13"/>
@@ -26556,7 +26608,7 @@
         <v>1150</v>
       </c>
       <c r="I594" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J594" s="13"/>
@@ -26591,7 +26643,7 @@
         <v>1152</v>
       </c>
       <c r="I595" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="J595" s="13"/>
@@ -26626,7 +26678,7 @@
         <v>1154</v>
       </c>
       <c r="I596" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="J596" s="13"/>
@@ -26661,7 +26713,7 @@
         <v>1156</v>
       </c>
       <c r="I597" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="J597" s="13"/>
@@ -26696,7 +26748,7 @@
         <v>1158</v>
       </c>
       <c r="I598" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="J598" s="13"/>
@@ -26729,7 +26781,7 @@
         <v>1161</v>
       </c>
       <c r="I599" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J599" s="13"/>
@@ -26762,7 +26814,7 @@
         <v>1163</v>
       </c>
       <c r="I600" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="J600" s="13"/>
@@ -26795,7 +26847,7 @@
         <v>1165</v>
       </c>
       <c r="I601" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J601" s="13"/>
@@ -26828,7 +26880,7 @@
         <v>1167</v>
       </c>
       <c r="I602" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J602" s="13"/>
@@ -26861,7 +26913,7 @@
         <v>1169</v>
       </c>
       <c r="I603" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J603" s="13"/>
@@ -26894,7 +26946,7 @@
         <v>1171</v>
       </c>
       <c r="I604" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J604" s="13"/>
@@ -26927,7 +26979,7 @@
         <v>1173</v>
       </c>
       <c r="I605" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J605" s="13"/>
@@ -26960,7 +27012,7 @@
         <v>1175</v>
       </c>
       <c r="I606" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J606" s="13"/>
@@ -26991,7 +27043,7 @@
         <v>1177</v>
       </c>
       <c r="I607" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>39</v>
       </c>
       <c r="J607" s="13"/>
@@ -27022,7 +27074,7 @@
         <v>1179</v>
       </c>
       <c r="I608" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="J608" s="13"/>
@@ -27053,7 +27105,7 @@
         <v>1165</v>
       </c>
       <c r="I609" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J609" s="13"/>
@@ -27084,7 +27136,7 @@
         <v>1182</v>
       </c>
       <c r="I610" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>42</v>
       </c>
       <c r="J610" s="13"/>
@@ -27115,7 +27167,7 @@
         <v>1169</v>
       </c>
       <c r="I611" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J611" s="13"/>
@@ -27146,7 +27198,7 @@
         <v>1185</v>
       </c>
       <c r="I612" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="J612" s="13"/>
@@ -27177,7 +27229,7 @@
         <v>1173</v>
       </c>
       <c r="I613" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J613" s="13"/>
@@ -27208,7 +27260,7 @@
         <v>1188</v>
       </c>
       <c r="I614" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>37</v>
       </c>
       <c r="J614" s="13"/>
@@ -27239,7 +27291,7 @@
         <v>1191</v>
       </c>
       <c r="I615" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J615" s="13">
@@ -27274,7 +27326,7 @@
         <v>1192</v>
       </c>
       <c r="I616" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J616" s="13">
@@ -27307,7 +27359,7 @@
         <v>1194</v>
       </c>
       <c r="I617" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J617" s="13">
@@ -27340,7 +27392,7 @@
         <v>1195</v>
       </c>
       <c r="I618" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J618" s="13">
@@ -27375,7 +27427,7 @@
         <v>1197</v>
       </c>
       <c r="I619" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J619" s="13">
@@ -27410,7 +27462,7 @@
         <v>1198</v>
       </c>
       <c r="I620" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J620" s="13">
@@ -27447,7 +27499,7 @@
         <v>1200</v>
       </c>
       <c r="I621" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J621" s="13"/>
@@ -27480,7 +27532,7 @@
         <v>819</v>
       </c>
       <c r="I622" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J622" s="13"/>
@@ -27515,7 +27567,7 @@
         <v>1203</v>
       </c>
       <c r="I623" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J623" s="13"/>
@@ -27550,7 +27602,7 @@
         <v>1205</v>
       </c>
       <c r="I624" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J624" s="13"/>
@@ -27585,7 +27637,7 @@
         <v>1207</v>
       </c>
       <c r="I625" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J625" s="13"/>
@@ -27620,7 +27672,7 @@
         <v>1209</v>
       </c>
       <c r="I626" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J626" s="13"/>
@@ -27647,7 +27699,7 @@
         <v>1211</v>
       </c>
       <c r="I627" s="8">
-        <f>LEN(H627)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J627" s="13"/>
@@ -27674,7 +27726,7 @@
         <v>1212</v>
       </c>
       <c r="I628" s="8">
-        <f>LEN(H628)</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J628" s="13"/>
@@ -27707,7 +27759,7 @@
         <v>1215</v>
       </c>
       <c r="I629" s="8">
-        <f>LEN(H629)</f>
+        <f t="shared" si="17"/>
         <v>35</v>
       </c>
       <c r="J629" s="13">
@@ -27744,7 +27796,7 @@
         <v>1217</v>
       </c>
       <c r="I630" s="8">
-        <f>LEN(H630)</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="J630" s="13">
@@ -27781,7 +27833,7 @@
         <v>1219</v>
       </c>
       <c r="I631" s="8">
-        <f>LEN(H631)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="J631" s="13">
@@ -27818,7 +27870,7 @@
         <v>1221</v>
       </c>
       <c r="I632" s="8">
-        <f>LEN(H632)</f>
+        <f t="shared" si="17"/>
         <v>41</v>
       </c>
       <c r="J632" s="13">
@@ -27855,7 +27907,7 @@
         <v>1223</v>
       </c>
       <c r="I633" s="8">
-        <f>LEN(H633)</f>
+        <f t="shared" si="17"/>
         <v>30</v>
       </c>
       <c r="J633" s="13">
@@ -27892,7 +27944,7 @@
         <v>1225</v>
       </c>
       <c r="I634" s="8">
-        <f>LEN(H634)</f>
+        <f t="shared" si="17"/>
         <v>34</v>
       </c>
       <c r="J634" s="13">
@@ -27929,7 +27981,7 @@
         <v>1226</v>
       </c>
       <c r="I635" s="8">
-        <f>LEN(H635)</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="J635" s="13">
@@ -27966,7 +28018,7 @@
         <v>1228</v>
       </c>
       <c r="I636" s="8">
-        <f>LEN(H636)</f>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J636" s="13">
@@ -28003,7 +28055,7 @@
         <v>1230</v>
       </c>
       <c r="I637" s="8">
-        <f>LEN(H637)</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="J637" s="13">
@@ -28040,7 +28092,7 @@
         <v>1232</v>
       </c>
       <c r="I638" s="8">
-        <f>LEN(H638)</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="J638" s="13">
@@ -28079,7 +28131,7 @@
         <v>20</v>
       </c>
       <c r="I639" s="8">
-        <f>LEN(H639)</f>
+        <f t="shared" si="17"/>
         <v>28</v>
       </c>
       <c r="J639" s="13">
@@ -28118,7 +28170,7 @@
         <v>24</v>
       </c>
       <c r="I640" s="8">
-        <f>LEN(H640)</f>
+        <f t="shared" si="17"/>
         <v>29</v>
       </c>
       <c r="J640" s="13">
@@ -28157,7 +28209,7 @@
         <v>27</v>
       </c>
       <c r="I641" s="8">
-        <f>LEN(H641)</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="J641" s="13">
@@ -28196,7 +28248,7 @@
         <v>30</v>
       </c>
       <c r="I642" s="8">
-        <f>LEN(H642)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J642" s="13">
@@ -28235,7 +28287,7 @@
         <v>33</v>
       </c>
       <c r="I643" s="8">
-        <f>LEN(H643)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J643" s="13">
@@ -28274,7 +28326,7 @@
         <v>36</v>
       </c>
       <c r="I644" s="8">
-        <f>LEN(H644)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J644" s="13">
@@ -28309,7 +28361,7 @@
         <v>1234</v>
       </c>
       <c r="I645" s="8">
-        <f>LEN(H645)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J645" s="13">
@@ -28346,7 +28398,7 @@
         <v>1236</v>
       </c>
       <c r="I646" s="8">
-        <f>LEN(H646)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J646" s="13">
@@ -28383,7 +28435,7 @@
         <v>1238</v>
       </c>
       <c r="I647" s="8">
-        <f>LEN(H647)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J647" s="13">
@@ -28420,7 +28472,7 @@
         <v>1236</v>
       </c>
       <c r="I648" s="8">
-        <f>LEN(H648)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J648" s="13">
@@ -28457,7 +28509,7 @@
         <v>1238</v>
       </c>
       <c r="I649" s="8">
-        <f>LEN(H649)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J649" s="13">
@@ -28494,7 +28546,7 @@
         <v>1242</v>
       </c>
       <c r="I650" s="8">
-        <f t="shared" ref="I650:I664" si="15">LEN(H650)</f>
+        <f t="shared" ref="I650:I699" si="18">LEN(H650)</f>
         <v>25</v>
       </c>
       <c r="J650" s="13"/>
@@ -28527,7 +28579,7 @@
         <v>1244</v>
       </c>
       <c r="I651" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J651" s="13"/>
@@ -28556,7 +28608,7 @@
         <v>1246</v>
       </c>
       <c r="I652" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="J652" s="13"/>
@@ -28585,7 +28637,7 @@
         <v>1248</v>
       </c>
       <c r="I653" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="J653" s="13"/>
@@ -28614,7 +28666,7 @@
         <v>1250</v>
       </c>
       <c r="I654" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J654" s="13">
@@ -28647,7 +28699,7 @@
         <v>1251</v>
       </c>
       <c r="I655" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J655" s="13">
@@ -28680,7 +28732,7 @@
         <v>1254</v>
       </c>
       <c r="I656" s="8">
-        <f>LEN(H656)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="J656" s="13"/>
@@ -28709,7 +28761,7 @@
         <v>1256</v>
       </c>
       <c r="I657" s="8">
-        <f>LEN(H657)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="J657" s="13"/>
@@ -28738,7 +28790,7 @@
         <v>1258</v>
       </c>
       <c r="I658" s="8">
-        <f>LEN(H658)</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J658" s="13"/>
@@ -28767,7 +28819,7 @@
         <v>1260</v>
       </c>
       <c r="I659" s="8">
-        <f>LEN(H659)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J659" s="13"/>
@@ -28796,7 +28848,7 @@
         <v>1262</v>
       </c>
       <c r="I660" s="8">
-        <f>LEN(H660)</f>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J660" s="13"/>
@@ -28825,7 +28877,7 @@
         <v>1264</v>
       </c>
       <c r="I661" s="8">
-        <f>LEN(H661)</f>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J661" s="13"/>
@@ -28858,7 +28910,7 @@
         <v>1267</v>
       </c>
       <c r="I662" s="8">
-        <f>LEN(H662)</f>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="J662" s="13"/>
@@ -28891,7 +28943,7 @@
         <v>677</v>
       </c>
       <c r="I663" s="8">
-        <f>LEN(H663)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J663" s="13"/>
@@ -28924,7 +28976,7 @@
         <v>1271</v>
       </c>
       <c r="I664" s="8">
-        <f>LEN(H664)</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J664" s="13"/>
@@ -28957,7 +29009,7 @@
         <v>681</v>
       </c>
       <c r="I665" s="8">
-        <f>LEN(H665)</f>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="J665" s="13"/>
@@ -28992,7 +29044,7 @@
         <v>683</v>
       </c>
       <c r="I666" s="8">
-        <f>LEN(H666)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J666" s="13"/>
@@ -29025,7 +29077,7 @@
         <v>685</v>
       </c>
       <c r="I667" s="8">
-        <f>LEN(H667)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J667" s="13"/>
@@ -29058,7 +29110,7 @@
         <v>1277</v>
       </c>
       <c r="I668" s="8">
-        <f>LEN(H668)</f>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="J668" s="13"/>
@@ -29093,7 +29145,7 @@
         <v>689</v>
       </c>
       <c r="I669" s="8">
-        <f>LEN(H669)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J669" s="13"/>
@@ -29126,7 +29178,7 @@
         <v>691</v>
       </c>
       <c r="I670" s="8">
-        <f>LEN(H670)</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J670" s="13"/>
@@ -29159,7 +29211,7 @@
         <v>693</v>
       </c>
       <c r="I671" s="8">
-        <f>LEN(H671)</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J671" s="13"/>
@@ -29194,7 +29246,7 @@
         <v>695</v>
       </c>
       <c r="I672" s="8">
-        <f>LEN(H672)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="J672" s="13"/>
@@ -29227,7 +29279,7 @@
         <v>697</v>
       </c>
       <c r="I673" s="8">
-        <f>LEN(H673)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J673" s="13"/>
@@ -29260,7 +29312,7 @@
         <v>699</v>
       </c>
       <c r="I674" s="8">
-        <f>LEN(H674)</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="J674" s="13"/>
@@ -29297,7 +29349,7 @@
         <v>1288</v>
       </c>
       <c r="I675" s="8">
-        <f>LEN(H675)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J675" s="13"/>
@@ -29332,7 +29384,7 @@
         <v>1290</v>
       </c>
       <c r="I676" s="8">
-        <f>LEN(H676)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="J676" s="13"/>
@@ -29367,7 +29419,7 @@
         <v>1292</v>
       </c>
       <c r="I677" s="8">
-        <f>LEN(H677)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J677" s="13"/>
@@ -29402,7 +29454,7 @@
         <v>1294</v>
       </c>
       <c r="I678" s="8">
-        <f>LEN(H678)</f>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J678" s="13"/>
@@ -29437,7 +29489,7 @@
         <v>1296</v>
       </c>
       <c r="I679" s="8">
-        <f>LEN(H679)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="J679" s="13"/>
@@ -29472,7 +29524,7 @@
         <v>1298</v>
       </c>
       <c r="I680" s="8">
-        <f>LEN(H680)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="J680" s="13"/>
@@ -29507,7 +29559,7 @@
         <v>1300</v>
       </c>
       <c r="I681" s="8">
-        <f>LEN(H681)</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J681" s="13"/>
@@ -29542,7 +29594,7 @@
         <v>1302</v>
       </c>
       <c r="I682" s="8">
-        <f>LEN(H682)</f>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="J682" s="13"/>
@@ -29577,7 +29629,7 @@
         <v>1304</v>
       </c>
       <c r="I683" s="8">
-        <f>LEN(H683)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="J683" s="13"/>
@@ -29612,7 +29664,7 @@
         <v>1306</v>
       </c>
       <c r="I684" s="8">
-        <f>LEN(H684)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J684" s="13"/>
@@ -29647,7 +29699,7 @@
         <v>1308</v>
       </c>
       <c r="I685" s="8">
-        <f>LEN(H685)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J685" s="13"/>
@@ -29682,7 +29734,7 @@
         <v>1310</v>
       </c>
       <c r="I686" s="8">
-        <f>LEN(H686)</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J686" s="13"/>
@@ -29717,7 +29769,7 @@
         <v>1312</v>
       </c>
       <c r="I687" s="8">
-        <f>LEN(H687)</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J687" s="13"/>
@@ -29752,7 +29804,7 @@
         <v>1314</v>
       </c>
       <c r="I688" s="8">
-        <f>LEN(H688)</f>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="J688" s="13"/>
@@ -29787,7 +29839,7 @@
         <v>1316</v>
       </c>
       <c r="I689" s="8">
-        <f>LEN(H689)</f>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J689" s="13"/>
@@ -29822,7 +29874,7 @@
         <v>1318</v>
       </c>
       <c r="I690" s="8">
-        <f>LEN(H690)</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J690" s="13"/>
@@ -29849,7 +29901,7 @@
         <v>1320</v>
       </c>
       <c r="I691" s="8">
-        <f>LEN(H691)</f>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="J691" s="13">
@@ -29882,7 +29934,7 @@
         <v>1323</v>
       </c>
       <c r="I692" s="8">
-        <f>LEN(H692)</f>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="J692" s="13">
@@ -29915,7 +29967,7 @@
         <v>1325</v>
       </c>
       <c r="I693" s="8">
-        <f>LEN(H693)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J693" s="13">
@@ -29946,7 +29998,7 @@
         <v>1327</v>
       </c>
       <c r="I694" s="8">
-        <f>LEN(H694)</f>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="J694" s="13">
@@ -29977,7 +30029,7 @@
         <v>1329</v>
       </c>
       <c r="I695" s="8">
-        <f>LEN(H695)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="J695" s="13">
@@ -30008,7 +30060,7 @@
         <v>1331</v>
       </c>
       <c r="I696" s="8">
-        <f>LEN(H696)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="J696" s="13">
@@ -30047,7 +30099,7 @@
         <v>1334</v>
       </c>
       <c r="I697" s="8">
-        <f>LEN(H697)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="J697" s="10">
@@ -30089,7 +30141,7 @@
         <v>679</v>
       </c>
       <c r="I698" s="8">
-        <f>LEN(H698)</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="J698" s="10">
@@ -30133,14 +30185,14 @@
         <v>681</v>
       </c>
       <c r="I699" s="8">
-        <f>LEN(H699)</f>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="J699" s="10">
         <v>8961</v>
       </c>
       <c r="K699" s="10">
-        <f t="shared" ref="K699:K708" si="16">J699+I699-1</f>
+        <f t="shared" ref="K699:K708" si="19">J699+I699-1</f>
         <v>8979</v>
       </c>
       <c r="L699" s="16">
@@ -30175,12 +30227,12 @@
       </c>
       <c r="H700" s="10"/>
       <c r="I700" s="8">
-        <f t="shared" ref="I700:I708" si="17">LEN(H700)</f>
+        <f t="shared" ref="I700:I715" si="20">LEN(H700)</f>
         <v>0</v>
       </c>
       <c r="J700" s="10"/>
       <c r="K700" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L700" s="16"/>
@@ -30213,12 +30265,12 @@
       </c>
       <c r="H701" s="10"/>
       <c r="I701" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J701" s="10"/>
       <c r="K701" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L701" s="16"/>
@@ -30251,12 +30303,12 @@
       </c>
       <c r="H702" s="10"/>
       <c r="I702" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J702" s="10"/>
       <c r="K702" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L702" s="16"/>
@@ -30289,12 +30341,12 @@
       </c>
       <c r="H703" s="10"/>
       <c r="I703" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J703" s="10"/>
       <c r="K703" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L703" s="16"/>
@@ -30327,12 +30379,12 @@
       </c>
       <c r="H704" s="10"/>
       <c r="I704" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J704" s="10"/>
       <c r="K704" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L704" s="16"/>
@@ -30365,12 +30417,12 @@
       </c>
       <c r="H705" s="10"/>
       <c r="I705" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J705" s="10"/>
       <c r="K705" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L705" s="16"/>
@@ -30403,12 +30455,12 @@
       </c>
       <c r="H706" s="10"/>
       <c r="I706" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J706" s="10"/>
       <c r="K706" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L706" s="16"/>
@@ -30441,12 +30493,12 @@
       </c>
       <c r="H707" s="10"/>
       <c r="I707" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J707" s="10"/>
       <c r="K707" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L707" s="16"/>
@@ -30479,12 +30531,12 @@
       </c>
       <c r="H708" s="10"/>
       <c r="I708" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J708" s="10"/>
       <c r="K708" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1</v>
       </c>
       <c r="L708" s="16"/>
@@ -30504,7 +30556,9 @@
       <c r="D709" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E709" s="11"/>
+      <c r="E709" s="11">
+        <v>2014</v>
+      </c>
       <c r="F709" s="12" t="s">
         <v>1336</v>
       </c>
@@ -30515,7 +30569,7 @@
         <v>1338</v>
       </c>
       <c r="I709" s="8">
-        <f>LEN(H709)</f>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="J709" s="13"/>
@@ -30535,7 +30589,9 @@
       <c r="D710" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E710" s="11"/>
+      <c r="E710" s="11">
+        <v>2014</v>
+      </c>
       <c r="F710" s="12" t="s">
         <v>1336</v>
       </c>
@@ -30546,7 +30602,7 @@
         <v>1340</v>
       </c>
       <c r="I710" s="8">
-        <f>LEN(H710)</f>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="J710" s="13"/>
@@ -30566,7 +30622,9 @@
       <c r="D711" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E711" s="11"/>
+      <c r="E711" s="11">
+        <v>2014</v>
+      </c>
       <c r="F711" s="12" t="s">
         <v>1336</v>
       </c>
@@ -30575,7 +30633,7 @@
         <v>1341</v>
       </c>
       <c r="I711" s="8">
-        <f>LEN(H711)</f>
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
       <c r="J711" s="13"/>
@@ -30595,7 +30653,9 @@
         <v>28</v>
       </c>
       <c r="D712" s="11"/>
-      <c r="E712" s="11"/>
+      <c r="E712" s="11">
+        <v>2014</v>
+      </c>
       <c r="F712" s="12" t="s">
         <v>1342</v>
       </c>
@@ -30604,7 +30664,7 @@
         <v>1343</v>
       </c>
       <c r="I712" s="8">
-        <f>LEN(H712)</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J712" s="13"/>
@@ -30624,7 +30684,9 @@
         <v>28</v>
       </c>
       <c r="D713" s="11"/>
-      <c r="E713" s="11"/>
+      <c r="E713" s="11">
+        <v>2014</v>
+      </c>
       <c r="F713" s="12" t="s">
         <v>1342</v>
       </c>
@@ -30633,7 +30695,7 @@
         <v>1344</v>
       </c>
       <c r="I713" s="8">
-        <f>LEN(H713)</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J713" s="13"/>
@@ -30653,7 +30715,9 @@
       <c r="D714" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E714" s="11"/>
+      <c r="E714" s="11">
+        <v>2014</v>
+      </c>
       <c r="F714" s="12" t="s">
         <v>1345</v>
       </c>
@@ -30664,7 +30728,7 @@
         <v>821</v>
       </c>
       <c r="I714" s="8">
-        <f>LEN(H714)</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J714" s="13"/>
@@ -30684,7 +30748,9 @@
       <c r="D715" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E715" s="11"/>
+      <c r="E715" s="11">
+        <v>2014</v>
+      </c>
       <c r="F715" s="12" t="s">
         <v>1345</v>
       </c>
@@ -30695,7 +30761,7 @@
         <v>819</v>
       </c>
       <c r="I715" s="8">
-        <f>LEN(H715)</f>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="J715" s="13"/>
@@ -30728,7 +30794,7 @@
         <v>1350</v>
       </c>
       <c r="I716" s="8">
-        <f t="shared" ref="I716:I721" si="18">LEN(H716)</f>
+        <f t="shared" ref="I716:I721" si="21">LEN(H716)</f>
         <v>25</v>
       </c>
       <c r="J716" s="13"/>
@@ -30761,7 +30827,7 @@
         <v>1351</v>
       </c>
       <c r="I717" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="J717" s="13"/>
@@ -30794,7 +30860,7 @@
         <v>1353</v>
       </c>
       <c r="I718" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="J718" s="13"/>
@@ -30827,7 +30893,7 @@
         <v>30</v>
       </c>
       <c r="I719" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="J719" s="13"/>
@@ -30860,7 +30926,7 @@
         <v>1356</v>
       </c>
       <c r="I720" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="J720" s="13"/>
@@ -30893,7 +30959,7 @@
         <v>1358</v>
       </c>
       <c r="I721" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="J721" s="13"/>
@@ -30928,7 +30994,7 @@
         <v>1361</v>
       </c>
       <c r="I722" s="8">
-        <f t="shared" ref="I722:I733" si="19">LEN(H722)</f>
+        <f t="shared" ref="I722:I779" si="22">LEN(H722)</f>
         <v>19</v>
       </c>
       <c r="J722" s="13">
@@ -30967,7 +31033,7 @@
         <v>1363</v>
       </c>
       <c r="I723" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J723" s="13">
@@ -31006,7 +31072,7 @@
         <v>1365</v>
       </c>
       <c r="I724" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="J724" s="13">
@@ -31045,7 +31111,7 @@
         <v>1367</v>
       </c>
       <c r="I725" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J725" s="13">
@@ -31084,7 +31150,7 @@
         <v>1369</v>
       </c>
       <c r="I726" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J726" s="13">
@@ -31123,7 +31189,7 @@
         <v>1371</v>
       </c>
       <c r="I727" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="J727" s="13">
@@ -31162,7 +31228,7 @@
         <v>1373</v>
       </c>
       <c r="I728" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J728" s="13">
@@ -31201,7 +31267,7 @@
         <v>1375</v>
       </c>
       <c r="I729" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J729" s="13">
@@ -31240,7 +31306,7 @@
         <v>1377</v>
       </c>
       <c r="I730" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="J730" s="13">
@@ -31279,7 +31345,7 @@
         <v>1379</v>
       </c>
       <c r="I731" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J731" s="13">
@@ -31318,7 +31384,7 @@
         <v>1381</v>
       </c>
       <c r="I732" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J732" s="13">
@@ -31357,7 +31423,7 @@
         <v>1383</v>
       </c>
       <c r="I733" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="J733" s="13">
@@ -31394,7 +31460,7 @@
         <v>1385</v>
       </c>
       <c r="I734" s="8">
-        <f>LEN(H734)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="J734" s="13"/>
@@ -31427,7 +31493,7 @@
         <v>1387</v>
       </c>
       <c r="I735" s="8">
-        <f>LEN(H735)</f>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="J735" s="13"/>
@@ -31460,7 +31526,7 @@
         <v>1389</v>
       </c>
       <c r="I736" s="8">
-        <f>LEN(H736)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="J736" s="13"/>
@@ -31495,7 +31561,7 @@
         <v>1392</v>
       </c>
       <c r="I737" s="8">
-        <f>LEN(H737)</f>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="J737" s="13"/>
@@ -31532,7 +31598,7 @@
         <v>1395</v>
       </c>
       <c r="I738" s="8">
-        <f>LEN(H738)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J738" s="13"/>
@@ -31569,7 +31635,7 @@
         <v>1397</v>
       </c>
       <c r="I739" s="8">
-        <f>LEN(H739)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J739" s="13"/>
@@ -31606,7 +31672,7 @@
         <v>1399</v>
       </c>
       <c r="I740" s="8">
-        <f>LEN(H740)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J740" s="13"/>
@@ -31643,7 +31709,7 @@
         <v>1402</v>
       </c>
       <c r="I741" s="8">
-        <f>LEN(H741)</f>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="J741" s="13"/>
@@ -31678,7 +31744,7 @@
         <v>821</v>
       </c>
       <c r="I742" s="8">
-        <f>LEN(H742)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J742" s="13"/>
@@ -31711,7 +31777,7 @@
         <v>819</v>
       </c>
       <c r="I743" s="8">
-        <f>LEN(H743)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J743" s="13"/>
@@ -31742,7 +31808,7 @@
         <v>1408</v>
       </c>
       <c r="I744" s="8">
-        <f>LEN(H744)</f>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="J744" s="13"/>
@@ -31775,7 +31841,7 @@
         <v>1411</v>
       </c>
       <c r="I745" s="8">
-        <f>LEN(H745)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J745" s="13"/>
@@ -31808,7 +31874,7 @@
         <v>1411</v>
       </c>
       <c r="I746" s="8">
-        <f>LEN(H746)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J746" s="13"/>
@@ -31841,7 +31907,7 @@
         <v>1414</v>
       </c>
       <c r="I747" s="8">
-        <f>LEN(H747)</f>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="J747" s="13"/>
@@ -31874,7 +31940,7 @@
         <v>702</v>
       </c>
       <c r="I748" s="8">
-        <f>LEN(H748)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J748" s="13"/>
@@ -31907,7 +31973,7 @@
         <v>704</v>
       </c>
       <c r="I749" s="8">
-        <f>LEN(H749)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J749" s="13"/>
@@ -31940,7 +32006,7 @@
         <v>1419</v>
       </c>
       <c r="I750" s="8">
-        <f>LEN(H750)</f>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="J750" s="13"/>
@@ -31973,7 +32039,7 @@
         <v>708</v>
       </c>
       <c r="I751" s="8">
-        <f>LEN(H751)</f>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="J751" s="13"/>
@@ -32004,7 +32070,7 @@
         <v>710</v>
       </c>
       <c r="I752" s="8">
-        <f>LEN(H752)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J752" s="13"/>
@@ -32037,7 +32103,7 @@
         <v>713</v>
       </c>
       <c r="I753" s="8">
-        <f>LEN(H753)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J753" s="13"/>
@@ -32070,7 +32136,7 @@
         <v>715</v>
       </c>
       <c r="I754" s="8">
-        <f>LEN(H754)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J754" s="13"/>
@@ -32103,7 +32169,7 @@
         <v>717</v>
       </c>
       <c r="I755" s="8">
-        <f>LEN(H755)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J755" s="13"/>
@@ -32134,7 +32200,7 @@
         <v>1426</v>
       </c>
       <c r="I756" s="8">
-        <f>LEN(H756)</f>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="J756" s="13"/>
@@ -32165,7 +32231,7 @@
         <v>1428</v>
       </c>
       <c r="I757" s="8">
-        <f>LEN(H757)</f>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="J757" s="13"/>
@@ -32196,7 +32262,7 @@
         <v>1430</v>
       </c>
       <c r="I758" s="8">
-        <f>LEN(H758)</f>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="J758" s="13"/>
@@ -32227,7 +32293,7 @@
         <v>1432</v>
       </c>
       <c r="I759" s="8">
-        <f>LEN(H759)</f>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="J759" s="13"/>
@@ -32260,7 +32326,7 @@
         <v>1434</v>
       </c>
       <c r="I760" s="8">
-        <f>LEN(H760)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="J760" s="13">
@@ -32297,7 +32363,7 @@
         <v>1435</v>
       </c>
       <c r="I761" s="8">
-        <f>LEN(H761)</f>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="J761" s="13">
@@ -32334,7 +32400,7 @@
         <v>1436</v>
       </c>
       <c r="I762" s="8">
-        <f>LEN(H762)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J762" s="13">
@@ -32367,7 +32433,7 @@
         <v>1438</v>
       </c>
       <c r="I763" s="8">
-        <f>LEN(H763)</f>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="J763" s="13"/>
@@ -32396,7 +32462,7 @@
         <v>1439</v>
       </c>
       <c r="I764" s="8">
-        <f>LEN(H764)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="J764" s="13"/>
@@ -32425,7 +32491,7 @@
         <v>1440</v>
       </c>
       <c r="I765" s="8">
-        <f>LEN(H765)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J765" s="13"/>
@@ -32452,7 +32518,7 @@
         <v>1442</v>
       </c>
       <c r="I766" s="8">
-        <f>LEN(H766)</f>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="J766" s="13"/>
@@ -32479,7 +32545,7 @@
         <v>1443</v>
       </c>
       <c r="I767" s="8">
-        <f>LEN(H767)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J767" s="13"/>
@@ -32508,7 +32574,7 @@
         <v>1444</v>
       </c>
       <c r="I768" s="8">
-        <f>LEN(H768)</f>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="J768" s="13"/>
@@ -32521,7 +32587,9 @@
       <c r="A769" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="B769" s="11"/>
+      <c r="B769" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C769" s="11" t="s">
         <v>31</v>
       </c>
@@ -32539,7 +32607,7 @@
         <v>1446</v>
       </c>
       <c r="I769" s="8">
-        <f>LEN(H769)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="J769" s="13"/>
@@ -32552,7 +32620,9 @@
       <c r="A770" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="B770" s="11"/>
+      <c r="B770" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C770" s="11"/>
       <c r="D770" s="11"/>
       <c r="E770" s="11">
@@ -32568,7 +32638,7 @@
         <v>1448</v>
       </c>
       <c r="I770" s="8">
-        <f>LEN(H770)</f>
+        <f t="shared" si="22"/>
         <v>26</v>
       </c>
       <c r="J770" s="13"/>
@@ -32597,7 +32667,7 @@
         <v>1450</v>
       </c>
       <c r="I771" s="8">
-        <f>LEN(H771)</f>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="J771" s="13"/>
@@ -32626,7 +32696,7 @@
         <v>1451</v>
       </c>
       <c r="I772" s="8">
-        <f>LEN(H772)</f>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="J772" s="13"/>
@@ -32655,7 +32725,7 @@
         <v>1452</v>
       </c>
       <c r="I773" s="8">
-        <f>LEN(H773)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J773" s="13"/>
@@ -32690,14 +32760,14 @@
         <v>907</v>
       </c>
       <c r="I774" s="8">
-        <f>LEN(H774)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="J774" s="10">
         <v>10611</v>
       </c>
       <c r="K774" s="10">
-        <f>J774+I774-1</f>
+        <f t="shared" ref="K774:K779" si="23">J774+I774-1</f>
         <v>10631</v>
       </c>
       <c r="L774" s="16"/>
@@ -32732,14 +32802,14 @@
         <v>570</v>
       </c>
       <c r="I775" s="8">
-        <f>LEN(H775)</f>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="J775" s="10">
         <v>10683</v>
       </c>
       <c r="K775" s="10">
-        <f>J775+I775-1</f>
+        <f t="shared" si="23"/>
         <v>10701</v>
       </c>
       <c r="L775" s="16"/>
@@ -32774,14 +32844,14 @@
         <v>1456</v>
       </c>
       <c r="I776" s="8">
-        <f>LEN(H776)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="J776" s="10">
         <v>10642</v>
       </c>
       <c r="K776" s="10">
-        <f>J776+I776-1</f>
+        <f t="shared" si="23"/>
         <v>10659</v>
       </c>
       <c r="L776" s="16"/>
@@ -32816,14 +32886,14 @@
         <v>677</v>
       </c>
       <c r="I777" s="8">
-        <f>LEN(H777)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="J777" s="10">
         <v>8973</v>
       </c>
       <c r="K777" s="10">
-        <f>J777+I777-1</f>
+        <f t="shared" si="23"/>
         <v>8992</v>
       </c>
       <c r="L777" s="16"/>
@@ -32858,14 +32928,14 @@
         <v>1271</v>
       </c>
       <c r="I778" s="8">
-        <f>LEN(H778)</f>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="J778" s="10">
         <v>9084</v>
       </c>
       <c r="K778" s="10">
-        <f>J778+I778-1</f>
+        <f t="shared" si="23"/>
         <v>9108</v>
       </c>
       <c r="L778" s="16"/>
@@ -32900,14 +32970,14 @@
         <v>681</v>
       </c>
       <c r="I779" s="8">
-        <f>LEN(H779)</f>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="J779" s="10">
         <v>8998</v>
       </c>
       <c r="K779" s="10">
-        <f>J779+I779-1</f>
+        <f t="shared" si="23"/>
         <v>9016</v>
       </c>
       <c r="L779" s="16"/>
@@ -32942,14 +33012,14 @@
         <v>683</v>
       </c>
       <c r="I780" s="8">
-        <f t="shared" ref="I780:I788" si="20">LEN(H780)</f>
+        <f t="shared" ref="I780:I839" si="24">LEN(H780)</f>
         <v>22</v>
       </c>
       <c r="J780" s="10">
         <v>1443</v>
       </c>
       <c r="K780" s="10">
-        <f t="shared" ref="K780:K788" si="21">J780+I780-1</f>
+        <f t="shared" ref="K780:K788" si="25">J780+I780-1</f>
         <v>1464</v>
       </c>
       <c r="L780" s="16"/>
@@ -32984,14 +33054,14 @@
         <v>685</v>
       </c>
       <c r="I781" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J781" s="10">
         <v>1518</v>
       </c>
       <c r="K781" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1539</v>
       </c>
       <c r="L781" s="16"/>
@@ -33026,14 +33096,14 @@
         <v>1277</v>
       </c>
       <c r="I782" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>27</v>
       </c>
       <c r="J782" s="10">
         <v>1469</v>
       </c>
       <c r="K782" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1495</v>
       </c>
       <c r="L782" s="16"/>
@@ -33068,14 +33138,14 @@
         <v>689</v>
       </c>
       <c r="I783" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J783" s="10">
         <v>740</v>
       </c>
       <c r="K783" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>759</v>
       </c>
       <c r="L783" s="16"/>
@@ -33110,14 +33180,14 @@
         <v>691</v>
       </c>
       <c r="I784" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J784" s="10">
         <v>813</v>
       </c>
       <c r="K784" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>838</v>
       </c>
       <c r="L784" s="16"/>
@@ -33152,14 +33222,14 @@
         <v>693</v>
       </c>
       <c r="I785" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J785" s="10">
         <v>762</v>
       </c>
       <c r="K785" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>787</v>
       </c>
       <c r="L785" s="16"/>
@@ -33194,14 +33264,14 @@
         <v>695</v>
       </c>
       <c r="I786" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J786" s="10">
         <v>904</v>
       </c>
       <c r="K786" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>924</v>
       </c>
       <c r="L786" s="16"/>
@@ -33236,14 +33306,14 @@
         <v>697</v>
       </c>
       <c r="I787" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J787" s="10">
         <v>992</v>
       </c>
       <c r="K787" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1011</v>
       </c>
       <c r="L787" s="16"/>
@@ -33278,14 +33348,14 @@
         <v>699</v>
       </c>
       <c r="I788" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J788" s="10">
         <v>960</v>
       </c>
       <c r="K788" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>985</v>
       </c>
       <c r="L788" s="16"/>
@@ -33316,7 +33386,7 @@
         <v>1471</v>
       </c>
       <c r="I789" s="8">
-        <f>LEN(H789)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="J789" s="13"/>
@@ -33347,7 +33417,7 @@
         <v>1472</v>
       </c>
       <c r="I790" s="8">
-        <f>LEN(H790)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J790" s="13"/>
@@ -33380,7 +33450,7 @@
         <v>1474</v>
       </c>
       <c r="I791" s="8">
-        <f>LEN(H791)</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="J791" s="13"/>
@@ -33413,7 +33483,7 @@
         <v>570</v>
       </c>
       <c r="I792" s="8">
-        <f>LEN(H792)</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="J792" s="13"/>
@@ -33446,7 +33516,7 @@
         <v>1475</v>
       </c>
       <c r="I793" s="8">
-        <f>LEN(H793)</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="J793" s="13"/>
@@ -33477,7 +33547,7 @@
         <v>1477</v>
       </c>
       <c r="I794" s="8">
-        <f>LEN(H794)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="J794" s="13"/>
@@ -33508,7 +33578,7 @@
         <v>1479</v>
       </c>
       <c r="I795" s="8">
-        <f>LEN(H795)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="J795" s="13"/>
@@ -33537,7 +33607,7 @@
         <v>1482</v>
       </c>
       <c r="I796" s="8">
-        <f>LEN(H796)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J796" s="13"/>
@@ -33566,7 +33636,7 @@
         <v>1484</v>
       </c>
       <c r="I797" s="8">
-        <f>LEN(H797)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J797" s="13"/>
@@ -33599,7 +33669,7 @@
         <v>1486</v>
       </c>
       <c r="I798" s="8">
-        <f>LEN(H798)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J798" s="13"/>
@@ -33632,7 +33702,7 @@
         <v>1488</v>
       </c>
       <c r="I799" s="8">
-        <f>LEN(H799)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J799" s="13"/>
@@ -33665,7 +33735,7 @@
         <v>1490</v>
       </c>
       <c r="I800" s="8">
-        <f>LEN(H800)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J800" s="13"/>
@@ -33698,7 +33768,7 @@
         <v>1490</v>
       </c>
       <c r="I801" s="8">
-        <f>LEN(H801)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J801" s="13"/>
@@ -33731,7 +33801,7 @@
         <v>1490</v>
       </c>
       <c r="I802" s="8">
-        <f>LEN(H802)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J802" s="13"/>
@@ -33764,7 +33834,7 @@
         <v>704</v>
       </c>
       <c r="I803" s="8">
-        <f>LEN(H803)</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="J803" s="13"/>
@@ -33777,7 +33847,9 @@
       <c r="A804" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="B804" s="11"/>
+      <c r="B804" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C804" s="11"/>
       <c r="D804" s="11"/>
       <c r="E804" s="11"/>
@@ -33791,7 +33863,7 @@
         <v>1492</v>
       </c>
       <c r="I804" s="8">
-        <f>LEN(H804)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="J804" s="13"/>
@@ -33804,7 +33876,9 @@
       <c r="A805" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="B805" s="11"/>
+      <c r="B805" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C805" s="11"/>
       <c r="D805" s="11"/>
       <c r="E805" s="11"/>
@@ -33818,7 +33892,7 @@
         <v>1494</v>
       </c>
       <c r="I805" s="8">
-        <f>LEN(H805)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="J805" s="13"/>
@@ -33831,7 +33905,9 @@
       <c r="A806" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="B806" s="11"/>
+      <c r="B806" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C806" s="11"/>
       <c r="D806" s="11"/>
       <c r="E806" s="11"/>
@@ -33845,7 +33921,7 @@
         <v>1496</v>
       </c>
       <c r="I806" s="8">
-        <f>LEN(H806)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J806" s="13"/>
@@ -33858,7 +33934,9 @@
       <c r="A807" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="B807" s="11"/>
+      <c r="B807" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C807" s="11"/>
       <c r="D807" s="11"/>
       <c r="E807" s="11"/>
@@ -33872,7 +33950,7 @@
         <v>1498</v>
       </c>
       <c r="I807" s="8">
-        <f>LEN(H807)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J807" s="13"/>
@@ -33903,7 +33981,7 @@
         <v>1501</v>
       </c>
       <c r="I808" s="8">
-        <f>LEN(H808)</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="J808" s="13">
@@ -33938,7 +34016,7 @@
         <v>1503</v>
       </c>
       <c r="I809" s="8">
-        <f>LEN(H809)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J809" s="13">
@@ -33973,7 +34051,7 @@
         <v>1505</v>
       </c>
       <c r="I810" s="8">
-        <f>LEN(H810)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J810" s="13">
@@ -34006,7 +34084,7 @@
         <v>1507</v>
       </c>
       <c r="I811" s="8">
-        <f>LEN(H811)</f>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="J811" s="13">
@@ -34041,7 +34119,7 @@
         <v>1508</v>
       </c>
       <c r="I812" s="8">
-        <f>LEN(H812)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J812" s="13"/>
@@ -34072,7 +34150,7 @@
         <v>1509</v>
       </c>
       <c r="I813" s="8">
-        <f>LEN(H813)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J813" s="13"/>
@@ -34103,7 +34181,7 @@
         <v>1510</v>
       </c>
       <c r="I814" s="8">
-        <f>LEN(H814)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J814" s="13"/>
@@ -34134,7 +34212,7 @@
         <v>1512</v>
       </c>
       <c r="I815" s="8">
-        <f>LEN(H815)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J815" s="13"/>
@@ -34165,7 +34243,7 @@
         <v>1514</v>
       </c>
       <c r="I816" s="8">
-        <f>LEN(H816)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J816" s="13"/>
@@ -34196,7 +34274,7 @@
         <v>1516</v>
       </c>
       <c r="I817" s="8">
-        <f>LEN(H817)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="J817" s="13"/>
@@ -34227,7 +34305,7 @@
         <v>1518</v>
       </c>
       <c r="I818" s="8">
-        <f>LEN(H818)</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="J818" s="13"/>
@@ -34262,7 +34340,7 @@
         <v>1521</v>
       </c>
       <c r="I819" s="8">
-        <f>LEN(H819)</f>
+        <f t="shared" si="24"/>
         <v>26</v>
       </c>
       <c r="J819" s="13"/>
@@ -34297,7 +34375,7 @@
         <v>1523</v>
       </c>
       <c r="I820" s="8">
-        <f>LEN(H820)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="J820" s="13"/>
@@ -34332,7 +34410,7 @@
         <v>1525</v>
       </c>
       <c r="I821" s="8">
-        <f>LEN(H821)</f>
+        <f t="shared" si="24"/>
         <v>34</v>
       </c>
       <c r="J821" s="13"/>
@@ -34367,7 +34445,7 @@
         <v>1528</v>
       </c>
       <c r="I822" s="8">
-        <f>LEN(H822)</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="J822" s="13"/>
@@ -34402,7 +34480,7 @@
         <v>1530</v>
       </c>
       <c r="I823" s="8">
-        <f>LEN(H823)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J823" s="13"/>
@@ -34437,7 +34515,7 @@
         <v>1532</v>
       </c>
       <c r="I824" s="8">
-        <f>LEN(H824)</f>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="J824" s="13"/>
@@ -34472,7 +34550,7 @@
         <v>1534</v>
       </c>
       <c r="I825" s="8">
-        <f>LEN(H825)</f>
+        <f t="shared" si="24"/>
         <v>43</v>
       </c>
       <c r="J825" s="13"/>
@@ -34503,7 +34581,7 @@
         <v>1535</v>
       </c>
       <c r="I826" s="8">
-        <f>LEN(H826)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="J826" s="13"/>
@@ -34518,7 +34596,9 @@
       <c r="A827" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B827" s="11"/>
+      <c r="B827" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C827" s="11"/>
       <c r="D827" s="11"/>
       <c r="E827" s="11">
@@ -34534,7 +34614,7 @@
         <v>1530</v>
       </c>
       <c r="I827" s="8">
-        <f>LEN(H827)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J827" s="13"/>
@@ -34549,7 +34629,9 @@
       <c r="A828" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B828" s="11"/>
+      <c r="B828" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C828" s="11"/>
       <c r="D828" s="11"/>
       <c r="E828" s="11">
@@ -34565,7 +34647,7 @@
         <v>1532</v>
       </c>
       <c r="I828" s="8">
-        <f>LEN(H828)</f>
+        <f t="shared" si="24"/>
         <v>45</v>
       </c>
       <c r="J828" s="13"/>
@@ -34580,7 +34662,9 @@
       <c r="A829" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B829" s="11"/>
+      <c r="B829" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C829" s="11"/>
       <c r="D829" s="11"/>
       <c r="E829" s="11">
@@ -34596,7 +34680,7 @@
         <v>1534</v>
       </c>
       <c r="I829" s="8">
-        <f>LEN(H829)</f>
+        <f t="shared" si="24"/>
         <v>43</v>
       </c>
       <c r="J829" s="13"/>
@@ -34611,7 +34695,9 @@
       <c r="A830" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B830" s="11"/>
+      <c r="B830" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C830" s="11"/>
       <c r="D830" s="11"/>
       <c r="E830" s="11">
@@ -34627,7 +34713,7 @@
         <v>1542</v>
       </c>
       <c r="I830" s="8">
-        <f>LEN(H830)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="J830" s="13"/>
@@ -34640,7 +34726,9 @@
       <c r="A831" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B831" s="11"/>
+      <c r="B831" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C831" s="11"/>
       <c r="D831" s="11"/>
       <c r="E831" s="11">
@@ -34656,7 +34744,7 @@
         <v>1544</v>
       </c>
       <c r="I831" s="8">
-        <f>LEN(H831)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="J831" s="13"/>
@@ -34669,7 +34757,9 @@
       <c r="A832" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B832" s="11"/>
+      <c r="B832" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C832" s="11"/>
       <c r="D832" s="11"/>
       <c r="E832" s="11">
@@ -34685,7 +34775,7 @@
         <v>1546</v>
       </c>
       <c r="I832" s="8">
-        <f>LEN(H832)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J832" s="13"/>
@@ -34698,7 +34788,9 @@
       <c r="A833" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B833" s="11"/>
+      <c r="B833" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C833" s="11"/>
       <c r="D833" s="11"/>
       <c r="E833" s="11">
@@ -34714,7 +34806,7 @@
         <v>1548</v>
       </c>
       <c r="I833" s="8">
-        <f>LEN(H833)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="J833" s="13"/>
@@ -34727,7 +34819,9 @@
       <c r="A834" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B834" s="11"/>
+      <c r="B834" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C834" s="11"/>
       <c r="D834" s="11"/>
       <c r="E834" s="11">
@@ -34743,7 +34837,7 @@
         <v>1550</v>
       </c>
       <c r="I834" s="8">
-        <f>LEN(H834)</f>
+        <f t="shared" si="24"/>
         <v>48</v>
       </c>
       <c r="J834" s="13"/>
@@ -34756,7 +34850,9 @@
       <c r="A835" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B835" s="11"/>
+      <c r="B835" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C835" s="11"/>
       <c r="D835" s="11"/>
       <c r="E835" s="11">
@@ -34772,7 +34868,7 @@
         <v>1552</v>
       </c>
       <c r="I835" s="8">
-        <f>LEN(H835)</f>
+        <f t="shared" si="24"/>
         <v>47</v>
       </c>
       <c r="J835" s="13"/>
@@ -34785,7 +34881,9 @@
       <c r="A836" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B836" s="11"/>
+      <c r="B836" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C836" s="11"/>
       <c r="D836" s="11"/>
       <c r="E836" s="11">
@@ -34801,7 +34899,7 @@
         <v>1554</v>
       </c>
       <c r="I836" s="8">
-        <f>LEN(H836)</f>
+        <f t="shared" si="24"/>
         <v>49</v>
       </c>
       <c r="J836" s="13"/>
@@ -34814,7 +34912,9 @@
       <c r="A837" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="B837" s="11"/>
+      <c r="B837" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C837" s="11"/>
       <c r="D837" s="11"/>
       <c r="E837" s="11">
@@ -34830,7 +34930,7 @@
         <v>1556</v>
       </c>
       <c r="I837" s="8">
-        <f>LEN(H837)</f>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="J837" s="13"/>
@@ -34859,7 +34959,7 @@
         <v>1456</v>
       </c>
       <c r="I838" s="8">
-        <f>LEN(H838)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="J838" s="13"/>
@@ -34894,7 +34994,7 @@
         <v>1560</v>
       </c>
       <c r="I839" s="8">
-        <f>LEN(H839)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="J839" s="13"/>
@@ -34931,7 +35031,7 @@
         <v>1563</v>
       </c>
       <c r="I840" s="8">
-        <f t="shared" ref="I840:I845" si="22">LEN(H840)</f>
+        <f t="shared" ref="I840:I845" si="26">LEN(H840)</f>
         <v>18</v>
       </c>
       <c r="J840" s="13"/>
@@ -34968,7 +35068,7 @@
         <v>1565</v>
       </c>
       <c r="I841" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>41</v>
       </c>
       <c r="J841" s="13"/>
@@ -35005,7 +35105,7 @@
         <v>1567</v>
       </c>
       <c r="I842" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="J842" s="13"/>
@@ -35042,7 +35142,7 @@
         <v>1569</v>
       </c>
       <c r="I843" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="J843" s="13"/>
@@ -35079,7 +35179,7 @@
         <v>1571</v>
       </c>
       <c r="I844" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="J844" s="13"/>
@@ -35116,7 +35216,7 @@
         <v>1573</v>
       </c>
       <c r="I845" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="J845" s="13"/>
@@ -35153,7 +35253,7 @@
         <v>1576</v>
       </c>
       <c r="I846" s="8">
-        <f t="shared" ref="I846:I876" si="23">LEN(H846)</f>
+        <f t="shared" ref="I846:I878" si="27">LEN(H846)</f>
         <v>18</v>
       </c>
       <c r="J846" s="13"/>
@@ -35190,7 +35290,7 @@
         <v>1578</v>
       </c>
       <c r="I847" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="J847" s="13"/>
@@ -35227,7 +35327,7 @@
         <v>1580</v>
       </c>
       <c r="I848" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
       <c r="J848" s="13"/>
@@ -35264,7 +35364,7 @@
         <v>1582</v>
       </c>
       <c r="I849" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="J849" s="13"/>
@@ -35301,7 +35401,7 @@
         <v>1584</v>
       </c>
       <c r="I850" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="J850" s="13"/>
@@ -35338,7 +35438,7 @@
         <v>1586</v>
       </c>
       <c r="I851" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="J851" s="13"/>
@@ -35375,7 +35475,7 @@
         <v>1589</v>
       </c>
       <c r="I852" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="J852" s="13"/>
@@ -35412,7 +35512,7 @@
         <v>1591</v>
       </c>
       <c r="I853" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="J853" s="13"/>
@@ -35449,7 +35549,7 @@
         <v>1593</v>
       </c>
       <c r="I854" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>39</v>
       </c>
       <c r="J854" s="13"/>
@@ -35486,7 +35586,7 @@
         <v>1595</v>
       </c>
       <c r="I855" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="J855" s="13"/>
@@ -35523,7 +35623,7 @@
         <v>1597</v>
       </c>
       <c r="I856" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="J856" s="13"/>
@@ -35560,7 +35660,7 @@
         <v>1599</v>
       </c>
       <c r="I857" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="J857" s="13"/>
@@ -35597,7 +35697,7 @@
         <v>1602</v>
       </c>
       <c r="I858" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="J858" s="13"/>
@@ -35634,7 +35734,7 @@
         <v>1604</v>
       </c>
       <c r="I859" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="J859" s="13"/>
@@ -35671,7 +35771,7 @@
         <v>1606</v>
       </c>
       <c r="I860" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
       <c r="J860" s="13"/>
@@ -35708,7 +35808,7 @@
         <v>1608</v>
       </c>
       <c r="I861" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="J861" s="13"/>
@@ -35745,7 +35845,7 @@
         <v>1610</v>
       </c>
       <c r="I862" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="J862" s="13"/>
@@ -35782,7 +35882,7 @@
         <v>1612</v>
       </c>
       <c r="I863" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="J863" s="13"/>
@@ -35819,7 +35919,7 @@
         <v>1615</v>
       </c>
       <c r="I864" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="J864" s="13"/>
@@ -35856,7 +35956,7 @@
         <v>1617</v>
       </c>
       <c r="I865" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>44</v>
       </c>
       <c r="J865" s="13"/>
@@ -35893,7 +35993,7 @@
         <v>1619</v>
       </c>
       <c r="I866" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>43</v>
       </c>
       <c r="J866" s="13"/>
@@ -35930,7 +36030,7 @@
         <v>1621</v>
       </c>
       <c r="I867" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="J867" s="13"/>
@@ -35967,7 +36067,7 @@
         <v>1623</v>
       </c>
       <c r="I868" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="J868" s="13"/>
@@ -36004,7 +36104,7 @@
         <v>1625</v>
       </c>
       <c r="I869" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="J869" s="13"/>
@@ -36041,7 +36141,7 @@
         <v>1628</v>
       </c>
       <c r="I870" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="J870" s="13"/>
@@ -36078,7 +36178,7 @@
         <v>1630</v>
       </c>
       <c r="I871" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="J871" s="13"/>
@@ -36115,7 +36215,7 @@
         <v>1632</v>
       </c>
       <c r="I872" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
       <c r="J872" s="13"/>
@@ -36152,7 +36252,7 @@
         <v>1634</v>
       </c>
       <c r="I873" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="J873" s="13"/>
@@ -36189,7 +36289,7 @@
         <v>1637</v>
       </c>
       <c r="I874" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="J874" s="13"/>
@@ -36226,7 +36326,7 @@
         <v>1639</v>
       </c>
       <c r="I875" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>49</v>
       </c>
       <c r="J875" s="13"/>
@@ -36263,7 +36363,7 @@
         <v>1641</v>
       </c>
       <c r="I876" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>41</v>
       </c>
       <c r="J876" s="13"/>
@@ -36300,7 +36400,7 @@
         <v>1643</v>
       </c>
       <c r="I877" s="8">
-        <f>LEN(H877)</f>
+        <f t="shared" si="27"/>
         <v>34</v>
       </c>
       <c r="J877" s="10">
@@ -36342,7 +36442,7 @@
         <v>1644</v>
       </c>
       <c r="I878" s="8">
-        <f>LEN(H878)</f>
+        <f t="shared" si="27"/>
         <v>36</v>
       </c>
       <c r="J878" s="10">

--- a/Data/GISDDprimer.xlsx
+++ b/Data/GISDDprimer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21150" windowHeight="12120"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="GISDDprimer" sheetId="1" r:id="rId1"/>
@@ -450,6 +450,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>CCATCAATGAGAAAGGTCTGTTGATGACTCTGTAGACTGTAGAGAGC3’</t>
     </r>
     <r>
@@ -3272,6 +3277,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>DENV-2 consensus primers (forward</t>
     </r>
     <r>
@@ -3285,6 +3295,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>DENV-2 consensus primers (Reverse</t>
     </r>
     <r>
@@ -7793,27 +7808,27 @@
   <sheetPr/>
   <dimension ref="A1:N1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1079" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I447" sqref="I447"/>
+      <selection pane="bottomLeft" activeCell="F1087" sqref="F1087"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.44166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.10833333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5083333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.10833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.55833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.7583333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.775" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.09166666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.05" style="3" customWidth="1"/>
-    <col min="12" max="12" width="6.65833333333333" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.63333333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.44444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5092592592593" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.11111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.55555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3425925925926" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3703703703704" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7592592592593" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.7777777777778" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.09259259259259" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.0462962962963" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.65740740740741" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.62962962962963" style="4" customWidth="1"/>
     <col min="14" max="14" width="7" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="5"/>
   </cols>
@@ -11894,7 +11909,7 @@
         <v>241</v>
       </c>
       <c r="J103" s="8">
-        <f>LEN(I103)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K103" s="16"/>
@@ -11933,7 +11948,7 @@
         <v>243</v>
       </c>
       <c r="J104" s="8">
-        <f>LEN(I104)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="K104" s="16"/>
@@ -11972,7 +11987,7 @@
         <v>245</v>
       </c>
       <c r="J105" s="8">
-        <f>LEN(I105)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="K105" s="16"/>
@@ -12011,7 +12026,7 @@
         <v>247</v>
       </c>
       <c r="J106" s="8">
-        <f>LEN(I106)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="K106" s="16"/>
@@ -12050,7 +12065,7 @@
         <v>250</v>
       </c>
       <c r="J107" s="8">
-        <f>LEN(I107)</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="K107" s="16"/>
@@ -12089,7 +12104,7 @@
         <v>252</v>
       </c>
       <c r="J108" s="8">
-        <f>LEN(I108)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="K108" s="16"/>
@@ -12128,7 +12143,7 @@
         <v>254</v>
       </c>
       <c r="J109" s="8">
-        <f>LEN(I109)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="K109" s="16"/>
@@ -12167,7 +12182,7 @@
         <v>256</v>
       </c>
       <c r="J110" s="8">
-        <f>LEN(I110)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="K110" s="16"/>
@@ -12206,7 +12221,7 @@
         <v>258</v>
       </c>
       <c r="J111" s="8">
-        <f>LEN(I111)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K111" s="16"/>
@@ -12245,7 +12260,7 @@
         <v>260</v>
       </c>
       <c r="J112" s="8">
-        <f>LEN(I112)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="K112" s="16"/>
@@ -12284,7 +12299,7 @@
         <v>262</v>
       </c>
       <c r="J113" s="8">
-        <f>LEN(I113)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="K113" s="16"/>
@@ -12323,7 +12338,7 @@
         <v>264</v>
       </c>
       <c r="J114" s="8">
-        <f>LEN(I114)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="K114" s="16"/>
@@ -12362,7 +12377,7 @@
         <v>269</v>
       </c>
       <c r="J115" s="8">
-        <f>LEN(I115)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K115" s="16"/>
@@ -12401,7 +12416,7 @@
         <v>271</v>
       </c>
       <c r="J116" s="8">
-        <f>LEN(I116)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K116" s="16"/>
@@ -12436,7 +12451,7 @@
         <v>269</v>
       </c>
       <c r="J117" s="8">
-        <f t="shared" ref="J107:J142" si="4">LEN(I117)</f>
+        <f t="shared" ref="J107:J160" si="4">LEN(I117)</f>
         <v>18</v>
       </c>
       <c r="K117" s="16"/>
@@ -13202,7 +13217,7 @@
         <v>288</v>
       </c>
       <c r="J137" s="8">
-        <f>LEN(I137)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K137" s="16">
@@ -13243,7 +13258,7 @@
         <v>290</v>
       </c>
       <c r="J138" s="8">
-        <f>LEN(I138)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K138" s="16">
@@ -13284,7 +13299,7 @@
         <v>292</v>
       </c>
       <c r="J139" s="8">
-        <f>LEN(I139)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="K139" s="16">
@@ -13325,7 +13340,7 @@
         <v>294</v>
       </c>
       <c r="J140" s="8">
-        <f>LEN(I140)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K140" s="16">
@@ -13366,7 +13381,7 @@
         <v>296</v>
       </c>
       <c r="J141" s="8">
-        <f>LEN(I141)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K141" s="16">
@@ -13407,7 +13422,7 @@
         <v>298</v>
       </c>
       <c r="J142" s="8">
-        <f>LEN(I142)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="K142" s="16">
@@ -13448,7 +13463,7 @@
         <v>300</v>
       </c>
       <c r="J143" s="8">
-        <f>LEN(I143)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="K143" s="16">
@@ -13489,7 +13504,7 @@
         <v>302</v>
       </c>
       <c r="J144" s="8">
-        <f>LEN(I144)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K144" s="16">
@@ -13530,7 +13545,7 @@
         <v>304</v>
       </c>
       <c r="J145" s="8">
-        <f>LEN(I145)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K145" s="16">
@@ -13571,7 +13586,7 @@
         <v>306</v>
       </c>
       <c r="J146" s="8">
-        <f>LEN(I146)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K146" s="16">
@@ -13612,7 +13627,7 @@
         <v>308</v>
       </c>
       <c r="J147" s="8">
-        <f>LEN(I147)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="K147" s="16">
@@ -13653,7 +13668,7 @@
         <v>310</v>
       </c>
       <c r="J148" s="8">
-        <f>LEN(I148)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="K148" s="16">
@@ -13694,7 +13709,7 @@
         <v>312</v>
       </c>
       <c r="J149" s="8">
-        <f>LEN(I149)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K149" s="16">
@@ -13735,7 +13750,7 @@
         <v>314</v>
       </c>
       <c r="J150" s="8">
-        <f>LEN(I150)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K150" s="16">
@@ -13776,7 +13791,7 @@
         <v>316</v>
       </c>
       <c r="J151" s="8">
-        <f>LEN(I151)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K151" s="16">
@@ -13817,7 +13832,7 @@
         <v>318</v>
       </c>
       <c r="J152" s="8">
-        <f>LEN(I152)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K152" s="16">
@@ -13858,7 +13873,7 @@
         <v>320</v>
       </c>
       <c r="J153" s="8">
-        <f>LEN(I153)</f>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="K153" s="16">
@@ -13899,7 +13914,7 @@
         <v>322</v>
       </c>
       <c r="J154" s="8">
-        <f>LEN(I154)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K154" s="16">
@@ -13940,7 +13955,7 @@
         <v>324</v>
       </c>
       <c r="J155" s="8">
-        <f>LEN(I155)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K155" s="16">
@@ -13981,7 +13996,7 @@
         <v>326</v>
       </c>
       <c r="J156" s="8">
-        <f>LEN(I156)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K156" s="16">
@@ -14022,7 +14037,7 @@
         <v>328</v>
       </c>
       <c r="J157" s="8">
-        <f>LEN(I157)</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K157" s="16">
@@ -14063,7 +14078,7 @@
         <v>330</v>
       </c>
       <c r="J158" s="8">
-        <f>LEN(I158)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="K158" s="16">
@@ -14106,7 +14121,7 @@
         <v>334</v>
       </c>
       <c r="J159" s="8">
-        <f>LEN(I159)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="K159" s="16"/>
@@ -14145,7 +14160,7 @@
         <v>336</v>
       </c>
       <c r="J160" s="8">
-        <f>LEN(I160)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="K160" s="16"/>
@@ -28750,7 +28765,7 @@
         <v>1099</v>
       </c>
       <c r="J540" s="8">
-        <f t="shared" ref="J540:J573" si="21">LEN(I540)</f>
+        <f t="shared" ref="J540:J586" si="21">LEN(I540)</f>
         <v>20</v>
       </c>
       <c r="K540" s="16">
@@ -29966,7 +29981,7 @@
         <v>551</v>
       </c>
       <c r="J570" s="8">
-        <f>LEN(I570)</f>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K570" s="16"/>
@@ -30005,7 +30020,7 @@
         <v>549</v>
       </c>
       <c r="J571" s="8">
-        <f>LEN(I571)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="K571" s="16"/>
@@ -30040,7 +30055,7 @@
         <v>1149</v>
       </c>
       <c r="J572" s="8">
-        <f>LEN(I572)</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="K572" s="16"/>
@@ -30075,7 +30090,7 @@
         <v>1150</v>
       </c>
       <c r="J573" s="8">
-        <f>LEN(I573)</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="K573" s="16"/>
@@ -30110,7 +30125,7 @@
         <v>1151</v>
       </c>
       <c r="J574" s="8">
-        <f>LEN(I574)</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="K574" s="16"/>
@@ -30145,7 +30160,7 @@
         <v>1153</v>
       </c>
       <c r="J575" s="8">
-        <f>LEN(I575)</f>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="K575" s="16"/>
@@ -30180,7 +30195,7 @@
         <v>1154</v>
       </c>
       <c r="J576" s="8">
-        <f>LEN(I576)</f>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="K576" s="16"/>
@@ -30215,7 +30230,7 @@
         <v>1155</v>
       </c>
       <c r="J577" s="8">
-        <f>LEN(I577)</f>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="K577" s="16"/>
@@ -30252,7 +30267,7 @@
         <v>1157</v>
       </c>
       <c r="J578" s="8">
-        <f>LEN(I578)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="K578" s="16"/>
@@ -30287,7 +30302,7 @@
         <v>1159</v>
       </c>
       <c r="J579" s="8">
-        <f>LEN(I579)</f>
+        <f t="shared" si="21"/>
         <v>26</v>
       </c>
       <c r="K579" s="16"/>
@@ -30322,7 +30337,7 @@
         <v>1090</v>
       </c>
       <c r="J580" s="8">
-        <f>LEN(I580)</f>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="K580" s="16"/>
@@ -30357,7 +30372,7 @@
         <v>1161</v>
       </c>
       <c r="J581" s="8">
-        <f>LEN(I581)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="K581" s="16"/>
@@ -30392,7 +30407,7 @@
         <v>1073</v>
       </c>
       <c r="J582" s="8">
-        <f>LEN(I582)</f>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="K582" s="16"/>
@@ -30431,7 +30446,7 @@
         <v>1164</v>
       </c>
       <c r="J583" s="8">
-        <f>LEN(I583)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="K583" s="16">
@@ -30474,7 +30489,7 @@
         <v>1166</v>
       </c>
       <c r="J584" s="8">
-        <f>LEN(I584)</f>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="K584" s="16">
@@ -30517,7 +30532,7 @@
         <v>1168</v>
       </c>
       <c r="J585" s="8">
-        <f>LEN(I585)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="K585" s="16"/>
@@ -30556,7 +30571,7 @@
         <v>1170</v>
       </c>
       <c r="J586" s="8">
-        <f>LEN(I586)</f>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="K586" s="16"/>
@@ -49485,7 +49500,7 @@
       </c>
       <c r="D1087" s="10"/>
       <c r="E1087" s="10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1087" s="10" t="s">
         <v>1214</v>
@@ -49522,7 +49537,7 @@
       </c>
       <c r="D1088" s="10"/>
       <c r="E1088" s="10">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F1088" s="10" t="s">
         <v>1214</v>
